--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.897486830072364</v>
+        <v>0.8974868300723647</v>
       </c>
       <c r="D2">
         <v>1.028263938955607</v>
       </c>
       <c r="E2">
-        <v>0.9174879703547835</v>
+        <v>0.9174879703547841</v>
       </c>
       <c r="F2">
-        <v>0.9063598762622656</v>
+        <v>0.9063598762622669</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.041155232366742</v>
       </c>
       <c r="J2">
-        <v>0.9232349347826928</v>
+        <v>0.9232349347826936</v>
       </c>
       <c r="K2">
         <v>1.039343069607308</v>
       </c>
       <c r="L2">
-        <v>0.9302305279471458</v>
+        <v>0.9302305279471467</v>
       </c>
       <c r="M2">
-        <v>0.9192987168471974</v>
+        <v>0.9192987168471984</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9162886061041845</v>
+        <v>0.9162886061041854</v>
       </c>
       <c r="D3">
         <v>1.033484312224221</v>
       </c>
       <c r="E3">
-        <v>0.9338374489907997</v>
+        <v>0.9338374489908007</v>
       </c>
       <c r="F3">
-        <v>0.9271749006838053</v>
+        <v>0.9271749006838061</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.044885051897976</v>
       </c>
       <c r="J3">
-        <v>0.9393541984804546</v>
+        <v>0.9393541984804553</v>
       </c>
       <c r="K3">
         <v>1.043705957251093</v>
       </c>
       <c r="L3">
-        <v>0.9453932599219108</v>
+        <v>0.9453932599219115</v>
       </c>
       <c r="M3">
-        <v>0.9388329696991728</v>
+        <v>0.9388329696991737</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9274068880683147</v>
+        <v>0.9274068880683137</v>
       </c>
       <c r="D4">
-        <v>1.03661443897141</v>
+        <v>1.036614438971409</v>
       </c>
       <c r="E4">
-        <v>0.9435121962667342</v>
+        <v>0.9435121962667335</v>
       </c>
       <c r="F4">
-        <v>0.9394006264586081</v>
+        <v>0.9394006264586067</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047068107006169</v>
+        <v>1.047068107006168</v>
       </c>
       <c r="J4">
-        <v>0.9488693053340292</v>
+        <v>0.9488693053340282</v>
       </c>
       <c r="K4">
-        <v>1.046290165164755</v>
+        <v>1.046290165164754</v>
       </c>
       <c r="L4">
-        <v>0.9543438357234252</v>
+        <v>0.9543438357234244</v>
       </c>
       <c r="M4">
-        <v>0.9502899825003063</v>
+        <v>0.9502899825003051</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9318706511422206</v>
+        <v>0.9318706511422208</v>
       </c>
       <c r="D5">
         <v>1.037878903409853</v>
       </c>
       <c r="E5">
-        <v>0.9473975303154879</v>
+        <v>0.9473975303154881</v>
       </c>
       <c r="F5">
-        <v>0.9442901069933006</v>
+        <v>0.9442901069933007</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.047938081387893</v>
       </c>
       <c r="J5">
-        <v>0.9526853593385377</v>
+        <v>0.9526853593385378</v>
       </c>
       <c r="K5">
         <v>1.047326993324859</v>
       </c>
       <c r="L5">
-        <v>0.9579334256657193</v>
+        <v>0.9579334256657194</v>
       </c>
       <c r="M5">
-        <v>0.9548680146458924</v>
+        <v>0.9548680146458925</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9326087660494506</v>
+        <v>0.9326087660494512</v>
       </c>
       <c r="D6">
         <v>1.038088385580161</v>
       </c>
       <c r="E6">
-        <v>0.9480400524185569</v>
+        <v>0.9480400524185576</v>
       </c>
       <c r="F6">
-        <v>0.9450975280818963</v>
+        <v>0.9450975280818968</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.048081528759338</v>
       </c>
       <c r="J6">
-        <v>0.9533161308522582</v>
+        <v>0.9533161308522589</v>
       </c>
       <c r="K6">
         <v>1.047498357134024</v>
       </c>
       <c r="L6">
-        <v>0.9585267585307256</v>
+        <v>0.9585267585307263</v>
       </c>
       <c r="M6">
-        <v>0.955623766550158</v>
+        <v>0.9556237665501586</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9274673147163272</v>
+        <v>0.9274673147163273</v>
       </c>
       <c r="D7">
-        <v>1.036631528113581</v>
+        <v>1.03663152811358</v>
       </c>
       <c r="E7">
-        <v>0.9435647886887949</v>
+        <v>0.9435647886887952</v>
       </c>
       <c r="F7">
-        <v>0.9394668905416081</v>
+        <v>0.9394668905416083</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.047079911166291</v>
       </c>
       <c r="J7">
-        <v>0.9489209801306936</v>
+        <v>0.9489209801306938</v>
       </c>
       <c r="K7">
         <v>1.046304205593296</v>
       </c>
       <c r="L7">
-        <v>0.9543924442018668</v>
+        <v>0.9543924442018669</v>
       </c>
       <c r="M7">
-        <v>0.9503520418767851</v>
+        <v>0.950352041876785</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.90408651700993</v>
+        <v>0.9040865170099295</v>
       </c>
       <c r="D8">
         <v>1.03008503704494</v>
       </c>
       <c r="E8">
-        <v>0.923225069771766</v>
+        <v>0.9232250697717655</v>
       </c>
       <c r="F8">
-        <v>0.9136852774413777</v>
+        <v>0.9136852774413776</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042468635653724</v>
+        <v>1.042468635653725</v>
       </c>
       <c r="J8">
-        <v>0.9288967247896702</v>
+        <v>0.9288967247896697</v>
       </c>
       <c r="K8">
         <v>1.040872342849904</v>
       </c>
       <c r="L8">
-        <v>0.9355562585682262</v>
+        <v>0.9355562585682256</v>
       </c>
       <c r="M8">
-        <v>0.9261769590123002</v>
+        <v>0.9261769590123001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8519744770896588</v>
+        <v>0.851974477089659</v>
       </c>
       <c r="D9">
         <v>1.016099043156115</v>
       </c>
       <c r="E9">
-        <v>0.8779915859269346</v>
+        <v>0.8779915859269348</v>
       </c>
       <c r="F9">
-        <v>0.8553484172537381</v>
+        <v>0.8553484172537382</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032059171382241</v>
       </c>
       <c r="J9">
-        <v>0.8841073464566223</v>
+        <v>0.8841073464566227</v>
       </c>
       <c r="K9">
         <v>1.02893621499192</v>
       </c>
       <c r="L9">
-        <v>0.8934319585391683</v>
+        <v>0.8934319585391688</v>
       </c>
       <c r="M9">
-        <v>0.8713237303552466</v>
+        <v>0.8713237303552468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8014759753684625</v>
+        <v>0.8014759753684658</v>
       </c>
       <c r="D10">
         <v>1.003558629096311</v>
       </c>
       <c r="E10">
-        <v>0.8343500391623266</v>
+        <v>0.8343500391623301</v>
       </c>
       <c r="F10">
-        <v>0.7978805001030314</v>
+        <v>0.7978805001030352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022099639877407</v>
+        <v>1.022099639877408</v>
       </c>
       <c r="J10">
-        <v>0.8405900468390425</v>
+        <v>0.8405900468390455</v>
       </c>
       <c r="K10">
-        <v>1.01786392728917</v>
+        <v>1.017863927289171</v>
       </c>
       <c r="L10">
-        <v>0.8525298541519724</v>
+        <v>0.8525298541519755</v>
       </c>
       <c r="M10">
-        <v>0.8171966803278796</v>
+        <v>0.817196680327883</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7693742320395389</v>
+        <v>0.7693742320395368</v>
       </c>
       <c r="D11">
-        <v>0.9961898389133572</v>
+        <v>0.9961898389133573</v>
       </c>
       <c r="E11">
-        <v>0.8067363187478453</v>
+        <v>0.8067363187478436</v>
       </c>
       <c r="F11">
-        <v>0.7609302576600886</v>
+        <v>0.7609302576600864</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015951760781034</v>
       </c>
       <c r="J11">
-        <v>0.8129066858968429</v>
+        <v>0.8129066858968409</v>
       </c>
       <c r="K11">
         <v>1.011183968784881</v>
       </c>
       <c r="L11">
-        <v>0.8265307115617575</v>
+        <v>0.8265307115617558</v>
       </c>
       <c r="M11">
-        <v>0.7823989762525941</v>
+        <v>0.782398976252592</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7535197981382478</v>
+        <v>0.7535197981382458</v>
       </c>
       <c r="D12">
-        <v>0.9927367584156284</v>
+        <v>0.9927367584156283</v>
       </c>
       <c r="E12">
-        <v>0.7931422362657354</v>
+        <v>0.7931422362657335</v>
       </c>
       <c r="F12">
-        <v>0.7425664101553916</v>
+        <v>0.7425664101553902</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.012986871686571</v>
       </c>
       <c r="J12">
-        <v>0.7992356641179598</v>
+        <v>0.7992356641179579</v>
       </c>
       <c r="K12">
         <v>1.008004446267818</v>
       </c>
       <c r="L12">
-        <v>0.8136987644405699</v>
+        <v>0.813698764440568</v>
       </c>
       <c r="M12">
-        <v>0.7651166454161835</v>
+        <v>0.7651166454161823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -845,10 +845,10 @@
         <v>0.9935307912716609</v>
       </c>
       <c r="E13">
-        <v>0.7963099092010698</v>
+        <v>0.7963099092010694</v>
       </c>
       <c r="F13">
-        <v>0.7468560491660615</v>
+        <v>0.7468560491660602</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.013673696952561</v>
       </c>
       <c r="J13">
-        <v>0.8024238168497404</v>
+        <v>0.8024238168497403</v>
       </c>
       <c r="K13">
-        <v>1.00873853507551</v>
+        <v>1.008738535075509</v>
       </c>
       <c r="L13">
-        <v>0.8166907678244968</v>
+        <v>0.8166907678244966</v>
       </c>
       <c r="M13">
-        <v>0.76915266807259</v>
+        <v>0.7691526680725886</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7681803992389132</v>
+        <v>0.7681803992389109</v>
       </c>
       <c r="D14">
-        <v>0.9959254482902162</v>
+        <v>0.9959254482902157</v>
       </c>
       <c r="E14">
-        <v>0.8057116259354392</v>
+        <v>0.8057116259354373</v>
       </c>
       <c r="F14">
-        <v>0.7595501003156611</v>
+        <v>0.7595501003156588</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015726732977728</v>
+        <v>1.015726732977727</v>
       </c>
       <c r="J14">
-        <v>0.8118771842418497</v>
+        <v>0.8118771842418477</v>
       </c>
       <c r="K14">
-        <v>1.010941686285391</v>
+        <v>1.01094168628539</v>
       </c>
       <c r="L14">
-        <v>0.8255642163606683</v>
+        <v>0.8255642163606668</v>
       </c>
       <c r="M14">
-        <v>0.7810997479967488</v>
+        <v>0.7810997479967466</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7742514276056168</v>
+        <v>0.7742514276056163</v>
       </c>
       <c r="D15">
         <v>0.9972772738135162</v>
       </c>
       <c r="E15">
-        <v>0.810924262525428</v>
+        <v>0.8109242625254275</v>
       </c>
       <c r="F15">
-        <v>0.7665641937261276</v>
+        <v>0.7665641937261274</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016873941646999</v>
       </c>
       <c r="J15">
-        <v>0.8171126169950752</v>
+        <v>0.8171126169950749</v>
       </c>
       <c r="K15">
         <v>1.012178505774752</v>
       </c>
       <c r="L15">
-        <v>0.8304795291193745</v>
+        <v>0.8304795291193741</v>
       </c>
       <c r="M15">
-        <v>0.7877030594041969</v>
+        <v>0.7877030594041966</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8032763633362844</v>
+        <v>0.8032763633362843</v>
       </c>
       <c r="D16">
-        <v>1.00398635823858</v>
+        <v>1.003986358238581</v>
       </c>
       <c r="E16">
-        <v>0.8359019561963364</v>
+        <v>0.8359019561963363</v>
       </c>
       <c r="F16">
-        <v>0.7999434772604257</v>
+        <v>0.7999434772604258</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02244946535324</v>
+        <v>1.022449465353241</v>
       </c>
       <c r="J16">
-        <v>0.8421424694798956</v>
+        <v>0.8421424694798955</v>
       </c>
       <c r="K16">
         <v>1.018247541528072</v>
       </c>
       <c r="L16">
-        <v>0.8539883609734077</v>
+        <v>0.8539883609734076</v>
       </c>
       <c r="M16">
-        <v>0.8191399871671499</v>
+        <v>0.8191399871671496</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8180388120777943</v>
+        <v>0.8180388120777908</v>
       </c>
       <c r="D17">
         <v>1.007549325750278</v>
       </c>
       <c r="E17">
-        <v>0.8486389344438487</v>
+        <v>0.8486389344438459</v>
       </c>
       <c r="F17">
-        <v>0.8168207602696848</v>
+        <v>0.8168207602696822</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.02533498896461</v>
       </c>
       <c r="J17">
-        <v>0.8548699420481339</v>
+        <v>0.8548699420481309</v>
       </c>
       <c r="K17">
         <v>1.021426270170254</v>
       </c>
       <c r="L17">
-        <v>0.8659477676282762</v>
+        <v>0.8659477676282732</v>
       </c>
       <c r="M17">
-        <v>0.8350386521936817</v>
+        <v>0.8350386521936791</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.825850142997712</v>
+        <v>0.8258501429977108</v>
       </c>
       <c r="D18">
         <v>1.009473966699796</v>
       </c>
       <c r="E18">
-        <v>0.8553867160618095</v>
+        <v>0.8553867160618083</v>
       </c>
       <c r="F18">
-        <v>0.8257230338587378</v>
+        <v>0.8257230338587364</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026872944432059</v>
       </c>
       <c r="J18">
-        <v>0.8616028067759844</v>
+        <v>0.8616028067759831</v>
       </c>
       <c r="K18">
         <v>1.023131146701079</v>
       </c>
       <c r="L18">
-        <v>0.872275608918658</v>
+        <v>0.8722756089186567</v>
       </c>
       <c r="M18">
-        <v>0.8434244459582514</v>
+        <v>0.8434244459582501</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8284021935489196</v>
+        <v>0.8284021935489202</v>
       </c>
       <c r="D19">
-        <v>1.010108530227007</v>
+        <v>1.010108530227008</v>
       </c>
       <c r="E19">
-        <v>0.8575924649338686</v>
+        <v>0.8575924649338693</v>
       </c>
       <c r="F19">
-        <v>0.8286272089222346</v>
+        <v>0.8286272089222351</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02737688498588</v>
       </c>
       <c r="J19">
-        <v>0.8638021902080224</v>
+        <v>0.863802190208023</v>
       </c>
       <c r="K19">
-        <v>1.023691409064083</v>
+        <v>1.023691409064084</v>
       </c>
       <c r="L19">
-        <v>0.8743428655035084</v>
+        <v>0.8743428655035087</v>
       </c>
       <c r="M19">
-        <v>0.846159997242887</v>
+        <v>0.8461599972428874</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8165440464505258</v>
+        <v>0.8165440464505267</v>
       </c>
       <c r="D20">
-        <v>1.007184095115383</v>
+        <v>1.007184095115384</v>
       </c>
       <c r="E20">
-        <v>0.8473483188340516</v>
+        <v>0.8473483188340525</v>
       </c>
       <c r="F20">
-        <v>0.8151149950467304</v>
+        <v>0.8151149950467323</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025041512268616</v>
+        <v>1.025041512268617</v>
       </c>
       <c r="J20">
-        <v>0.8535813987571744</v>
+        <v>0.8535813987571753</v>
       </c>
       <c r="K20">
-        <v>1.021101786284192</v>
+        <v>1.021101786284193</v>
       </c>
       <c r="L20">
-        <v>0.8647368359665332</v>
+        <v>0.8647368359665341</v>
       </c>
       <c r="M20">
-        <v>0.8334318019478696</v>
+        <v>0.8334318019478716</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7651109277904004</v>
+        <v>0.7651109277903971</v>
       </c>
       <c r="D21">
-        <v>0.9952489214417785</v>
+        <v>0.9952489214417776</v>
       </c>
       <c r="E21">
-        <v>0.8030778119391009</v>
+        <v>0.8030778119390979</v>
       </c>
       <c r="F21">
-        <v>0.7559996002762805</v>
+        <v>0.7559996002762764</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015149456237067</v>
+        <v>1.015149456237066</v>
       </c>
       <c r="J21">
-        <v>0.8092302719800831</v>
+        <v>0.8092302719800801</v>
       </c>
       <c r="K21">
-        <v>1.010320866994878</v>
+        <v>1.010320866994877</v>
       </c>
       <c r="L21">
-        <v>0.8230794295204283</v>
+        <v>0.8230794295204256</v>
       </c>
       <c r="M21">
-        <v>0.7777576826762194</v>
+        <v>0.7777576826762155</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7651109277904004</v>
+        <v>0.7651109277903971</v>
       </c>
       <c r="D22">
-        <v>0.9952489214417785</v>
+        <v>0.9952489214417776</v>
       </c>
       <c r="E22">
-        <v>0.8030778119391009</v>
+        <v>0.8030778119390979</v>
       </c>
       <c r="F22">
-        <v>0.7559996002762805</v>
+        <v>0.7559996002762764</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015149456237067</v>
+        <v>1.015149456237066</v>
       </c>
       <c r="J22">
-        <v>0.8092302719800831</v>
+        <v>0.8092302719800801</v>
       </c>
       <c r="K22">
-        <v>1.010320866994878</v>
+        <v>1.010320866994877</v>
       </c>
       <c r="L22">
-        <v>0.8230794295204283</v>
+        <v>0.8230794295204256</v>
       </c>
       <c r="M22">
-        <v>0.7777576826762194</v>
+        <v>0.7777576826762155</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7410761055916031</v>
+        <v>0.7410761055916</v>
       </c>
       <c r="D23">
-        <v>0.9901158465216301</v>
+        <v>0.9901158465216297</v>
       </c>
       <c r="E23">
-        <v>0.7824949712897009</v>
+        <v>0.7824949712896981</v>
       </c>
       <c r="F23">
-        <v>0.7280999983984763</v>
+        <v>0.7280999983984734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010697415962657</v>
+        <v>1.010697415962656</v>
       </c>
       <c r="J23">
-        <v>0.7885080511831789</v>
+        <v>0.7885080511831762</v>
       </c>
       <c r="K23">
-        <v>1.005568268692605</v>
+        <v>1.005568268692604</v>
       </c>
       <c r="L23">
-        <v>0.8036333850174209</v>
+        <v>0.803633385017418</v>
       </c>
       <c r="M23">
-        <v>0.7515108100000726</v>
+        <v>0.7515108100000695</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8172218459017805</v>
+        <v>0.8172218459017822</v>
       </c>
       <c r="D24">
         <v>1.007349585387903</v>
       </c>
       <c r="E24">
-        <v>0.8479335212160601</v>
+        <v>0.8479335212160615</v>
       </c>
       <c r="F24">
-        <v>0.8158885604587264</v>
+        <v>0.815888560458727</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025174554654718</v>
+        <v>1.025174554654717</v>
       </c>
       <c r="J24">
-        <v>0.8541656925189813</v>
+        <v>0.8541656925189828</v>
       </c>
       <c r="K24">
         <v>1.021248851782643</v>
       </c>
       <c r="L24">
-        <v>0.8652859325189267</v>
+        <v>0.8652859325189282</v>
       </c>
       <c r="M24">
-        <v>0.8341605106175853</v>
+        <v>0.8341605106175862</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.867281833563778</v>
+        <v>0.8672818335637776</v>
       </c>
       <c r="D25">
         <v>1.020107815632462</v>
       </c>
       <c r="E25">
-        <v>0.8912608697055546</v>
+        <v>0.8912608697055543</v>
       </c>
       <c r="F25">
-        <v>0.872595582076056</v>
+        <v>0.8725955820760558</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.035117698266922</v>
       </c>
       <c r="J25">
-        <v>0.8972809124666526</v>
+        <v>0.8972809124666523</v>
       </c>
       <c r="K25">
         <v>1.032401801596251</v>
       </c>
       <c r="L25">
-        <v>0.9058196828790999</v>
+        <v>0.9058196828790995</v>
       </c>
       <c r="M25">
         <v>0.8875563607732316</v>

--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8974868300723647</v>
+        <v>0.897486830072364</v>
       </c>
       <c r="D2">
         <v>1.028263938955607</v>
       </c>
       <c r="E2">
-        <v>0.9174879703547841</v>
+        <v>0.9174879703547835</v>
       </c>
       <c r="F2">
-        <v>0.9063598762622669</v>
+        <v>0.9063598762622656</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.041155232366742</v>
       </c>
       <c r="J2">
-        <v>0.9232349347826936</v>
+        <v>0.9232349347826928</v>
       </c>
       <c r="K2">
         <v>1.039343069607308</v>
       </c>
       <c r="L2">
-        <v>0.9302305279471467</v>
+        <v>0.9302305279471458</v>
       </c>
       <c r="M2">
-        <v>0.9192987168471984</v>
+        <v>0.9192987168471974</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9162886061041854</v>
+        <v>0.9162886061041845</v>
       </c>
       <c r="D3">
         <v>1.033484312224221</v>
       </c>
       <c r="E3">
-        <v>0.9338374489908007</v>
+        <v>0.9338374489907997</v>
       </c>
       <c r="F3">
-        <v>0.9271749006838061</v>
+        <v>0.9271749006838053</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.044885051897976</v>
       </c>
       <c r="J3">
-        <v>0.9393541984804553</v>
+        <v>0.9393541984804546</v>
       </c>
       <c r="K3">
         <v>1.043705957251093</v>
       </c>
       <c r="L3">
-        <v>0.9453932599219115</v>
+        <v>0.9453932599219108</v>
       </c>
       <c r="M3">
-        <v>0.9388329696991737</v>
+        <v>0.9388329696991728</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9274068880683137</v>
+        <v>0.9274068880683147</v>
       </c>
       <c r="D4">
-        <v>1.036614438971409</v>
+        <v>1.03661443897141</v>
       </c>
       <c r="E4">
-        <v>0.9435121962667335</v>
+        <v>0.9435121962667342</v>
       </c>
       <c r="F4">
-        <v>0.9394006264586067</v>
+        <v>0.9394006264586081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047068107006168</v>
+        <v>1.047068107006169</v>
       </c>
       <c r="J4">
-        <v>0.9488693053340282</v>
+        <v>0.9488693053340292</v>
       </c>
       <c r="K4">
-        <v>1.046290165164754</v>
+        <v>1.046290165164755</v>
       </c>
       <c r="L4">
-        <v>0.9543438357234244</v>
+        <v>0.9543438357234252</v>
       </c>
       <c r="M4">
-        <v>0.9502899825003051</v>
+        <v>0.9502899825003063</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9318706511422208</v>
+        <v>0.9318706511422206</v>
       </c>
       <c r="D5">
         <v>1.037878903409853</v>
       </c>
       <c r="E5">
-        <v>0.9473975303154881</v>
+        <v>0.9473975303154879</v>
       </c>
       <c r="F5">
-        <v>0.9442901069933007</v>
+        <v>0.9442901069933006</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.047938081387893</v>
       </c>
       <c r="J5">
-        <v>0.9526853593385378</v>
+        <v>0.9526853593385377</v>
       </c>
       <c r="K5">
         <v>1.047326993324859</v>
       </c>
       <c r="L5">
-        <v>0.9579334256657194</v>
+        <v>0.9579334256657193</v>
       </c>
       <c r="M5">
-        <v>0.9548680146458925</v>
+        <v>0.9548680146458924</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9326087660494512</v>
+        <v>0.9326087660494506</v>
       </c>
       <c r="D6">
         <v>1.038088385580161</v>
       </c>
       <c r="E6">
-        <v>0.9480400524185576</v>
+        <v>0.9480400524185569</v>
       </c>
       <c r="F6">
-        <v>0.9450975280818968</v>
+        <v>0.9450975280818963</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.048081528759338</v>
       </c>
       <c r="J6">
-        <v>0.9533161308522589</v>
+        <v>0.9533161308522582</v>
       </c>
       <c r="K6">
         <v>1.047498357134024</v>
       </c>
       <c r="L6">
-        <v>0.9585267585307263</v>
+        <v>0.9585267585307256</v>
       </c>
       <c r="M6">
-        <v>0.9556237665501586</v>
+        <v>0.955623766550158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9274673147163273</v>
+        <v>0.9274673147163272</v>
       </c>
       <c r="D7">
-        <v>1.03663152811358</v>
+        <v>1.036631528113581</v>
       </c>
       <c r="E7">
-        <v>0.9435647886887952</v>
+        <v>0.9435647886887949</v>
       </c>
       <c r="F7">
-        <v>0.9394668905416083</v>
+        <v>0.9394668905416081</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.047079911166291</v>
       </c>
       <c r="J7">
-        <v>0.9489209801306938</v>
+        <v>0.9489209801306936</v>
       </c>
       <c r="K7">
         <v>1.046304205593296</v>
       </c>
       <c r="L7">
-        <v>0.9543924442018669</v>
+        <v>0.9543924442018668</v>
       </c>
       <c r="M7">
-        <v>0.950352041876785</v>
+        <v>0.9503520418767851</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9040865170099295</v>
+        <v>0.90408651700993</v>
       </c>
       <c r="D8">
         <v>1.03008503704494</v>
       </c>
       <c r="E8">
-        <v>0.9232250697717655</v>
+        <v>0.923225069771766</v>
       </c>
       <c r="F8">
-        <v>0.9136852774413776</v>
+        <v>0.9136852774413777</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042468635653725</v>
+        <v>1.042468635653724</v>
       </c>
       <c r="J8">
-        <v>0.9288967247896697</v>
+        <v>0.9288967247896702</v>
       </c>
       <c r="K8">
         <v>1.040872342849904</v>
       </c>
       <c r="L8">
-        <v>0.9355562585682256</v>
+        <v>0.9355562585682262</v>
       </c>
       <c r="M8">
-        <v>0.9261769590123001</v>
+        <v>0.9261769590123002</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.851974477089659</v>
+        <v>0.8519744770896588</v>
       </c>
       <c r="D9">
         <v>1.016099043156115</v>
       </c>
       <c r="E9">
-        <v>0.8779915859269348</v>
+        <v>0.8779915859269346</v>
       </c>
       <c r="F9">
-        <v>0.8553484172537382</v>
+        <v>0.8553484172537381</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.032059171382241</v>
       </c>
       <c r="J9">
-        <v>0.8841073464566227</v>
+        <v>0.8841073464566223</v>
       </c>
       <c r="K9">
         <v>1.02893621499192</v>
       </c>
       <c r="L9">
-        <v>0.8934319585391688</v>
+        <v>0.8934319585391683</v>
       </c>
       <c r="M9">
-        <v>0.8713237303552468</v>
+        <v>0.8713237303552466</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8014759753684658</v>
+        <v>0.8014759753684625</v>
       </c>
       <c r="D10">
         <v>1.003558629096311</v>
       </c>
       <c r="E10">
-        <v>0.8343500391623301</v>
+        <v>0.8343500391623266</v>
       </c>
       <c r="F10">
-        <v>0.7978805001030352</v>
+        <v>0.7978805001030314</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022099639877408</v>
+        <v>1.022099639877407</v>
       </c>
       <c r="J10">
-        <v>0.8405900468390455</v>
+        <v>0.8405900468390425</v>
       </c>
       <c r="K10">
-        <v>1.017863927289171</v>
+        <v>1.01786392728917</v>
       </c>
       <c r="L10">
-        <v>0.8525298541519755</v>
+        <v>0.8525298541519724</v>
       </c>
       <c r="M10">
-        <v>0.817196680327883</v>
+        <v>0.8171966803278796</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7693742320395368</v>
+        <v>0.7693742320395389</v>
       </c>
       <c r="D11">
-        <v>0.9961898389133573</v>
+        <v>0.9961898389133572</v>
       </c>
       <c r="E11">
-        <v>0.8067363187478436</v>
+        <v>0.8067363187478453</v>
       </c>
       <c r="F11">
-        <v>0.7609302576600864</v>
+        <v>0.7609302576600886</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015951760781034</v>
       </c>
       <c r="J11">
-        <v>0.8129066858968409</v>
+        <v>0.8129066858968429</v>
       </c>
       <c r="K11">
         <v>1.011183968784881</v>
       </c>
       <c r="L11">
-        <v>0.8265307115617558</v>
+        <v>0.8265307115617575</v>
       </c>
       <c r="M11">
-        <v>0.782398976252592</v>
+        <v>0.7823989762525941</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7535197981382458</v>
+        <v>0.7535197981382478</v>
       </c>
       <c r="D12">
-        <v>0.9927367584156283</v>
+        <v>0.9927367584156284</v>
       </c>
       <c r="E12">
-        <v>0.7931422362657335</v>
+        <v>0.7931422362657354</v>
       </c>
       <c r="F12">
-        <v>0.7425664101553902</v>
+        <v>0.7425664101553916</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.012986871686571</v>
       </c>
       <c r="J12">
-        <v>0.7992356641179579</v>
+        <v>0.7992356641179598</v>
       </c>
       <c r="K12">
         <v>1.008004446267818</v>
       </c>
       <c r="L12">
-        <v>0.813698764440568</v>
+        <v>0.8136987644405699</v>
       </c>
       <c r="M12">
-        <v>0.7651166454161823</v>
+        <v>0.7651166454161835</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -845,10 +845,10 @@
         <v>0.9935307912716609</v>
       </c>
       <c r="E13">
-        <v>0.7963099092010694</v>
+        <v>0.7963099092010698</v>
       </c>
       <c r="F13">
-        <v>0.7468560491660602</v>
+        <v>0.7468560491660615</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.013673696952561</v>
       </c>
       <c r="J13">
-        <v>0.8024238168497403</v>
+        <v>0.8024238168497404</v>
       </c>
       <c r="K13">
-        <v>1.008738535075509</v>
+        <v>1.00873853507551</v>
       </c>
       <c r="L13">
-        <v>0.8166907678244966</v>
+        <v>0.8166907678244968</v>
       </c>
       <c r="M13">
-        <v>0.7691526680725886</v>
+        <v>0.76915266807259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7681803992389109</v>
+        <v>0.7681803992389132</v>
       </c>
       <c r="D14">
-        <v>0.9959254482902157</v>
+        <v>0.9959254482902162</v>
       </c>
       <c r="E14">
-        <v>0.8057116259354373</v>
+        <v>0.8057116259354392</v>
       </c>
       <c r="F14">
-        <v>0.7595501003156588</v>
+        <v>0.7595501003156611</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015726732977727</v>
+        <v>1.015726732977728</v>
       </c>
       <c r="J14">
-        <v>0.8118771842418477</v>
+        <v>0.8118771842418497</v>
       </c>
       <c r="K14">
-        <v>1.01094168628539</v>
+        <v>1.010941686285391</v>
       </c>
       <c r="L14">
-        <v>0.8255642163606668</v>
+        <v>0.8255642163606683</v>
       </c>
       <c r="M14">
-        <v>0.7810997479967466</v>
+        <v>0.7810997479967488</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7742514276056163</v>
+        <v>0.7742514276056168</v>
       </c>
       <c r="D15">
         <v>0.9972772738135162</v>
       </c>
       <c r="E15">
-        <v>0.8109242625254275</v>
+        <v>0.810924262525428</v>
       </c>
       <c r="F15">
-        <v>0.7665641937261274</v>
+        <v>0.7665641937261276</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.016873941646999</v>
       </c>
       <c r="J15">
-        <v>0.8171126169950749</v>
+        <v>0.8171126169950752</v>
       </c>
       <c r="K15">
         <v>1.012178505774752</v>
       </c>
       <c r="L15">
-        <v>0.8304795291193741</v>
+        <v>0.8304795291193745</v>
       </c>
       <c r="M15">
-        <v>0.7877030594041966</v>
+        <v>0.7877030594041969</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8032763633362843</v>
+        <v>0.8032763633362844</v>
       </c>
       <c r="D16">
-        <v>1.003986358238581</v>
+        <v>1.00398635823858</v>
       </c>
       <c r="E16">
-        <v>0.8359019561963363</v>
+        <v>0.8359019561963364</v>
       </c>
       <c r="F16">
-        <v>0.7999434772604258</v>
+        <v>0.7999434772604257</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022449465353241</v>
+        <v>1.02244946535324</v>
       </c>
       <c r="J16">
-        <v>0.8421424694798955</v>
+        <v>0.8421424694798956</v>
       </c>
       <c r="K16">
         <v>1.018247541528072</v>
       </c>
       <c r="L16">
-        <v>0.8539883609734076</v>
+        <v>0.8539883609734077</v>
       </c>
       <c r="M16">
-        <v>0.8191399871671496</v>
+        <v>0.8191399871671499</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8180388120777908</v>
+        <v>0.8180388120777943</v>
       </c>
       <c r="D17">
         <v>1.007549325750278</v>
       </c>
       <c r="E17">
-        <v>0.8486389344438459</v>
+        <v>0.8486389344438487</v>
       </c>
       <c r="F17">
-        <v>0.8168207602696822</v>
+        <v>0.8168207602696848</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.02533498896461</v>
       </c>
       <c r="J17">
-        <v>0.8548699420481309</v>
+        <v>0.8548699420481339</v>
       </c>
       <c r="K17">
         <v>1.021426270170254</v>
       </c>
       <c r="L17">
-        <v>0.8659477676282732</v>
+        <v>0.8659477676282762</v>
       </c>
       <c r="M17">
-        <v>0.8350386521936791</v>
+        <v>0.8350386521936817</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8258501429977108</v>
+        <v>0.825850142997712</v>
       </c>
       <c r="D18">
         <v>1.009473966699796</v>
       </c>
       <c r="E18">
-        <v>0.8553867160618083</v>
+        <v>0.8553867160618095</v>
       </c>
       <c r="F18">
-        <v>0.8257230338587364</v>
+        <v>0.8257230338587378</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026872944432059</v>
       </c>
       <c r="J18">
-        <v>0.8616028067759831</v>
+        <v>0.8616028067759844</v>
       </c>
       <c r="K18">
         <v>1.023131146701079</v>
       </c>
       <c r="L18">
-        <v>0.8722756089186567</v>
+        <v>0.872275608918658</v>
       </c>
       <c r="M18">
-        <v>0.8434244459582501</v>
+        <v>0.8434244459582514</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8284021935489202</v>
+        <v>0.8284021935489196</v>
       </c>
       <c r="D19">
-        <v>1.010108530227008</v>
+        <v>1.010108530227007</v>
       </c>
       <c r="E19">
-        <v>0.8575924649338693</v>
+        <v>0.8575924649338686</v>
       </c>
       <c r="F19">
-        <v>0.8286272089222351</v>
+        <v>0.8286272089222346</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.02737688498588</v>
       </c>
       <c r="J19">
-        <v>0.863802190208023</v>
+        <v>0.8638021902080224</v>
       </c>
       <c r="K19">
-        <v>1.023691409064084</v>
+        <v>1.023691409064083</v>
       </c>
       <c r="L19">
-        <v>0.8743428655035087</v>
+        <v>0.8743428655035084</v>
       </c>
       <c r="M19">
-        <v>0.8461599972428874</v>
+        <v>0.846159997242887</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8165440464505267</v>
+        <v>0.8165440464505258</v>
       </c>
       <c r="D20">
-        <v>1.007184095115384</v>
+        <v>1.007184095115383</v>
       </c>
       <c r="E20">
-        <v>0.8473483188340525</v>
+        <v>0.8473483188340516</v>
       </c>
       <c r="F20">
-        <v>0.8151149950467323</v>
+        <v>0.8151149950467304</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025041512268617</v>
+        <v>1.025041512268616</v>
       </c>
       <c r="J20">
-        <v>0.8535813987571753</v>
+        <v>0.8535813987571744</v>
       </c>
       <c r="K20">
-        <v>1.021101786284193</v>
+        <v>1.021101786284192</v>
       </c>
       <c r="L20">
-        <v>0.8647368359665341</v>
+        <v>0.8647368359665332</v>
       </c>
       <c r="M20">
-        <v>0.8334318019478716</v>
+        <v>0.8334318019478696</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7651109277903971</v>
+        <v>0.7651109277904004</v>
       </c>
       <c r="D21">
-        <v>0.9952489214417776</v>
+        <v>0.9952489214417785</v>
       </c>
       <c r="E21">
-        <v>0.8030778119390979</v>
+        <v>0.8030778119391009</v>
       </c>
       <c r="F21">
-        <v>0.7559996002762764</v>
+        <v>0.7559996002762805</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015149456237066</v>
+        <v>1.015149456237067</v>
       </c>
       <c r="J21">
-        <v>0.8092302719800801</v>
+        <v>0.8092302719800831</v>
       </c>
       <c r="K21">
-        <v>1.010320866994877</v>
+        <v>1.010320866994878</v>
       </c>
       <c r="L21">
-        <v>0.8230794295204256</v>
+        <v>0.8230794295204283</v>
       </c>
       <c r="M21">
-        <v>0.7777576826762155</v>
+        <v>0.7777576826762194</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7651109277903971</v>
+        <v>0.7651109277904004</v>
       </c>
       <c r="D22">
-        <v>0.9952489214417776</v>
+        <v>0.9952489214417785</v>
       </c>
       <c r="E22">
-        <v>0.8030778119390979</v>
+        <v>0.8030778119391009</v>
       </c>
       <c r="F22">
-        <v>0.7559996002762764</v>
+        <v>0.7559996002762805</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015149456237066</v>
+        <v>1.015149456237067</v>
       </c>
       <c r="J22">
-        <v>0.8092302719800801</v>
+        <v>0.8092302719800831</v>
       </c>
       <c r="K22">
-        <v>1.010320866994877</v>
+        <v>1.010320866994878</v>
       </c>
       <c r="L22">
-        <v>0.8230794295204256</v>
+        <v>0.8230794295204283</v>
       </c>
       <c r="M22">
-        <v>0.7777576826762155</v>
+        <v>0.7777576826762194</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7410761055916</v>
+        <v>0.7410761055916031</v>
       </c>
       <c r="D23">
-        <v>0.9901158465216297</v>
+        <v>0.9901158465216301</v>
       </c>
       <c r="E23">
-        <v>0.7824949712896981</v>
+        <v>0.7824949712897009</v>
       </c>
       <c r="F23">
-        <v>0.7280999983984734</v>
+        <v>0.7280999983984763</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010697415962656</v>
+        <v>1.010697415962657</v>
       </c>
       <c r="J23">
-        <v>0.7885080511831762</v>
+        <v>0.7885080511831789</v>
       </c>
       <c r="K23">
-        <v>1.005568268692604</v>
+        <v>1.005568268692605</v>
       </c>
       <c r="L23">
-        <v>0.803633385017418</v>
+        <v>0.8036333850174209</v>
       </c>
       <c r="M23">
-        <v>0.7515108100000695</v>
+        <v>0.7515108100000726</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8172218459017822</v>
+        <v>0.8172218459017805</v>
       </c>
       <c r="D24">
         <v>1.007349585387903</v>
       </c>
       <c r="E24">
-        <v>0.8479335212160615</v>
+        <v>0.8479335212160601</v>
       </c>
       <c r="F24">
-        <v>0.815888560458727</v>
+        <v>0.8158885604587264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025174554654717</v>
+        <v>1.025174554654718</v>
       </c>
       <c r="J24">
-        <v>0.8541656925189828</v>
+        <v>0.8541656925189813</v>
       </c>
       <c r="K24">
         <v>1.021248851782643</v>
       </c>
       <c r="L24">
-        <v>0.8652859325189282</v>
+        <v>0.8652859325189267</v>
       </c>
       <c r="M24">
-        <v>0.8341605106175862</v>
+        <v>0.8341605106175853</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8672818335637776</v>
+        <v>0.867281833563778</v>
       </c>
       <c r="D25">
         <v>1.020107815632462</v>
       </c>
       <c r="E25">
-        <v>0.8912608697055543</v>
+        <v>0.8912608697055546</v>
       </c>
       <c r="F25">
-        <v>0.8725955820760558</v>
+        <v>0.872595582076056</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.035117698266922</v>
       </c>
       <c r="J25">
-        <v>0.8972809124666523</v>
+        <v>0.8972809124666526</v>
       </c>
       <c r="K25">
         <v>1.032401801596251</v>
       </c>
       <c r="L25">
-        <v>0.9058196828790995</v>
+        <v>0.9058196828790999</v>
       </c>
       <c r="M25">
         <v>0.8875563607732316</v>

--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.897486830072364</v>
+        <v>0.8976322554624688</v>
       </c>
       <c r="D2">
-        <v>1.028263938955607</v>
+        <v>1.028277251415167</v>
       </c>
       <c r="E2">
-        <v>0.9174879703547835</v>
+        <v>0.9176140009477943</v>
       </c>
       <c r="F2">
-        <v>0.9063598762622656</v>
+        <v>0.9064782444573802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041155232366742</v>
+        <v>1.041168172765991</v>
       </c>
       <c r="J2">
-        <v>0.9232349347826928</v>
+        <v>0.923374477078208</v>
       </c>
       <c r="K2">
-        <v>1.039343069607308</v>
+        <v>1.039356209155608</v>
       </c>
       <c r="L2">
-        <v>0.9302305279471458</v>
+        <v>0.9303543708334652</v>
       </c>
       <c r="M2">
-        <v>0.9192987168471974</v>
+        <v>0.9194149642661625</v>
+      </c>
+      <c r="N2">
+        <v>0.9499118517873965</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9162886061041845</v>
+        <v>0.9164041336855515</v>
       </c>
       <c r="D3">
-        <v>1.033484312224221</v>
+        <v>1.033494578314386</v>
       </c>
       <c r="E3">
-        <v>0.9338374489907997</v>
+        <v>0.9339377748237027</v>
       </c>
       <c r="F3">
-        <v>0.9271749006838053</v>
+        <v>0.9272677244459915</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044885051897976</v>
+        <v>1.044895052421979</v>
       </c>
       <c r="J3">
-        <v>0.9393541984804546</v>
+        <v>0.9394657183614391</v>
       </c>
       <c r="K3">
-        <v>1.043705957251093</v>
+        <v>1.043716102320586</v>
       </c>
       <c r="L3">
-        <v>0.9453932599219108</v>
+        <v>0.9454920601478456</v>
       </c>
       <c r="M3">
-        <v>0.9388329696991728</v>
+        <v>0.9389243558913801</v>
+      </c>
+      <c r="N3">
+        <v>0.9609166337410109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9274068880683147</v>
+        <v>0.9275061065363062</v>
       </c>
       <c r="D4">
-        <v>1.03661443897141</v>
+        <v>1.036623114118815</v>
       </c>
       <c r="E4">
-        <v>0.9435121962667342</v>
+        <v>0.9435984694983098</v>
       </c>
       <c r="F4">
-        <v>0.9394006264586081</v>
+        <v>0.939479799733137</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047068107006169</v>
+        <v>1.047076568938675</v>
       </c>
       <c r="J4">
-        <v>0.9488693053340292</v>
+        <v>0.9489654053054004</v>
       </c>
       <c r="K4">
-        <v>1.046290165164755</v>
+        <v>1.046298744512496</v>
       </c>
       <c r="L4">
-        <v>0.9543438357234252</v>
+        <v>0.9544289046863834</v>
       </c>
       <c r="M4">
-        <v>0.9502899825003063</v>
+        <v>0.9503680383432762</v>
+      </c>
+      <c r="N4">
+        <v>0.9674119138167836</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9318706511422206</v>
+        <v>0.9319635692769986</v>
       </c>
       <c r="D5">
-        <v>1.037878903409853</v>
+        <v>1.037886977398928</v>
       </c>
       <c r="E5">
-        <v>0.9473975303154879</v>
+        <v>0.9474783690496086</v>
       </c>
       <c r="F5">
-        <v>0.9442901069933006</v>
+        <v>0.9443640602360984</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047938081387893</v>
+        <v>1.047945961221755</v>
       </c>
       <c r="J5">
-        <v>0.9526853593385377</v>
+        <v>0.9527754758154156</v>
       </c>
       <c r="K5">
-        <v>1.047326993324859</v>
+        <v>1.047334980628676</v>
       </c>
       <c r="L5">
-        <v>0.9579334256657193</v>
+        <v>0.9580131760848232</v>
       </c>
       <c r="M5">
-        <v>0.9548680146458924</v>
+        <v>0.9549409640014974</v>
+      </c>
+      <c r="N5">
+        <v>0.9700165297212666</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9326087660494506</v>
+        <v>0.9327006551458979</v>
       </c>
       <c r="D6">
-        <v>1.038088385580161</v>
+        <v>1.038096362090917</v>
       </c>
       <c r="E6">
-        <v>0.9480400524185569</v>
+        <v>0.9481200032220137</v>
       </c>
       <c r="F6">
-        <v>0.9450975280818963</v>
+        <v>0.9451706315319122</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048081528759338</v>
+        <v>1.048089314164358</v>
       </c>
       <c r="J6">
-        <v>0.9533161308522582</v>
+        <v>0.9534052685976666</v>
       </c>
       <c r="K6">
-        <v>1.047498357134024</v>
+        <v>1.047506248413776</v>
       </c>
       <c r="L6">
-        <v>0.9585267585307256</v>
+        <v>0.9586056395089296</v>
       </c>
       <c r="M6">
-        <v>0.955623766550158</v>
+        <v>0.9556958841181472</v>
+      </c>
+      <c r="N6">
+        <v>0.9704470346961732</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9274673147163272</v>
+        <v>0.9275664469923524</v>
       </c>
       <c r="D7">
-        <v>1.036631528113581</v>
+        <v>1.036640194986373</v>
       </c>
       <c r="E7">
-        <v>0.9435647886887949</v>
+        <v>0.9436509875955545</v>
       </c>
       <c r="F7">
-        <v>0.9394668905416081</v>
+        <v>0.9395459922039757</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047079911166291</v>
+        <v>1.047088365089402</v>
       </c>
       <c r="J7">
-        <v>0.9489209801306936</v>
+        <v>0.9490169983464222</v>
       </c>
       <c r="K7">
-        <v>1.046304205593296</v>
+        <v>1.046312776793535</v>
       </c>
       <c r="L7">
-        <v>0.9543924442018668</v>
+        <v>0.9544774404578591</v>
       </c>
       <c r="M7">
-        <v>0.9503520418767851</v>
+        <v>0.950430027699219</v>
+      </c>
+      <c r="N7">
+        <v>0.9674471855011079</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.90408651700993</v>
+        <v>0.9042210817229933</v>
       </c>
       <c r="D8">
-        <v>1.03008503704494</v>
+        <v>1.030097223575409</v>
       </c>
       <c r="E8">
-        <v>0.923225069771766</v>
+        <v>0.9233417711827597</v>
       </c>
       <c r="F8">
-        <v>0.9136852774413777</v>
+        <v>0.9137942884036661</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042468635653724</v>
+        <v>1.042480490308578</v>
       </c>
       <c r="J8">
-        <v>0.9288967247896702</v>
+        <v>0.9290261229836341</v>
       </c>
       <c r="K8">
-        <v>1.040872342849904</v>
+        <v>1.04088437612212</v>
       </c>
       <c r="L8">
-        <v>0.9355562585682262</v>
+        <v>0.935671023089667</v>
       </c>
       <c r="M8">
-        <v>0.9261769590123002</v>
+        <v>0.9262841115835971</v>
+      </c>
+      <c r="N8">
+        <v>0.9537772744409686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8519744770896588</v>
+        <v>0.8522095134308977</v>
       </c>
       <c r="D9">
-        <v>1.016099043156115</v>
+        <v>1.016122439809776</v>
       </c>
       <c r="E9">
-        <v>0.8779915859269346</v>
+        <v>0.878194264126318</v>
       </c>
       <c r="F9">
-        <v>0.8553484172537381</v>
+        <v>0.8555472840427508</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032059171382241</v>
+        <v>1.032081809217474</v>
       </c>
       <c r="J9">
-        <v>0.8841073464566223</v>
+        <v>0.8843292622136696</v>
       </c>
       <c r="K9">
-        <v>1.02893621499192</v>
+        <v>1.028959247282618</v>
       </c>
       <c r="L9">
-        <v>0.8934319585391683</v>
+        <v>0.8936300147442174</v>
       </c>
       <c r="M9">
-        <v>0.8713237303552466</v>
+        <v>0.8715177330568857</v>
+      </c>
+      <c r="N9">
+        <v>0.9232064964428615</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8014759753684625</v>
+        <v>0.8018647429637371</v>
       </c>
       <c r="D10">
-        <v>1.003558629096311</v>
+        <v>1.003602029885764</v>
       </c>
       <c r="E10">
-        <v>0.8343500391623266</v>
+        <v>0.8346832506992894</v>
       </c>
       <c r="F10">
-        <v>0.7978805001030314</v>
+        <v>0.7982292214839989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022099639877407</v>
+        <v>1.022141458531015</v>
       </c>
       <c r="J10">
-        <v>0.8405900468390425</v>
+        <v>0.8409494435945049</v>
       </c>
       <c r="K10">
-        <v>1.01786392728917</v>
+        <v>1.017906551708346</v>
       </c>
       <c r="L10">
-        <v>0.8525298541519724</v>
+        <v>0.8528533104337781</v>
       </c>
       <c r="M10">
-        <v>0.8171966803278796</v>
+        <v>0.8175338512892462</v>
+      </c>
+      <c r="N10">
+        <v>0.8935551670268175</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7693742320395389</v>
+        <v>0.7699304511744642</v>
       </c>
       <c r="D11">
-        <v>0.9961898389133572</v>
+        <v>0.9962575974392913</v>
       </c>
       <c r="E11">
-        <v>0.8067363187478453</v>
+        <v>0.8072110647731281</v>
       </c>
       <c r="F11">
-        <v>0.7609302576600886</v>
+        <v>0.7614540526377422</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015951760781034</v>
+        <v>1.016016912917193</v>
       </c>
       <c r="J11">
-        <v>0.8129066858968429</v>
+        <v>0.8134129650435497</v>
       </c>
       <c r="K11">
-        <v>1.011183968784881</v>
+        <v>1.011250436780956</v>
       </c>
       <c r="L11">
-        <v>0.8265307115617575</v>
+        <v>0.826989486679144</v>
       </c>
       <c r="M11">
-        <v>0.7823989762525941</v>
+        <v>0.7829020094836321</v>
+      </c>
+      <c r="N11">
+        <v>0.8747545553766432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7535197981382478</v>
+        <v>0.7542037733907271</v>
       </c>
       <c r="D12">
-        <v>0.9927367584156284</v>
+        <v>0.992824192717696</v>
       </c>
       <c r="E12">
-        <v>0.7931422362657354</v>
+        <v>0.7937248028343379</v>
       </c>
       <c r="F12">
-        <v>0.7425664101553916</v>
+        <v>0.7432290494046632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012986871686571</v>
+        <v>1.013070869855234</v>
       </c>
       <c r="J12">
-        <v>0.7992356641179598</v>
+        <v>0.799853047145425</v>
       </c>
       <c r="K12">
-        <v>1.008004446267818</v>
+        <v>1.00809017335438</v>
       </c>
       <c r="L12">
-        <v>0.8136987644405699</v>
+        <v>0.8142604347534013</v>
       </c>
       <c r="M12">
-        <v>0.7651166454161835</v>
+        <v>0.7657506515339156</v>
+      </c>
+      <c r="N12">
+        <v>0.8655046441405002</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7572174168196842</v>
+        <v>0.7578674937334737</v>
       </c>
       <c r="D13">
-        <v>0.9935307912716609</v>
+        <v>0.9936129364602907</v>
       </c>
       <c r="E13">
-        <v>0.7963099092010698</v>
+        <v>0.7968638734881343</v>
       </c>
       <c r="F13">
-        <v>0.7468560491660615</v>
+        <v>0.7474815108013151</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013673696952561</v>
+        <v>1.013752629058644</v>
       </c>
       <c r="J13">
-        <v>0.8024238168497404</v>
+        <v>0.8030117724349241</v>
       </c>
       <c r="K13">
-        <v>1.00873853507551</v>
+        <v>1.008819085061724</v>
       </c>
       <c r="L13">
-        <v>0.8166907678244968</v>
+        <v>0.817225152049295</v>
       </c>
       <c r="M13">
-        <v>0.76915266807259</v>
+        <v>0.7697516387735195</v>
+      </c>
+      <c r="N13">
+        <v>0.8676588399221173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7681803992389132</v>
+        <v>0.7687448296063533</v>
       </c>
       <c r="D14">
-        <v>0.9959254482902162</v>
+        <v>0.9959944483155573</v>
       </c>
       <c r="E14">
-        <v>0.8057116259354392</v>
+        <v>0.8061933043928777</v>
       </c>
       <c r="F14">
-        <v>0.7595501003156611</v>
+        <v>0.7600827058686228</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015726732977728</v>
+        <v>1.01579307427068</v>
       </c>
       <c r="J14">
-        <v>0.8118771842418497</v>
+        <v>0.8123906227314563</v>
       </c>
       <c r="K14">
-        <v>1.010941686285391</v>
+        <v>1.011009369495954</v>
       </c>
       <c r="L14">
-        <v>0.8255642163606683</v>
+        <v>0.8260296106755197</v>
       </c>
       <c r="M14">
-        <v>0.7810997479967488</v>
+        <v>0.7816111039375844</v>
+      </c>
+      <c r="N14">
+        <v>0.8740569608713402</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7742514276056168</v>
+        <v>0.7747759850137558</v>
       </c>
       <c r="D15">
-        <v>0.9972772738135162</v>
+        <v>0.9973402803764374</v>
       </c>
       <c r="E15">
-        <v>0.810924262525428</v>
+        <v>0.8113722729627307</v>
       </c>
       <c r="F15">
-        <v>0.7665641937261276</v>
+        <v>0.7670541864796535</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016873941646999</v>
+        <v>1.016934542114361</v>
       </c>
       <c r="J15">
-        <v>0.8171126169950752</v>
+        <v>0.817591260490349</v>
       </c>
       <c r="K15">
-        <v>1.012178505774752</v>
+        <v>1.012240322386018</v>
       </c>
       <c r="L15">
-        <v>0.8304795291193745</v>
+        <v>0.8309127708494251</v>
       </c>
       <c r="M15">
-        <v>0.7877030594041969</v>
+        <v>0.7881741443396417</v>
+      </c>
+      <c r="N15">
+        <v>0.8776059403265971</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8032763633362844</v>
+        <v>0.8036579522086383</v>
       </c>
       <c r="D16">
-        <v>1.00398635823858</v>
+        <v>1.004028764969634</v>
       </c>
       <c r="E16">
-        <v>0.8359019561963364</v>
+        <v>0.8362290896109249</v>
       </c>
       <c r="F16">
-        <v>0.7999434772604257</v>
+        <v>0.8002849294694702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02244946535324</v>
+        <v>1.022490331509228</v>
       </c>
       <c r="J16">
-        <v>0.8421424694798956</v>
+        <v>0.8424955187517986</v>
       </c>
       <c r="K16">
-        <v>1.018247541528072</v>
+        <v>1.018289192734538</v>
       </c>
       <c r="L16">
-        <v>0.8539883609734077</v>
+        <v>0.8543059952394219</v>
       </c>
       <c r="M16">
-        <v>0.8191399871671499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8194702457321175</v>
+      </c>
+      <c r="N16">
+        <v>0.8946113325061766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8180388120777943</v>
+        <v>0.8183673910037309</v>
       </c>
       <c r="D17">
-        <v>1.007549325750278</v>
+        <v>1.00758455547398</v>
       </c>
       <c r="E17">
-        <v>0.8486389344438487</v>
+        <v>0.8489211423885342</v>
       </c>
       <c r="F17">
-        <v>0.8168207602696848</v>
+        <v>0.8171092860751648</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02533498896461</v>
+        <v>1.025368976876022</v>
       </c>
       <c r="J17">
-        <v>0.8548699420481339</v>
+        <v>0.8551759344913376</v>
       </c>
       <c r="K17">
-        <v>1.021426270170254</v>
+        <v>1.021460894125978</v>
       </c>
       <c r="L17">
-        <v>0.8659477676282762</v>
+        <v>0.8662223272821964</v>
       </c>
       <c r="M17">
-        <v>0.8350386521936817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8353184965125252</v>
+      </c>
+      <c r="N17">
+        <v>0.9032756503209107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.825850142997712</v>
+        <v>0.8261542139853597</v>
       </c>
       <c r="D18">
-        <v>1.009473966699796</v>
+        <v>1.009505985125877</v>
       </c>
       <c r="E18">
-        <v>0.8553867160618095</v>
+        <v>0.8556481234038739</v>
       </c>
       <c r="F18">
-        <v>0.8257230338587378</v>
+        <v>0.8259875758550765</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026872944432059</v>
+        <v>1.026903853683348</v>
       </c>
       <c r="J18">
-        <v>0.8616028067759844</v>
+        <v>0.8618869163416799</v>
       </c>
       <c r="K18">
-        <v>1.023131146701079</v>
+        <v>1.023162625768736</v>
       </c>
       <c r="L18">
-        <v>0.872275608918658</v>
+        <v>0.8725301951483504</v>
       </c>
       <c r="M18">
-        <v>0.8434244459582514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8436813884039991</v>
+      </c>
+      <c r="N18">
+        <v>0.9078624571274753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8284021935489196</v>
+        <v>0.8286987021318827</v>
       </c>
       <c r="D19">
-        <v>1.010108530227007</v>
+        <v>1.01013957267117</v>
       </c>
       <c r="E19">
-        <v>0.8575924649338686</v>
+        <v>0.8578474492678168</v>
       </c>
       <c r="F19">
-        <v>0.8286272089222346</v>
+        <v>0.8288844172606263</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02737688498588</v>
+        <v>1.027406858389758</v>
       </c>
       <c r="J19">
-        <v>0.8638021902080224</v>
+        <v>0.8640795286905275</v>
       </c>
       <c r="K19">
-        <v>1.023691409064083</v>
+        <v>1.023721932231572</v>
       </c>
       <c r="L19">
-        <v>0.8743428655035084</v>
+        <v>0.8745912796562921</v>
       </c>
       <c r="M19">
-        <v>0.846159997242887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8464099288415189</v>
+      </c>
+      <c r="N19">
+        <v>0.9093612341720018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8165440464505258</v>
+        <v>0.8168775685045456</v>
       </c>
       <c r="D20">
-        <v>1.007184095115383</v>
+        <v>1.007219981156106</v>
       </c>
       <c r="E20">
-        <v>0.8473483188340516</v>
+        <v>0.8476347196030211</v>
       </c>
       <c r="F20">
-        <v>0.8151149950467304</v>
+        <v>0.8154083971605407</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025041512268616</v>
+        <v>1.025076129294137</v>
       </c>
       <c r="J20">
-        <v>0.8535813987571744</v>
+        <v>0.8538917943234769</v>
       </c>
       <c r="K20">
-        <v>1.021101786284192</v>
+        <v>1.021137052929904</v>
       </c>
       <c r="L20">
-        <v>0.8647368359665332</v>
+        <v>0.8650154192072206</v>
       </c>
       <c r="M20">
-        <v>0.8334318019478696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8337162979645252</v>
+      </c>
+      <c r="N20">
+        <v>0.902398066394746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7651109277904004</v>
+        <v>0.7656973874017667</v>
       </c>
       <c r="D21">
-        <v>0.9952489214417785</v>
+        <v>0.9953212695179847</v>
       </c>
       <c r="E21">
-        <v>0.8030778119391009</v>
+        <v>0.8035780866921094</v>
       </c>
       <c r="F21">
-        <v>0.7559996002762805</v>
+        <v>0.756555927485262</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015149456237067</v>
+        <v>1.015219004405838</v>
       </c>
       <c r="J21">
-        <v>0.8092302719800831</v>
+        <v>0.809762903346646</v>
       </c>
       <c r="K21">
-        <v>1.010320866994878</v>
+        <v>1.010391827361085</v>
       </c>
       <c r="L21">
-        <v>0.8230794295204283</v>
+        <v>0.8235625771324925</v>
       </c>
       <c r="M21">
-        <v>0.7777576826762194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7782914379416238</v>
+      </c>
+      <c r="N21">
+        <v>0.8722640864271022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7651109277904004</v>
+        <v>0.7656973874017667</v>
       </c>
       <c r="D22">
-        <v>0.9952489214417785</v>
+        <v>0.9953212695179847</v>
       </c>
       <c r="E22">
-        <v>0.8030778119391009</v>
+        <v>0.8035780866921094</v>
       </c>
       <c r="F22">
-        <v>0.7559996002762805</v>
+        <v>0.756555927485262</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015149456237067</v>
+        <v>1.015219004405838</v>
       </c>
       <c r="J22">
-        <v>0.8092302719800831</v>
+        <v>0.809762903346646</v>
       </c>
       <c r="K22">
-        <v>1.010320866994878</v>
+        <v>1.010391827361085</v>
       </c>
       <c r="L22">
-        <v>0.8230794295204283</v>
+        <v>0.8235625771324925</v>
       </c>
       <c r="M22">
-        <v>0.7777576826762194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7782914379416238</v>
+      </c>
+      <c r="N22">
+        <v>0.8722640864271022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7410761055916031</v>
+        <v>0.7656973874017667</v>
       </c>
       <c r="D23">
-        <v>0.9901158465216301</v>
+        <v>0.9953212695179847</v>
       </c>
       <c r="E23">
-        <v>0.7824949712897009</v>
+        <v>0.8035780866921094</v>
       </c>
       <c r="F23">
-        <v>0.7280999983984763</v>
+        <v>0.756555927485262</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.010697415962657</v>
+        <v>1.015219004405838</v>
       </c>
       <c r="J23">
-        <v>0.7885080511831789</v>
+        <v>0.809762903346646</v>
       </c>
       <c r="K23">
-        <v>1.005568268692605</v>
+        <v>1.010391827361085</v>
       </c>
       <c r="L23">
-        <v>0.8036333850174209</v>
+        <v>0.8235625771324925</v>
       </c>
       <c r="M23">
-        <v>0.7515108100000726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7782914379416238</v>
+      </c>
+      <c r="N23">
+        <v>0.8722640864271022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8172218459017805</v>
+        <v>0.7656973874017667</v>
       </c>
       <c r="D24">
-        <v>1.007349585387903</v>
+        <v>0.9953212695179847</v>
       </c>
       <c r="E24">
-        <v>0.8479335212160601</v>
+        <v>0.8035780866921094</v>
       </c>
       <c r="F24">
-        <v>0.8158885604587264</v>
+        <v>0.756555927485262</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025174554654718</v>
+        <v>1.015219004405838</v>
       </c>
       <c r="J24">
-        <v>0.8541656925189813</v>
+        <v>0.809762903346646</v>
       </c>
       <c r="K24">
-        <v>1.021248851782643</v>
+        <v>1.010391827361085</v>
       </c>
       <c r="L24">
-        <v>0.8652859325189267</v>
+        <v>0.8235625771324925</v>
       </c>
       <c r="M24">
-        <v>0.8341605106175853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7782914379416238</v>
+      </c>
+      <c r="N24">
+        <v>0.8722640864271022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.867281833563778</v>
+        <v>0.7656973874017667</v>
       </c>
       <c r="D25">
-        <v>1.020107815632462</v>
+        <v>0.9953212695179847</v>
       </c>
       <c r="E25">
-        <v>0.8912608697055546</v>
+        <v>0.8035780866921094</v>
       </c>
       <c r="F25">
-        <v>0.872595582076056</v>
+        <v>0.756555927485262</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035117698266922</v>
+        <v>1.015219004405838</v>
       </c>
       <c r="J25">
-        <v>0.8972809124666526</v>
+        <v>0.809762903346646</v>
       </c>
       <c r="K25">
-        <v>1.032401801596251</v>
+        <v>1.010391827361085</v>
       </c>
       <c r="L25">
-        <v>0.9058196828790999</v>
+        <v>0.8235625771324925</v>
       </c>
       <c r="M25">
-        <v>0.8875563607732316</v>
+        <v>0.7782914379416238</v>
+      </c>
+      <c r="N25">
+        <v>0.8722640864271022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8976322554624688</v>
+        <v>0.993182552793866</v>
       </c>
       <c r="D2">
-        <v>1.028277251415167</v>
+        <v>1.042779714450292</v>
       </c>
       <c r="E2">
-        <v>0.9176140009477943</v>
+        <v>1.012793078904506</v>
       </c>
       <c r="F2">
-        <v>0.9064782444573802</v>
+        <v>1.031020691956804</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041168172765991</v>
+        <v>1.058234312695831</v>
       </c>
       <c r="J2">
-        <v>0.923374477078208</v>
+        <v>1.015569102301088</v>
       </c>
       <c r="K2">
-        <v>1.039356209155608</v>
+        <v>1.053673575004168</v>
       </c>
       <c r="L2">
-        <v>0.9303543708334652</v>
+        <v>1.024077017126278</v>
       </c>
       <c r="M2">
-        <v>0.9194149642661625</v>
+        <v>1.042064135223044</v>
       </c>
       <c r="N2">
-        <v>0.9499118517873965</v>
+        <v>1.01701132691376</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9164041336855515</v>
+        <v>1.002960342571212</v>
       </c>
       <c r="D3">
-        <v>1.033494578314386</v>
+        <v>1.048544800046624</v>
       </c>
       <c r="E3">
-        <v>0.9339377748237027</v>
+        <v>1.020911055145427</v>
       </c>
       <c r="F3">
-        <v>0.9272677244459915</v>
+        <v>1.038788941263748</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044895052421979</v>
+        <v>1.060679747348748</v>
       </c>
       <c r="J3">
-        <v>0.9394657183614391</v>
+        <v>1.02337062970202</v>
       </c>
       <c r="K3">
-        <v>1.043716102320586</v>
+        <v>1.058592050113903</v>
       </c>
       <c r="L3">
-        <v>0.9454920601478456</v>
+        <v>1.031283187757109</v>
       </c>
       <c r="M3">
-        <v>0.9389243558913801</v>
+        <v>1.048948447378682</v>
       </c>
       <c r="N3">
-        <v>0.9609166337410109</v>
+        <v>1.024823933378449</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9275061065363062</v>
+        <v>1.009056785663994</v>
       </c>
       <c r="D4">
-        <v>1.036623114118815</v>
+        <v>1.052138779532794</v>
       </c>
       <c r="E4">
-        <v>0.9435984694983098</v>
+        <v>1.025978750960414</v>
       </c>
       <c r="F4">
-        <v>0.939479799733137</v>
+        <v>1.043635828559212</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047076568938675</v>
+        <v>1.062185592190239</v>
       </c>
       <c r="J4">
-        <v>0.9489654053054004</v>
+        <v>1.028231621378167</v>
       </c>
       <c r="K4">
-        <v>1.046298744512496</v>
+        <v>1.061646166715615</v>
       </c>
       <c r="L4">
-        <v>0.9544289046863834</v>
+        <v>1.03577342863507</v>
       </c>
       <c r="M4">
-        <v>0.9503680383432762</v>
+        <v>1.053234656895085</v>
       </c>
       <c r="N4">
-        <v>0.9674119138167836</v>
+        <v>1.029691828220339</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9319635692769986</v>
+        <v>1.011568458950049</v>
       </c>
       <c r="D5">
-        <v>1.037886977398928</v>
+        <v>1.053618916628203</v>
       </c>
       <c r="E5">
-        <v>0.9474783690496086</v>
+        <v>1.028067861746863</v>
       </c>
       <c r="F5">
-        <v>0.9443640602360984</v>
+        <v>1.045633193233463</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047945961221755</v>
+        <v>1.062801251272776</v>
       </c>
       <c r="J5">
-        <v>0.9527754758154156</v>
+        <v>1.030233403575944</v>
       </c>
       <c r="K5">
-        <v>1.047334980628676</v>
+        <v>1.062901096746891</v>
       </c>
       <c r="L5">
-        <v>0.9580131760848232</v>
+        <v>1.037622522115027</v>
       </c>
       <c r="M5">
-        <v>0.9549409640014974</v>
+        <v>1.054998784656305</v>
       </c>
       <c r="N5">
-        <v>0.9700165297212666</v>
+        <v>1.031696453178444</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9327006551458979</v>
+        <v>1.011987278791902</v>
       </c>
       <c r="D6">
-        <v>1.038096362090917</v>
+        <v>1.053865684930435</v>
       </c>
       <c r="E6">
-        <v>0.9481200032220137</v>
+        <v>1.028416288799649</v>
       </c>
       <c r="F6">
-        <v>0.9451706315319122</v>
+        <v>1.045966272923821</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048089314164358</v>
+        <v>1.062903627872162</v>
       </c>
       <c r="J6">
-        <v>0.9534052685976666</v>
+        <v>1.030567143422006</v>
       </c>
       <c r="K6">
-        <v>1.047506248413776</v>
+        <v>1.063110150317107</v>
       </c>
       <c r="L6">
-        <v>0.9586056395089296</v>
+        <v>1.037930803141109</v>
       </c>
       <c r="M6">
-        <v>0.9556958841181472</v>
+        <v>1.055292841527027</v>
       </c>
       <c r="N6">
-        <v>0.9704470346961732</v>
+        <v>1.032030666973369</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9275664469923524</v>
+        <v>1.00909054339248</v>
       </c>
       <c r="D7">
-        <v>1.036640194986373</v>
+        <v>1.052158675759289</v>
       </c>
       <c r="E7">
-        <v>0.9436509875955545</v>
+        <v>1.026006824524925</v>
       </c>
       <c r="F7">
-        <v>0.9395459922039757</v>
+        <v>1.043662672242256</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047088365089402</v>
+        <v>1.062193885874336</v>
       </c>
       <c r="J7">
-        <v>0.9490169983464222</v>
+        <v>1.028258529703803</v>
       </c>
       <c r="K7">
-        <v>1.046312776793535</v>
+        <v>1.061663047023955</v>
       </c>
       <c r="L7">
-        <v>0.9544774404578591</v>
+        <v>1.035798284613207</v>
       </c>
       <c r="M7">
-        <v>0.950430027699219</v>
+        <v>1.053258374629255</v>
       </c>
       <c r="N7">
-        <v>0.9674471855011079</v>
+        <v>1.029718774758885</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9042210817229933</v>
+        <v>0.9965372040644378</v>
       </c>
       <c r="D8">
-        <v>1.030097223575409</v>
+        <v>1.044757498204353</v>
       </c>
       <c r="E8">
-        <v>0.9233417711827597</v>
+        <v>1.015576830869144</v>
       </c>
       <c r="F8">
-        <v>0.9137942884036661</v>
+        <v>1.033684966474905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042480490308578</v>
+        <v>1.059077187228079</v>
       </c>
       <c r="J8">
-        <v>0.9290261229836341</v>
+        <v>1.018246333748128</v>
       </c>
       <c r="K8">
-        <v>1.04088437612212</v>
+        <v>1.055363500457508</v>
       </c>
       <c r="L8">
-        <v>0.935671023089667</v>
+        <v>1.026549858330451</v>
       </c>
       <c r="M8">
-        <v>0.9262841115835971</v>
+        <v>1.044427195253395</v>
       </c>
       <c r="N8">
-        <v>0.9537772744409686</v>
+        <v>1.019692360336538</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8522095134308977</v>
+        <v>0.9724499596236855</v>
       </c>
       <c r="D9">
-        <v>1.016122439809776</v>
+        <v>1.030574079122217</v>
       </c>
       <c r="E9">
-        <v>0.878194264126318</v>
+        <v>0.9956257066399992</v>
       </c>
       <c r="F9">
-        <v>0.8555472840427508</v>
+        <v>1.014585122026623</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032081809217474</v>
+        <v>1.052951879492787</v>
       </c>
       <c r="J9">
-        <v>0.8843292622136696</v>
+        <v>0.999014549893717</v>
       </c>
       <c r="K9">
-        <v>1.028959247282618</v>
+        <v>1.043189851392911</v>
       </c>
       <c r="L9">
-        <v>0.8936300147442174</v>
+        <v>1.008790154633836</v>
       </c>
       <c r="M9">
-        <v>0.8715177330568857</v>
+        <v>1.027445916282067</v>
       </c>
       <c r="N9">
-        <v>0.9232064964428615</v>
+        <v>1.000433265143137</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8018647429637371</v>
+        <v>0.954734924204325</v>
       </c>
       <c r="D10">
-        <v>1.003602029885764</v>
+        <v>1.020192192822239</v>
       </c>
       <c r="E10">
-        <v>0.8346832506992894</v>
+        <v>0.9810138749907614</v>
       </c>
       <c r="F10">
-        <v>0.7982292214839989</v>
+        <v>1.000598165539891</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022141458531015</v>
+        <v>1.048364936730395</v>
       </c>
       <c r="J10">
-        <v>0.8409494435945049</v>
+        <v>0.9848671421635279</v>
       </c>
       <c r="K10">
-        <v>1.017906551708346</v>
+        <v>1.034206196820419</v>
       </c>
       <c r="L10">
-        <v>0.8528533104337781</v>
+        <v>0.9957346052074749</v>
       </c>
       <c r="M10">
-        <v>0.8175338512892462</v>
+        <v>1.014956628315303</v>
       </c>
       <c r="N10">
-        <v>0.8935551670268175</v>
+        <v>0.9862657664712402</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7699304511744642</v>
+        <v>0.9465764652170805</v>
       </c>
       <c r="D11">
-        <v>0.9962575974392913</v>
+        <v>1.015432823755835</v>
       </c>
       <c r="E11">
-        <v>0.8072110647731281</v>
+        <v>0.9743043930082338</v>
       </c>
       <c r="F11">
-        <v>0.7614540526377422</v>
+        <v>0.9941789720903921</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016016912917193</v>
+        <v>1.046237695104443</v>
       </c>
       <c r="J11">
-        <v>0.8134129650435497</v>
+        <v>0.9783539260079899</v>
       </c>
       <c r="K11">
-        <v>1.011250436780956</v>
+        <v>1.030069452388959</v>
       </c>
       <c r="L11">
-        <v>0.826989486679144</v>
+        <v>0.9897277234765345</v>
       </c>
       <c r="M11">
-        <v>0.7829020094836321</v>
+        <v>1.009211505768979</v>
       </c>
       <c r="N11">
-        <v>0.8747545553766432</v>
+        <v>0.9797433008016846</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7542037733907271</v>
+        <v>0.9434627511145934</v>
       </c>
       <c r="D12">
-        <v>0.992824192717696</v>
+        <v>1.01362071159694</v>
       </c>
       <c r="E12">
-        <v>0.7937248028343379</v>
+        <v>0.971747210057484</v>
       </c>
       <c r="F12">
-        <v>0.7432290494046632</v>
+        <v>0.9917332424162844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013070869855234</v>
+        <v>1.045424086845544</v>
       </c>
       <c r="J12">
-        <v>0.799853047145425</v>
+        <v>0.9758687718808372</v>
       </c>
       <c r="K12">
-        <v>1.00809017335438</v>
+        <v>1.028491531351276</v>
       </c>
       <c r="L12">
-        <v>0.8142604347534013</v>
+        <v>0.9874364721229703</v>
       </c>
       <c r="M12">
-        <v>0.7657506515339156</v>
+        <v>1.007020552899759</v>
       </c>
       <c r="N12">
-        <v>0.8655046441405002</v>
+        <v>0.9772546174706205</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7578674937334737</v>
+        <v>0.9441346056788595</v>
       </c>
       <c r="D13">
-        <v>0.9936129364602907</v>
+        <v>1.014011502716095</v>
       </c>
       <c r="E13">
-        <v>0.7968638734881343</v>
+        <v>0.9722988119008784</v>
       </c>
       <c r="F13">
-        <v>0.7474815108013151</v>
+        <v>0.9922607606830138</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013752629058644</v>
+        <v>1.045599710989961</v>
       </c>
       <c r="J13">
-        <v>0.8030117724349241</v>
+        <v>0.9764049656357487</v>
       </c>
       <c r="K13">
-        <v>1.008819085061724</v>
+        <v>1.028831949449192</v>
       </c>
       <c r="L13">
-        <v>0.817225152049295</v>
+        <v>0.9879307949190195</v>
       </c>
       <c r="M13">
-        <v>0.7697516387735195</v>
+        <v>1.007493211675047</v>
       </c>
       <c r="N13">
-        <v>0.8676588399221173</v>
+        <v>0.9777915726821663</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7687448296063533</v>
+        <v>0.9463208490191695</v>
       </c>
       <c r="D14">
-        <v>0.9959944483155573</v>
+        <v>1.015283966878647</v>
       </c>
       <c r="E14">
-        <v>0.8061933043928777</v>
+        <v>0.9740943898174843</v>
       </c>
       <c r="F14">
-        <v>0.7600827058686228</v>
+        <v>0.9939781032832964</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01579307427068</v>
+        <v>1.04617093508513</v>
       </c>
       <c r="J14">
-        <v>0.8123906227314563</v>
+        <v>0.9781498955559831</v>
       </c>
       <c r="K14">
-        <v>1.011009369495954</v>
+        <v>1.029939892079825</v>
       </c>
       <c r="L14">
-        <v>0.8260296106755197</v>
+        <v>0.989539597066712</v>
       </c>
       <c r="M14">
-        <v>0.7816111039375844</v>
+        <v>1.009031603622067</v>
       </c>
       <c r="N14">
-        <v>0.8740569608713402</v>
+        <v>0.9795389806030336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7747759850137558</v>
+        <v>0.9476564941097179</v>
       </c>
       <c r="D15">
-        <v>0.9973402803764374</v>
+        <v>1.0160619550965</v>
       </c>
       <c r="E15">
-        <v>0.8113722729627307</v>
+        <v>0.9751918440508872</v>
       </c>
       <c r="F15">
-        <v>0.7670541864796535</v>
+        <v>0.9950278572409521</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016934542114361</v>
+        <v>1.046519702102235</v>
       </c>
       <c r="J15">
-        <v>0.817591260490349</v>
+        <v>0.9792160230769764</v>
       </c>
       <c r="K15">
-        <v>1.012240322386018</v>
+        <v>1.030616911265858</v>
       </c>
       <c r="L15">
-        <v>0.8309127708494251</v>
+        <v>0.9905226503183934</v>
       </c>
       <c r="M15">
-        <v>0.7881741443396417</v>
+        <v>1.009971701138736</v>
       </c>
       <c r="N15">
-        <v>0.8776059403265971</v>
+        <v>0.9806066221473936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8036579522086383</v>
+        <v>0.9552652864781145</v>
       </c>
       <c r="D16">
-        <v>1.004028764969634</v>
+        <v>1.020502120356604</v>
       </c>
       <c r="E16">
-        <v>0.8362290896109249</v>
+        <v>0.9814504931248494</v>
       </c>
       <c r="F16">
-        <v>0.8002849294694702</v>
+        <v>1.001015987049122</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022490331509228</v>
+        <v>1.048502958829792</v>
       </c>
       <c r="J16">
-        <v>0.8424955187517986</v>
+        <v>0.9852906213468158</v>
       </c>
       <c r="K16">
-        <v>1.018289192734538</v>
+        <v>1.034475192521511</v>
       </c>
       <c r="L16">
-        <v>0.8543059952394219</v>
+        <v>0.9961252511038086</v>
       </c>
       <c r="M16">
-        <v>0.8194702457321175</v>
+        <v>1.015330297849445</v>
       </c>
       <c r="N16">
-        <v>0.8946113325061766</v>
+        <v>0.986689847043542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8183673910037309</v>
+        <v>0.9599010119826356</v>
       </c>
       <c r="D17">
-        <v>1.00758455547398</v>
+        <v>1.023213648513982</v>
       </c>
       <c r="E17">
-        <v>0.8489211423885342</v>
+        <v>0.9852691018740659</v>
       </c>
       <c r="F17">
-        <v>0.8171092860751648</v>
+        <v>1.004670610015206</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025368976876022</v>
+        <v>1.049707763716769</v>
       </c>
       <c r="J17">
-        <v>0.8551759344913376</v>
+        <v>0.988992394701954</v>
       </c>
       <c r="K17">
-        <v>1.021460894125978</v>
+        <v>1.036826542980459</v>
       </c>
       <c r="L17">
-        <v>0.8662223272821964</v>
+        <v>0.9995404429277888</v>
       </c>
       <c r="M17">
-        <v>0.8353184965125252</v>
+        <v>1.018597239132106</v>
       </c>
       <c r="N17">
-        <v>0.9032756503209107</v>
+        <v>0.9903968773414441</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8261542139853597</v>
+        <v>0.9625586629405192</v>
       </c>
       <c r="D18">
-        <v>1.009505985125877</v>
+        <v>1.024770122351144</v>
       </c>
       <c r="E18">
-        <v>0.8556481234038739</v>
+        <v>0.9874601058102491</v>
       </c>
       <c r="F18">
-        <v>0.8259875758550765</v>
+        <v>1.006767814057942</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026903853683348</v>
+        <v>1.0503970679262</v>
       </c>
       <c r="J18">
-        <v>0.8618869163416799</v>
+        <v>0.9911147960896025</v>
       </c>
       <c r="K18">
-        <v>1.023162625768736</v>
+        <v>1.038174563403091</v>
       </c>
       <c r="L18">
-        <v>0.8725301951483504</v>
+        <v>1.001498862734068</v>
       </c>
       <c r="M18">
-        <v>0.8436813884039991</v>
+        <v>1.020470739914162</v>
       </c>
       <c r="N18">
-        <v>0.9078624571274753</v>
+        <v>0.9925222927825057</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8286987021318827</v>
+        <v>0.9634572754505124</v>
       </c>
       <c r="D19">
-        <v>1.01013957267117</v>
+        <v>1.025296706722513</v>
       </c>
       <c r="E19">
-        <v>0.8578474492678168</v>
+        <v>0.9882012259555641</v>
       </c>
       <c r="F19">
-        <v>0.8288844172606263</v>
+        <v>1.007477246781868</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027406858389758</v>
+        <v>1.050629885693793</v>
       </c>
       <c r="J19">
-        <v>0.8640795286905275</v>
+        <v>0.9918324512696668</v>
       </c>
       <c r="K19">
-        <v>1.023721932231572</v>
+        <v>1.038630337953546</v>
       </c>
       <c r="L19">
-        <v>0.8745912796562921</v>
+        <v>1.002161121874442</v>
       </c>
       <c r="M19">
-        <v>0.8464099288415189</v>
+        <v>1.021104291628838</v>
       </c>
       <c r="N19">
-        <v>0.9093612341720018</v>
+        <v>0.993240967115242</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8168775685045456</v>
+        <v>0.9594084967038916</v>
       </c>
       <c r="D20">
-        <v>1.007219981156106</v>
+        <v>1.022925355629953</v>
       </c>
       <c r="E20">
-        <v>0.8476347196030211</v>
+        <v>0.9848632085064087</v>
       </c>
       <c r="F20">
-        <v>0.8154083971605407</v>
+        <v>1.004282115043321</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025076129294137</v>
+        <v>1.049579904563213</v>
       </c>
       <c r="J20">
-        <v>0.8538917943234769</v>
+        <v>0.9885990846020045</v>
       </c>
       <c r="K20">
-        <v>1.021137052929904</v>
+        <v>1.036576722656593</v>
       </c>
       <c r="L20">
-        <v>0.8650154192072206</v>
+        <v>0.9991775465682506</v>
       </c>
       <c r="M20">
-        <v>0.8337162979645252</v>
+        <v>1.018250084219903</v>
       </c>
       <c r="N20">
-        <v>0.902398066394746</v>
+        <v>0.9900030086960393</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7656973874017667</v>
+        <v>0.9456794448310023</v>
       </c>
       <c r="D21">
-        <v>0.9953212695179847</v>
+        <v>1.014910521378756</v>
       </c>
       <c r="E21">
-        <v>0.8035780866921094</v>
+        <v>0.9735674984588782</v>
       </c>
       <c r="F21">
-        <v>0.756555927485262</v>
+        <v>0.9934741440496365</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015219004405838</v>
+        <v>1.046003391623807</v>
       </c>
       <c r="J21">
-        <v>0.809762903346646</v>
+        <v>0.9776379442661268</v>
       </c>
       <c r="K21">
-        <v>1.010391827361085</v>
+        <v>1.029614810439257</v>
       </c>
       <c r="L21">
-        <v>0.8235625771324925</v>
+        <v>0.9890675639955627</v>
       </c>
       <c r="M21">
-        <v>0.7782914379416238</v>
+        <v>1.008580214549551</v>
       </c>
       <c r="N21">
-        <v>0.8722640864271022</v>
+        <v>0.9790263022836244</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7656973874017667</v>
+        <v>0.9365589596610041</v>
       </c>
       <c r="D22">
-        <v>0.9953212695179847</v>
+        <v>1.009612176588286</v>
       </c>
       <c r="E22">
-        <v>0.8035780866921094</v>
+        <v>0.9660845892234402</v>
       </c>
       <c r="F22">
-        <v>0.756555927485262</v>
+        <v>0.9863193304022614</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015219004405838</v>
+        <v>1.043617532749904</v>
       </c>
       <c r="J22">
-        <v>0.809762903346646</v>
+        <v>0.9703602338366415</v>
       </c>
       <c r="K22">
-        <v>1.010391827361085</v>
+        <v>1.024995589454667</v>
       </c>
       <c r="L22">
-        <v>0.8235625771324925</v>
+        <v>0.9823592474200236</v>
       </c>
       <c r="M22">
-        <v>0.7782914379416238</v>
+        <v>1.002166764536896</v>
       </c>
       <c r="N22">
-        <v>0.8722640864271022</v>
+        <v>0.9717382566705641</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7656973874017667</v>
+        <v>0.9414441051904255</v>
       </c>
       <c r="D23">
-        <v>0.9953212695179847</v>
+        <v>1.012447268965317</v>
       </c>
       <c r="E23">
-        <v>0.8035780866921094</v>
+        <v>0.9700904378908406</v>
       </c>
       <c r="F23">
-        <v>0.756555927485262</v>
+        <v>0.9901489535996837</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015219004405838</v>
+        <v>1.044896195910566</v>
       </c>
       <c r="J23">
-        <v>0.809762903346646</v>
+        <v>0.9742578528310659</v>
       </c>
       <c r="K23">
-        <v>1.010391827361085</v>
+        <v>1.027468914780464</v>
       </c>
       <c r="L23">
-        <v>0.8235625771324925</v>
+        <v>0.9859514660978755</v>
       </c>
       <c r="M23">
-        <v>0.7782914379416238</v>
+        <v>1.005600718225643</v>
       </c>
       <c r="N23">
-        <v>0.8722640864271022</v>
+        <v>0.975641410731024</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7656973874017667</v>
+        <v>0.9596311854671171</v>
       </c>
       <c r="D24">
-        <v>0.9953212695179847</v>
+        <v>1.023055700046129</v>
       </c>
       <c r="E24">
-        <v>0.8035780866921094</v>
+        <v>0.9850467259510992</v>
       </c>
       <c r="F24">
-        <v>0.756555927485262</v>
+        <v>1.004457765233031</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015219004405838</v>
+        <v>1.049637719971722</v>
       </c>
       <c r="J24">
-        <v>0.809762903346646</v>
+        <v>0.9887769176031372</v>
       </c>
       <c r="K24">
-        <v>1.010391827361085</v>
+        <v>1.036689677959959</v>
       </c>
       <c r="L24">
-        <v>0.8235625771324925</v>
+        <v>0.999341627150631</v>
       </c>
       <c r="M24">
-        <v>0.7782914379416238</v>
+        <v>1.018407047163295</v>
       </c>
       <c r="N24">
-        <v>0.8722640864271022</v>
+        <v>0.9901810942404312</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7656973874017667</v>
+        <v>0.9789413459192547</v>
       </c>
       <c r="D25">
-        <v>0.9953212695179847</v>
+        <v>1.034391012772435</v>
       </c>
       <c r="E25">
-        <v>0.8035780866921094</v>
+        <v>1.000993606290461</v>
       </c>
       <c r="F25">
-        <v>0.756555927485262</v>
+        <v>1.01972459499731</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.015219004405838</v>
+        <v>1.054617744707665</v>
       </c>
       <c r="J25">
-        <v>0.809762903346646</v>
+        <v>1.004198812487258</v>
       </c>
       <c r="K25">
-        <v>1.010391827361085</v>
+        <v>1.046477920137721</v>
       </c>
       <c r="L25">
-        <v>0.8235625771324925</v>
+        <v>1.013576517358078</v>
       </c>
       <c r="M25">
-        <v>0.7782914379416238</v>
+        <v>1.032024238424117</v>
       </c>
       <c r="N25">
-        <v>0.8722640864271022</v>
+        <v>1.005624889984203</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.993182552793866</v>
+        <v>1.003795000388289</v>
       </c>
       <c r="D2">
-        <v>1.042779714450292</v>
+        <v>1.033768589091452</v>
       </c>
       <c r="E2">
-        <v>1.012793078904506</v>
+        <v>1.015883069506332</v>
       </c>
       <c r="F2">
-        <v>1.031020691956804</v>
+        <v>1.018474694081464</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058234312695831</v>
+        <v>1.046506860138265</v>
       </c>
       <c r="J2">
-        <v>1.015569102301088</v>
+        <v>1.025862793112614</v>
       </c>
       <c r="K2">
-        <v>1.053673575004168</v>
+        <v>1.044776696408899</v>
       </c>
       <c r="L2">
-        <v>1.024077017126278</v>
+        <v>1.027125475349028</v>
       </c>
       <c r="M2">
-        <v>1.042064135223044</v>
+        <v>1.029682510010484</v>
       </c>
       <c r="N2">
-        <v>1.01701132691376</v>
+        <v>1.012009683199651</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002960342571212</v>
+        <v>1.009431528507858</v>
       </c>
       <c r="D3">
-        <v>1.048544800046624</v>
+        <v>1.036608578656101</v>
       </c>
       <c r="E3">
-        <v>1.020911055145427</v>
+        <v>1.020807914528965</v>
       </c>
       <c r="F3">
-        <v>1.038788941263748</v>
+        <v>1.02410478230216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060679747348748</v>
+        <v>1.047928736005159</v>
       </c>
       <c r="J3">
-        <v>1.02337062970202</v>
+        <v>1.029668341469358</v>
       </c>
       <c r="K3">
-        <v>1.058592050113903</v>
+        <v>1.046793530502226</v>
       </c>
       <c r="L3">
-        <v>1.031283187757109</v>
+        <v>1.031181300660562</v>
       </c>
       <c r="M3">
-        <v>1.048948447378682</v>
+        <v>1.034438255067099</v>
       </c>
       <c r="N3">
-        <v>1.024823933378449</v>
+        <v>1.013325906430872</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009056785663994</v>
+        <v>1.01299128876094</v>
       </c>
       <c r="D4">
-        <v>1.052138779532794</v>
+        <v>1.038407851061931</v>
       </c>
       <c r="E4">
-        <v>1.025978750960414</v>
+        <v>1.023924437317815</v>
       </c>
       <c r="F4">
-        <v>1.043635828559212</v>
+        <v>1.027668698814953</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062185592190239</v>
+        <v>1.048817513594141</v>
       </c>
       <c r="J4">
-        <v>1.028231621378167</v>
+        <v>1.032068414547824</v>
       </c>
       <c r="K4">
-        <v>1.061646166715615</v>
+        <v>1.048063814424854</v>
       </c>
       <c r="L4">
-        <v>1.03577342863507</v>
+        <v>1.033742441934158</v>
       </c>
       <c r="M4">
-        <v>1.053234656895085</v>
+        <v>1.037444273109127</v>
       </c>
       <c r="N4">
-        <v>1.029691828220339</v>
+        <v>1.014155345636173</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011568458950049</v>
+        <v>1.014467789033452</v>
       </c>
       <c r="D5">
-        <v>1.053618916628203</v>
+        <v>1.039155368678561</v>
       </c>
       <c r="E5">
-        <v>1.028067861746863</v>
+        <v>1.025218536188092</v>
       </c>
       <c r="F5">
-        <v>1.045633193233463</v>
+        <v>1.02914886137132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062801251272776</v>
+        <v>1.04918388695136</v>
       </c>
       <c r="J5">
-        <v>1.030233403575944</v>
+        <v>1.033063061483737</v>
       </c>
       <c r="K5">
-        <v>1.062901096746891</v>
+        <v>1.048589774492785</v>
       </c>
       <c r="L5">
-        <v>1.037622522115027</v>
+        <v>1.03480461656177</v>
       </c>
       <c r="M5">
-        <v>1.054998784656305</v>
+        <v>1.038691657283768</v>
       </c>
       <c r="N5">
-        <v>1.031696453178444</v>
+        <v>1.014498913378303</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011987278791902</v>
+        <v>1.014714551248855</v>
       </c>
       <c r="D6">
-        <v>1.053865684930435</v>
+        <v>1.039280366724872</v>
       </c>
       <c r="E6">
-        <v>1.028416288799649</v>
+        <v>1.025434897672699</v>
       </c>
       <c r="F6">
-        <v>1.045966272923821</v>
+        <v>1.029396348652353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062903627872162</v>
+        <v>1.049244982485894</v>
       </c>
       <c r="J6">
-        <v>1.030567143422006</v>
+        <v>1.033229242374684</v>
       </c>
       <c r="K6">
-        <v>1.063110150317107</v>
+        <v>1.048677619428402</v>
       </c>
       <c r="L6">
-        <v>1.037930803141109</v>
+        <v>1.03498212547416</v>
       </c>
       <c r="M6">
-        <v>1.055292841527027</v>
+        <v>1.03890016004057</v>
       </c>
       <c r="N6">
-        <v>1.032030666973369</v>
+        <v>1.01455630467855</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00909054339248</v>
+        <v>1.013011095340542</v>
       </c>
       <c r="D7">
-        <v>1.052158675759289</v>
+        <v>1.038417874008158</v>
       </c>
       <c r="E7">
-        <v>1.026006824524925</v>
+        <v>1.023941791429074</v>
       </c>
       <c r="F7">
-        <v>1.043662672242256</v>
+        <v>1.027688546903675</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062193885874336</v>
+        <v>1.048822437375435</v>
       </c>
       <c r="J7">
-        <v>1.028258529703803</v>
+        <v>1.032081760678507</v>
       </c>
       <c r="K7">
-        <v>1.061663047023955</v>
+        <v>1.048070873707258</v>
       </c>
       <c r="L7">
-        <v>1.035798284613207</v>
+        <v>1.033756691069811</v>
       </c>
       <c r="M7">
-        <v>1.053258374629255</v>
+        <v>1.037461004030504</v>
       </c>
       <c r="N7">
-        <v>1.029718774758885</v>
+        <v>1.014159956304707</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9965372040644378</v>
+        <v>1.005718566882271</v>
       </c>
       <c r="D8">
-        <v>1.044757498204353</v>
+        <v>1.034736508606819</v>
       </c>
       <c r="E8">
-        <v>1.015576830869144</v>
+        <v>1.017562419622406</v>
       </c>
       <c r="F8">
-        <v>1.033684966474905</v>
+        <v>1.020394312072516</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059077187228079</v>
+        <v>1.046994000057803</v>
       </c>
       <c r="J8">
-        <v>1.018246333748128</v>
+        <v>1.027162176225855</v>
       </c>
       <c r="K8">
-        <v>1.055363500457508</v>
+        <v>1.045465644090448</v>
       </c>
       <c r="L8">
-        <v>1.026549858330451</v>
+        <v>1.028509637798823</v>
       </c>
       <c r="M8">
-        <v>1.044427195253395</v>
+        <v>1.031304937817141</v>
       </c>
       <c r="N8">
-        <v>1.019692360336538</v>
+        <v>1.012459235648451</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9724499596236855</v>
+        <v>0.9921542131061496</v>
       </c>
       <c r="D9">
-        <v>1.030574079122217</v>
+        <v>1.027941292075797</v>
       </c>
       <c r="E9">
-        <v>0.9956257066399992</v>
+        <v>1.005749129627876</v>
       </c>
       <c r="F9">
-        <v>1.014585122026623</v>
+        <v>1.006894534792742</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052951879492787</v>
+        <v>1.043522033355834</v>
       </c>
       <c r="J9">
-        <v>0.999014549893717</v>
+        <v>1.017987101247574</v>
       </c>
       <c r="K9">
-        <v>1.043189851392911</v>
+        <v>1.040596742542738</v>
       </c>
       <c r="L9">
-        <v>1.008790154633836</v>
+        <v>1.018749614813351</v>
       </c>
       <c r="M9">
-        <v>1.027445916282067</v>
+        <v>1.019876734662992</v>
       </c>
       <c r="N9">
-        <v>1.000433265143137</v>
+        <v>1.009282440653716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.954734924204325</v>
+        <v>0.9825639443476729</v>
       </c>
       <c r="D10">
-        <v>1.020192192822239</v>
+        <v>1.023182588011164</v>
       </c>
       <c r="E10">
-        <v>0.9810138749907614</v>
+        <v>0.9974366065466801</v>
       </c>
       <c r="F10">
-        <v>1.000598165539891</v>
+        <v>0.997398730170077</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048364936730395</v>
+        <v>1.041023297584608</v>
       </c>
       <c r="J10">
-        <v>0.9848671421635279</v>
+        <v>1.011486842609099</v>
       </c>
       <c r="K10">
-        <v>1.034206196820419</v>
+        <v>1.037145519876839</v>
       </c>
       <c r="L10">
-        <v>0.9957346052074749</v>
+        <v>1.011852298611846</v>
       </c>
       <c r="M10">
-        <v>1.014956628315303</v>
+        <v>1.011815110719942</v>
       </c>
       <c r="N10">
-        <v>0.9862657664712402</v>
+        <v>1.007029121843726</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9465764652170805</v>
+        <v>0.978264585824392</v>
       </c>
       <c r="D11">
-        <v>1.015432823755835</v>
+        <v>1.021062529163564</v>
       </c>
       <c r="E11">
-        <v>0.9743043930082338</v>
+        <v>0.9937204858953811</v>
       </c>
       <c r="F11">
-        <v>0.9941789720903921</v>
+        <v>0.9931540084951376</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046237695104443</v>
+        <v>1.0398936702793</v>
       </c>
       <c r="J11">
-        <v>0.9783539260079899</v>
+        <v>1.008570397084081</v>
       </c>
       <c r="K11">
-        <v>1.030069452388959</v>
+        <v>1.035597875769057</v>
       </c>
       <c r="L11">
-        <v>0.9897277234765345</v>
+        <v>1.008761804288901</v>
       </c>
       <c r="M11">
-        <v>1.009211505768979</v>
+        <v>1.008206195408976</v>
       </c>
       <c r="N11">
-        <v>0.9797433008016846</v>
+        <v>1.006017664639046</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9434627511145934</v>
+        <v>0.9766439770846326</v>
       </c>
       <c r="D12">
-        <v>1.01362071159694</v>
+        <v>1.020265609938293</v>
       </c>
       <c r="E12">
-        <v>0.971747210057484</v>
+        <v>0.9923213815815614</v>
       </c>
       <c r="F12">
-        <v>0.9917332424162844</v>
+        <v>0.9915559066416247</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045424086845544</v>
+        <v>1.039466540459523</v>
       </c>
       <c r="J12">
-        <v>0.9758687718808372</v>
+        <v>1.007470786856767</v>
       </c>
       <c r="K12">
-        <v>1.028491531351276</v>
+        <v>1.035014586272339</v>
       </c>
       <c r="L12">
-        <v>0.9874364721229703</v>
+        <v>1.007597185346743</v>
       </c>
       <c r="M12">
-        <v>1.007020552899759</v>
+        <v>1.006846690146671</v>
       </c>
       <c r="N12">
-        <v>0.9772546174706205</v>
+        <v>1.005636250826544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9441346056788595</v>
+        <v>0.9769926999837349</v>
       </c>
       <c r="D13">
-        <v>1.014011502716095</v>
+        <v>1.020436987176687</v>
       </c>
       <c r="E13">
-        <v>0.9722988119008784</v>
+        <v>0.9926223647010416</v>
       </c>
       <c r="F13">
-        <v>0.9922607606830138</v>
+        <v>0.991899699044424</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045599710989961</v>
+        <v>1.03955850868506</v>
       </c>
       <c r="J13">
-        <v>0.9764049656357487</v>
+        <v>1.007707412575088</v>
       </c>
       <c r="K13">
-        <v>1.028831949449192</v>
+        <v>1.035140092389872</v>
       </c>
       <c r="L13">
-        <v>0.9879307949190195</v>
+        <v>1.007847772602511</v>
       </c>
       <c r="M13">
-        <v>1.007493211675047</v>
+        <v>1.007139189283433</v>
       </c>
       <c r="N13">
-        <v>0.9777915726821663</v>
+        <v>1.005718329771856</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9463208490191695</v>
+        <v>0.9781311177161205</v>
       </c>
       <c r="D14">
-        <v>1.015283966878647</v>
+        <v>1.020996851052337</v>
       </c>
       <c r="E14">
-        <v>0.9740943898174843</v>
+        <v>0.9936052259624506</v>
       </c>
       <c r="F14">
-        <v>0.9939781032832964</v>
+        <v>0.9930223547596471</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04617093508513</v>
+        <v>1.039858519621206</v>
       </c>
       <c r="J14">
-        <v>0.9781498955559831</v>
+        <v>1.008479841963497</v>
       </c>
       <c r="K14">
-        <v>1.029939892079825</v>
+        <v>1.035549835357336</v>
       </c>
       <c r="L14">
-        <v>0.989539597066712</v>
+        <v>1.008665883103525</v>
       </c>
       <c r="M14">
-        <v>1.009031603622067</v>
+        <v>1.00809421331023</v>
       </c>
       <c r="N14">
-        <v>0.9795389806030336</v>
+        <v>1.005986255498488</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9476564941097179</v>
+        <v>0.9788293522607663</v>
       </c>
       <c r="D15">
-        <v>1.0160619550965</v>
+        <v>1.021340535929874</v>
       </c>
       <c r="E15">
-        <v>0.9751918440508872</v>
+        <v>0.9942082730124435</v>
       </c>
       <c r="F15">
-        <v>0.9950278572409521</v>
+        <v>0.9937111757076067</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046519702102235</v>
+        <v>1.040042355852738</v>
       </c>
       <c r="J15">
-        <v>0.9792160230769764</v>
+        <v>1.008953567530836</v>
       </c>
       <c r="K15">
-        <v>1.030616911265858</v>
+        <v>1.035801161653675</v>
       </c>
       <c r="L15">
-        <v>0.9905226503183934</v>
+        <v>1.009167705433992</v>
       </c>
       <c r="M15">
-        <v>1.009971701138736</v>
+        <v>1.008680079328242</v>
       </c>
       <c r="N15">
-        <v>0.9806066221473936</v>
+        <v>1.00615056551774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9552652864781145</v>
+        <v>0.9828460549448756</v>
       </c>
       <c r="D16">
-        <v>1.020502120356604</v>
+        <v>1.023321994301303</v>
       </c>
       <c r="E16">
-        <v>0.9814504931248494</v>
+        <v>0.9976806709550622</v>
       </c>
       <c r="F16">
-        <v>1.001015987049122</v>
+        <v>0.9976775163863328</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048502958829792</v>
+        <v>1.041097231813594</v>
       </c>
       <c r="J16">
-        <v>0.9852906213468158</v>
+        <v>1.011678167979916</v>
       </c>
       <c r="K16">
-        <v>1.034475192521511</v>
+        <v>1.037247074611123</v>
       </c>
       <c r="L16">
-        <v>0.9961252511038086</v>
+        <v>1.012055126959437</v>
       </c>
       <c r="M16">
-        <v>1.015330297849445</v>
+        <v>1.012052029524087</v>
       </c>
       <c r="N16">
-        <v>0.986689847043542</v>
+        <v>1.00709546714604</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599010119826356</v>
+        <v>0.985325269085347</v>
       </c>
       <c r="D17">
-        <v>1.023213648513982</v>
+        <v>1.024548642537631</v>
       </c>
       <c r="E17">
-        <v>0.9852691018740659</v>
+        <v>0.9998267237511619</v>
       </c>
       <c r="F17">
-        <v>1.004670610015206</v>
+        <v>1.000128916608911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049707763716769</v>
+        <v>1.041745913330603</v>
       </c>
       <c r="J17">
-        <v>0.988992394701954</v>
+        <v>1.013359294812566</v>
       </c>
       <c r="K17">
-        <v>1.036826542980459</v>
+        <v>1.038139513660095</v>
       </c>
       <c r="L17">
-        <v>0.9995404429277888</v>
+        <v>1.013837791809988</v>
       </c>
       <c r="M17">
-        <v>1.018597239132106</v>
+        <v>1.014134685827609</v>
       </c>
       <c r="N17">
-        <v>0.9903968773414441</v>
+        <v>1.007678374707381</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9625586629405192</v>
+        <v>0.9867573128144629</v>
       </c>
       <c r="D18">
-        <v>1.024770122351144</v>
+        <v>1.025258419536219</v>
       </c>
       <c r="E18">
-        <v>0.9874601058102491</v>
+        <v>1.001067304995654</v>
       </c>
       <c r="F18">
-        <v>1.006767814057942</v>
+        <v>1.001546051083039</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0503970679262</v>
+        <v>1.04211970708268</v>
       </c>
       <c r="J18">
-        <v>0.9911147960896025</v>
+        <v>1.014330120009577</v>
       </c>
       <c r="K18">
-        <v>1.038174563403091</v>
+        <v>1.03865495191789</v>
       </c>
       <c r="L18">
-        <v>1.001498862734068</v>
+        <v>1.014867640762063</v>
       </c>
       <c r="M18">
-        <v>1.020470739914162</v>
+        <v>1.015338150929112</v>
       </c>
       <c r="N18">
-        <v>0.9925222927825057</v>
+        <v>1.008014949650558</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9634572754505124</v>
+        <v>0.9872432672957033</v>
       </c>
       <c r="D19">
-        <v>1.025296706722513</v>
+        <v>1.025499481622532</v>
       </c>
       <c r="E19">
-        <v>0.9882012259555641</v>
+        <v>1.0014884512628</v>
       </c>
       <c r="F19">
-        <v>1.007477246781868</v>
+        <v>1.002027140537127</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050629885693793</v>
+        <v>1.042246396601709</v>
       </c>
       <c r="J19">
-        <v>0.9918324512696668</v>
+        <v>1.014659522389771</v>
       </c>
       <c r="K19">
-        <v>1.038630337953546</v>
+        <v>1.038829849267826</v>
       </c>
       <c r="L19">
-        <v>1.002161121874442</v>
+        <v>1.015217135695005</v>
       </c>
       <c r="M19">
-        <v>1.021104291628838</v>
+        <v>1.015746618301202</v>
       </c>
       <c r="N19">
-        <v>0.993240967115242</v>
+        <v>1.008129141909589</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9594084967038916</v>
+        <v>0.9850607361301463</v>
       </c>
       <c r="D20">
-        <v>1.022925355629953</v>
+        <v>1.024417628446091</v>
       </c>
       <c r="E20">
-        <v>0.9848632085064087</v>
+        <v>0.9995976370296989</v>
       </c>
       <c r="F20">
-        <v>1.004282115043321</v>
+        <v>0.9998672308734157</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049579904563213</v>
+        <v>1.041676791371771</v>
       </c>
       <c r="J20">
-        <v>0.9885990846020045</v>
+        <v>1.013179941126629</v>
       </c>
       <c r="K20">
-        <v>1.036576722656593</v>
+        <v>1.038044294532442</v>
       </c>
       <c r="L20">
-        <v>0.9991775465682506</v>
+        <v>1.013647565196923</v>
       </c>
       <c r="M20">
-        <v>1.018250084219903</v>
+        <v>1.013912415268075</v>
       </c>
       <c r="N20">
-        <v>0.9900030086960393</v>
+        <v>1.00761619089414</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9456794448310023</v>
+        <v>0.977796548091301</v>
       </c>
       <c r="D21">
-        <v>1.014910521378756</v>
+        <v>1.020832249731494</v>
       </c>
       <c r="E21">
-        <v>0.9735674984588782</v>
+        <v>0.9933163264768227</v>
       </c>
       <c r="F21">
-        <v>0.9934741440496365</v>
+        <v>0.9926923643021939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046003391623807</v>
+        <v>1.03977038509797</v>
       </c>
       <c r="J21">
-        <v>0.9776379442661268</v>
+        <v>1.008252839732682</v>
       </c>
       <c r="K21">
-        <v>1.029614810439257</v>
+        <v>1.035429412469197</v>
       </c>
       <c r="L21">
-        <v>0.9890675639955627</v>
+        <v>1.008425439184453</v>
       </c>
       <c r="M21">
-        <v>1.008580214549551</v>
+        <v>1.007813517374176</v>
       </c>
       <c r="N21">
-        <v>0.9790263022836244</v>
+        <v>1.005907518676847</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9365589596610041</v>
+        <v>0.9730916125848866</v>
       </c>
       <c r="D22">
-        <v>1.009612176588286</v>
+        <v>1.018523115125952</v>
       </c>
       <c r="E22">
-        <v>0.9660845892234402</v>
+        <v>0.9892577140240351</v>
       </c>
       <c r="F22">
-        <v>0.9863193304022614</v>
+        <v>0.9880564753559281</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043617532749904</v>
+        <v>1.038527939160792</v>
       </c>
       <c r="J22">
-        <v>0.9703602338366415</v>
+        <v>1.005060019667339</v>
       </c>
       <c r="K22">
-        <v>1.024995589454667</v>
+        <v>1.03373634481124</v>
       </c>
       <c r="L22">
-        <v>0.9823592474200236</v>
+        <v>1.005045024245707</v>
       </c>
       <c r="M22">
-        <v>1.002166764536896</v>
+        <v>1.00386830780955</v>
       </c>
       <c r="N22">
-        <v>0.9717382566705641</v>
+        <v>1.004799958436128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9414441051904255</v>
+        <v>0.975599408881255</v>
       </c>
       <c r="D23">
-        <v>1.012447268965317</v>
+        <v>1.01975260811501</v>
       </c>
       <c r="E23">
-        <v>0.9700904378908406</v>
+        <v>0.9914200640496187</v>
       </c>
       <c r="F23">
-        <v>0.9901489535996837</v>
+        <v>0.9905263928896572</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044896195910566</v>
+        <v>1.039190870907258</v>
       </c>
       <c r="J23">
-        <v>0.9742578528310659</v>
+        <v>1.006761960735368</v>
       </c>
       <c r="K23">
-        <v>1.027468914780464</v>
+        <v>1.034638668064854</v>
       </c>
       <c r="L23">
-        <v>0.9859514660978755</v>
+        <v>1.006846626578464</v>
       </c>
       <c r="M23">
-        <v>1.005600718225643</v>
+        <v>1.005970665216209</v>
       </c>
       <c r="N23">
-        <v>0.975641410731024</v>
+        <v>1.005390371466166</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9596311854671171</v>
+        <v>0.9851803104557464</v>
       </c>
       <c r="D24">
-        <v>1.023055700046129</v>
+        <v>1.024476845672415</v>
       </c>
       <c r="E24">
-        <v>0.9850467259510992</v>
+        <v>0.9997011859016769</v>
       </c>
       <c r="F24">
-        <v>1.004457765233031</v>
+        <v>0.9999855146131881</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049637719971722</v>
+        <v>1.041708038708308</v>
       </c>
       <c r="J24">
-        <v>0.9887769176031372</v>
+        <v>1.013261013385017</v>
       </c>
       <c r="K24">
-        <v>1.036689677959959</v>
+        <v>1.038087335706439</v>
       </c>
       <c r="L24">
-        <v>0.999341627150631</v>
+        <v>1.013733551083274</v>
       </c>
       <c r="M24">
-        <v>1.018407047163295</v>
+        <v>1.014012884635918</v>
       </c>
       <c r="N24">
-        <v>0.9901810942404312</v>
+        <v>1.007644299642298</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9789413459192547</v>
+        <v>0.9957521167899308</v>
       </c>
       <c r="D25">
-        <v>1.034391012772435</v>
+        <v>1.029736637703097</v>
       </c>
       <c r="E25">
-        <v>1.000993606290461</v>
+        <v>1.008876066706568</v>
       </c>
       <c r="F25">
-        <v>1.01972459499731</v>
+        <v>1.010467157732059</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054617744707665</v>
+        <v>1.044450814897394</v>
       </c>
       <c r="J25">
-        <v>1.004198812487258</v>
+        <v>1.020423289733041</v>
       </c>
       <c r="K25">
-        <v>1.046477920137721</v>
+        <v>1.041890225088076</v>
       </c>
       <c r="L25">
-        <v>1.013576517358078</v>
+        <v>1.021338138249222</v>
       </c>
       <c r="M25">
-        <v>1.032024238424117</v>
+        <v>1.02290512888392</v>
       </c>
       <c r="N25">
-        <v>1.005624889984203</v>
+        <v>1.010126456831581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003795000388289</v>
+        <v>1.041545723200529</v>
       </c>
       <c r="D2">
-        <v>1.033768589091452</v>
+        <v>1.039297054728629</v>
       </c>
       <c r="E2">
-        <v>1.015883069506332</v>
+        <v>1.048715094248676</v>
       </c>
       <c r="F2">
-        <v>1.018474694081464</v>
+        <v>1.057042820102352</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046506860138265</v>
+        <v>1.038489970946423</v>
       </c>
       <c r="J2">
-        <v>1.025862793112614</v>
+        <v>1.046626351535078</v>
       </c>
       <c r="K2">
-        <v>1.044776696408899</v>
+        <v>1.042082643582883</v>
       </c>
       <c r="L2">
-        <v>1.027125475349028</v>
+        <v>1.051474166906976</v>
       </c>
       <c r="M2">
-        <v>1.029682510010484</v>
+        <v>1.059778872817172</v>
       </c>
       <c r="N2">
-        <v>1.012009683199651</v>
+        <v>1.019363311645429</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009431528507858</v>
+        <v>1.042714220149611</v>
       </c>
       <c r="D3">
-        <v>1.036608578656101</v>
+        <v>1.039879405151342</v>
       </c>
       <c r="E3">
-        <v>1.020807914528965</v>
+        <v>1.049791665577416</v>
       </c>
       <c r="F3">
-        <v>1.02410478230216</v>
+        <v>1.058290854848098</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047928736005159</v>
+        <v>1.038721569036194</v>
       </c>
       <c r="J3">
-        <v>1.029668341469358</v>
+        <v>1.04743983060988</v>
       </c>
       <c r="K3">
-        <v>1.046793530502226</v>
+        <v>1.042475784736046</v>
       </c>
       <c r="L3">
-        <v>1.031181300660562</v>
+        <v>1.0523621553137</v>
       </c>
       <c r="M3">
-        <v>1.034438255067099</v>
+        <v>1.060839562023407</v>
       </c>
       <c r="N3">
-        <v>1.013325906430872</v>
+        <v>1.019639937002866</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01299128876094</v>
+        <v>1.043470160793303</v>
       </c>
       <c r="D4">
-        <v>1.038407851061931</v>
+        <v>1.040256136789622</v>
       </c>
       <c r="E4">
-        <v>1.023924437317815</v>
+        <v>1.050488512241968</v>
       </c>
       <c r="F4">
-        <v>1.027668698814953</v>
+        <v>1.059098953709223</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048817513594141</v>
+        <v>1.038870149398911</v>
       </c>
       <c r="J4">
-        <v>1.032068414547824</v>
+        <v>1.047965522699627</v>
       </c>
       <c r="K4">
-        <v>1.048063814424854</v>
+        <v>1.042729385589925</v>
       </c>
       <c r="L4">
-        <v>1.033742441934158</v>
+        <v>1.052936380819574</v>
       </c>
       <c r="M4">
-        <v>1.037444273109127</v>
+        <v>1.061525873563215</v>
       </c>
       <c r="N4">
-        <v>1.014155345636173</v>
+        <v>1.019818538618149</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014467789033452</v>
+        <v>1.043787922607966</v>
       </c>
       <c r="D5">
-        <v>1.039155368678561</v>
+        <v>1.040414492663921</v>
       </c>
       <c r="E5">
-        <v>1.025218536188092</v>
+        <v>1.050781523167494</v>
       </c>
       <c r="F5">
-        <v>1.02914886137132</v>
+        <v>1.059438808208897</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04918388695136</v>
+        <v>1.038932306287537</v>
       </c>
       <c r="J5">
-        <v>1.033063061483737</v>
+        <v>1.048186360797449</v>
       </c>
       <c r="K5">
-        <v>1.048589774492785</v>
+        <v>1.042835810251191</v>
       </c>
       <c r="L5">
-        <v>1.03480461656177</v>
+        <v>1.053177699229835</v>
       </c>
       <c r="M5">
-        <v>1.038691657283768</v>
+        <v>1.061814393873732</v>
       </c>
       <c r="N5">
-        <v>1.014498913378303</v>
+        <v>1.019893528663475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014714551248855</v>
+        <v>1.043841274168446</v>
       </c>
       <c r="D6">
-        <v>1.039280366724872</v>
+        <v>1.040441079985529</v>
       </c>
       <c r="E6">
-        <v>1.025434897672699</v>
+        <v>1.050830724332821</v>
       </c>
       <c r="F6">
-        <v>1.029396348652353</v>
+        <v>1.05949587891759</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049244982485894</v>
+        <v>1.038942724738982</v>
       </c>
       <c r="J6">
-        <v>1.033229242374684</v>
+        <v>1.048223430956712</v>
       </c>
       <c r="K6">
-        <v>1.048677619428402</v>
+        <v>1.042853668313035</v>
       </c>
       <c r="L6">
-        <v>1.03498212547416</v>
+        <v>1.053218212632235</v>
       </c>
       <c r="M6">
-        <v>1.03890016004057</v>
+        <v>1.061862837435651</v>
       </c>
       <c r="N6">
-        <v>1.01455630467855</v>
+        <v>1.019906114309239</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013011095340542</v>
+        <v>1.043474406880377</v>
       </c>
       <c r="D7">
-        <v>1.038417874008158</v>
+        <v>1.04025825283674</v>
       </c>
       <c r="E7">
-        <v>1.023941791429074</v>
+        <v>1.050492427244944</v>
       </c>
       <c r="F7">
-        <v>1.027688546903675</v>
+        <v>1.059103494350397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048822437375435</v>
+        <v>1.038870981145933</v>
       </c>
       <c r="J7">
-        <v>1.032081760678507</v>
+        <v>1.04796847418812</v>
       </c>
       <c r="K7">
-        <v>1.048070873707258</v>
+        <v>1.042730808385334</v>
       </c>
       <c r="L7">
-        <v>1.033756691069811</v>
+        <v>1.052939605664927</v>
       </c>
       <c r="M7">
-        <v>1.037461004030504</v>
+        <v>1.061529728804364</v>
       </c>
       <c r="N7">
-        <v>1.014159956304707</v>
+        <v>1.019819541008292</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005718566882271</v>
+        <v>1.041940655203081</v>
       </c>
       <c r="D8">
-        <v>1.034736508606819</v>
+        <v>1.03949388038797</v>
       </c>
       <c r="E8">
-        <v>1.017562419622406</v>
+        <v>1.049078878802345</v>
       </c>
       <c r="F8">
-        <v>1.020394312072516</v>
+        <v>1.057464488834086</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046994000057803</v>
+        <v>1.038568505401312</v>
       </c>
       <c r="J8">
-        <v>1.027162176225855</v>
+        <v>1.046901412505239</v>
       </c>
       <c r="K8">
-        <v>1.045465644090448</v>
+        <v>1.042215670260238</v>
       </c>
       <c r="L8">
-        <v>1.028509637798823</v>
+        <v>1.051774342235743</v>
       </c>
       <c r="M8">
-        <v>1.031304937817141</v>
+        <v>1.060137343539694</v>
       </c>
       <c r="N8">
-        <v>1.012459235648451</v>
+        <v>1.019456880032092</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9921542131061496</v>
+        <v>1.039236735051743</v>
       </c>
       <c r="D9">
-        <v>1.027941292075797</v>
+        <v>1.038146329494466</v>
       </c>
       <c r="E9">
-        <v>1.005749129627876</v>
+        <v>1.04658977426787</v>
       </c>
       <c r="F9">
-        <v>1.006894534792742</v>
+        <v>1.054580410009486</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043522033355834</v>
+        <v>1.038025711455913</v>
       </c>
       <c r="J9">
-        <v>1.017987101247574</v>
+        <v>1.045015847904776</v>
       </c>
       <c r="K9">
-        <v>1.040596742542738</v>
+        <v>1.041301921529563</v>
       </c>
       <c r="L9">
-        <v>1.018749614813351</v>
+        <v>1.049718189457522</v>
       </c>
       <c r="M9">
-        <v>1.019876734662992</v>
+        <v>1.057683544045121</v>
       </c>
       <c r="N9">
-        <v>1.009282440653716</v>
+        <v>1.018814805442793</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9825639443476729</v>
+        <v>1.0374331833529</v>
       </c>
       <c r="D10">
-        <v>1.023182588011164</v>
+        <v>1.03724759907259</v>
       </c>
       <c r="E10">
-        <v>0.9974366065466801</v>
+        <v>1.044931493394102</v>
       </c>
       <c r="F10">
-        <v>0.997398730170077</v>
+        <v>1.052660341371929</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041023297584608</v>
+        <v>1.037657267663314</v>
       </c>
       <c r="J10">
-        <v>1.011486842609099</v>
+        <v>1.043755216737393</v>
       </c>
       <c r="K10">
-        <v>1.037145519876839</v>
+        <v>1.040688746036693</v>
       </c>
       <c r="L10">
-        <v>1.011852298611846</v>
+        <v>1.048345481394898</v>
       </c>
       <c r="M10">
-        <v>1.011815110719942</v>
+        <v>1.056047451840392</v>
       </c>
       <c r="N10">
-        <v>1.007029121843726</v>
+        <v>1.018384716141186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.978264585824392</v>
+        <v>1.036651981049461</v>
       </c>
       <c r="D11">
-        <v>1.021062529163564</v>
+        <v>1.036858364958461</v>
       </c>
       <c r="E11">
-        <v>0.9937204858953811</v>
+        <v>1.044213692908706</v>
       </c>
       <c r="F11">
-        <v>0.9931540084951376</v>
+        <v>1.051829540958568</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0398936702793</v>
+        <v>1.037496166704893</v>
       </c>
       <c r="J11">
-        <v>1.008570397084081</v>
+        <v>1.043208487107807</v>
       </c>
       <c r="K11">
-        <v>1.035597875769057</v>
+        <v>1.040422289326136</v>
       </c>
       <c r="L11">
-        <v>1.008761804288901</v>
+        <v>1.047750611652729</v>
       </c>
       <c r="M11">
-        <v>1.008206195408976</v>
+        <v>1.055338936956213</v>
       </c>
       <c r="N11">
-        <v>1.006017664639046</v>
+        <v>1.018197996559542</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9766439770846326</v>
+        <v>1.036361767802503</v>
       </c>
       <c r="D12">
-        <v>1.020265609938293</v>
+        <v>1.036713775316047</v>
       </c>
       <c r="E12">
-        <v>0.9923213815815614</v>
+        <v>1.043947105624576</v>
       </c>
       <c r="F12">
-        <v>0.9915559066416247</v>
+        <v>1.051521033470534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039466540459523</v>
+        <v>1.037436091863632</v>
       </c>
       <c r="J12">
-        <v>1.007470786856767</v>
+        <v>1.043005275896995</v>
       </c>
       <c r="K12">
-        <v>1.035014586272339</v>
+        <v>1.040323173498792</v>
       </c>
       <c r="L12">
-        <v>1.007597185346743</v>
+        <v>1.047529577592216</v>
       </c>
       <c r="M12">
-        <v>1.006846690146671</v>
+        <v>1.055075750122164</v>
       </c>
       <c r="N12">
-        <v>1.005636250826544</v>
+        <v>1.018128567017202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9769926999837349</v>
+        <v>1.036424021367965</v>
       </c>
       <c r="D13">
-        <v>1.020436987176687</v>
+        <v>1.036744790757094</v>
       </c>
       <c r="E13">
-        <v>0.9926223647010416</v>
+        <v>1.044004287902231</v>
       </c>
       <c r="F13">
-        <v>0.991899699044424</v>
+        <v>1.051587205383369</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03955850868506</v>
+        <v>1.03744898874568</v>
       </c>
       <c r="J13">
-        <v>1.007707412575088</v>
+        <v>1.043048871358694</v>
       </c>
       <c r="K13">
-        <v>1.035140092389872</v>
+        <v>1.040344440596385</v>
       </c>
       <c r="L13">
-        <v>1.007847772602511</v>
+        <v>1.047576993467803</v>
       </c>
       <c r="M13">
-        <v>1.007139189283433</v>
+        <v>1.05513220519617</v>
       </c>
       <c r="N13">
-        <v>1.005718329771856</v>
+        <v>1.018143463223191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9781311177161205</v>
+        <v>1.036627992757985</v>
       </c>
       <c r="D14">
-        <v>1.020996851052337</v>
+        <v>1.036846413347625</v>
       </c>
       <c r="E14">
-        <v>0.9936052259624506</v>
+        <v>1.04419165599773</v>
       </c>
       <c r="F14">
-        <v>0.9930223547596471</v>
+        <v>1.051804037831975</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039858519621206</v>
+        <v>1.037491205689319</v>
       </c>
       <c r="J14">
-        <v>1.008479841963497</v>
+        <v>1.043191692294167</v>
       </c>
       <c r="K14">
-        <v>1.035549835357336</v>
+        <v>1.040414099273975</v>
       </c>
       <c r="L14">
-        <v>1.008665883103525</v>
+        <v>1.047732342403035</v>
       </c>
       <c r="M14">
-        <v>1.00809421331023</v>
+        <v>1.055317182120939</v>
       </c>
       <c r="N14">
-        <v>1.005986255498488</v>
+        <v>1.018192258994282</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9788293522607663</v>
+        <v>1.036753660912795</v>
       </c>
       <c r="D15">
-        <v>1.021340535929874</v>
+        <v>1.036909024981663</v>
       </c>
       <c r="E15">
-        <v>0.9942082730124435</v>
+        <v>1.044307104370227</v>
       </c>
       <c r="F15">
-        <v>0.9937111757076067</v>
+        <v>1.051937647173939</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040042355852738</v>
+        <v>1.037517185830673</v>
       </c>
       <c r="J15">
-        <v>1.008953567530836</v>
+        <v>1.043279671531231</v>
       </c>
       <c r="K15">
-        <v>1.035801161653675</v>
+        <v>1.040456999488677</v>
       </c>
       <c r="L15">
-        <v>1.009167705433992</v>
+        <v>1.047828048308733</v>
       </c>
       <c r="M15">
-        <v>1.008680079328242</v>
+        <v>1.055431150762881</v>
       </c>
       <c r="N15">
-        <v>1.00615056551774</v>
+        <v>1.018222313922328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9828460549448756</v>
+        <v>1.037485023686854</v>
       </c>
       <c r="D16">
-        <v>1.023321994301303</v>
+        <v>1.037273429698052</v>
       </c>
       <c r="E16">
-        <v>0.9976806709550622</v>
+        <v>1.044979136530998</v>
       </c>
       <c r="F16">
-        <v>0.9976775163863328</v>
+        <v>1.052715491400231</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041097231813594</v>
+        <v>1.037667926482333</v>
       </c>
       <c r="J16">
-        <v>1.011678167979916</v>
+        <v>1.043791483002619</v>
       </c>
       <c r="K16">
-        <v>1.037247074611123</v>
+        <v>1.040706409961941</v>
       </c>
       <c r="L16">
-        <v>1.012055126959437</v>
+        <v>1.048384950771811</v>
       </c>
       <c r="M16">
-        <v>1.012052029524087</v>
+        <v>1.05609447191427</v>
       </c>
       <c r="N16">
-        <v>1.00709546714604</v>
+        <v>1.018397097800533</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.985325269085347</v>
+        <v>1.037943719222868</v>
       </c>
       <c r="D17">
-        <v>1.024548642537631</v>
+        <v>1.037501990958848</v>
       </c>
       <c r="E17">
-        <v>0.9998267237511619</v>
+        <v>1.045400749590692</v>
       </c>
       <c r="F17">
-        <v>1.000128916608911</v>
+        <v>1.053203572526448</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041745913330603</v>
+        <v>1.0377620637901</v>
       </c>
       <c r="J17">
-        <v>1.013359294812566</v>
+        <v>1.04411229566759</v>
       </c>
       <c r="K17">
-        <v>1.038139513660095</v>
+        <v>1.040862605152428</v>
       </c>
       <c r="L17">
-        <v>1.013837791809988</v>
+        <v>1.048734152182712</v>
       </c>
       <c r="M17">
-        <v>1.014134685827609</v>
+        <v>1.056510534357859</v>
       </c>
       <c r="N17">
-        <v>1.007678374707381</v>
+        <v>1.018506604263307</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9867573128144629</v>
+        <v>1.038211244338029</v>
       </c>
       <c r="D18">
-        <v>1.025258419536219</v>
+        <v>1.037635299295232</v>
       </c>
       <c r="E18">
-        <v>1.001067304995654</v>
+        <v>1.045646693178317</v>
       </c>
       <c r="F18">
-        <v>1.001546051083039</v>
+        <v>1.053488320183494</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04211970708268</v>
+        <v>1.037816821746543</v>
       </c>
       <c r="J18">
-        <v>1.014330120009577</v>
+        <v>1.044299336588635</v>
       </c>
       <c r="K18">
-        <v>1.03865495191789</v>
+        <v>1.040953619698429</v>
       </c>
       <c r="L18">
-        <v>1.014867640762063</v>
+        <v>1.04893778940419</v>
       </c>
       <c r="M18">
-        <v>1.015338150929112</v>
+        <v>1.056753209288537</v>
       </c>
       <c r="N18">
-        <v>1.008014949650558</v>
+        <v>1.018570430454839</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9872432672957033</v>
+        <v>1.038302459439437</v>
       </c>
       <c r="D19">
-        <v>1.025499481622532</v>
+        <v>1.037680752678407</v>
       </c>
       <c r="E19">
-        <v>1.0014884512628</v>
+        <v>1.04573055766301</v>
       </c>
       <c r="F19">
-        <v>1.002027140537127</v>
+        <v>1.053585421697241</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042246396601709</v>
+        <v>1.037835467227415</v>
       </c>
       <c r="J19">
-        <v>1.014659522389771</v>
+        <v>1.044363098548403</v>
       </c>
       <c r="K19">
-        <v>1.038829849267826</v>
+        <v>1.040984637779021</v>
       </c>
       <c r="L19">
-        <v>1.015217135695005</v>
+        <v>1.049007216656929</v>
       </c>
       <c r="M19">
-        <v>1.015746618301202</v>
+        <v>1.056835953981364</v>
       </c>
       <c r="N19">
-        <v>1.008129141909589</v>
+        <v>1.018592185559433</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9850607361301463</v>
+        <v>1.037894508053287</v>
       </c>
       <c r="D20">
-        <v>1.024417628446091</v>
+        <v>1.037477469275817</v>
       </c>
       <c r="E20">
-        <v>0.9995976370296989</v>
+        <v>1.045355512043778</v>
       </c>
       <c r="F20">
-        <v>0.9998672308734157</v>
+        <v>1.053151200033265</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041676791371771</v>
+        <v>1.037751979340152</v>
       </c>
       <c r="J20">
-        <v>1.013179941126629</v>
+        <v>1.04407788416763</v>
       </c>
       <c r="K20">
-        <v>1.038044294532442</v>
+        <v>1.04084585634425</v>
       </c>
       <c r="L20">
-        <v>1.013647565196923</v>
+        <v>1.048696690947583</v>
       </c>
       <c r="M20">
-        <v>1.013912415268075</v>
+        <v>1.056465895555505</v>
       </c>
       <c r="N20">
-        <v>1.00761619089414</v>
+        <v>1.01849486012718</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.977796548091301</v>
+        <v>1.036567929385696</v>
       </c>
       <c r="D21">
-        <v>1.020832249731494</v>
+        <v>1.03681648831713</v>
       </c>
       <c r="E21">
-        <v>0.9933163264768227</v>
+        <v>1.044136479785637</v>
       </c>
       <c r="F21">
-        <v>0.9926923643021939</v>
+        <v>1.051740183642961</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03977038509797</v>
+        <v>1.037478780332874</v>
       </c>
       <c r="J21">
-        <v>1.008252839732682</v>
+        <v>1.043149638726605</v>
       </c>
       <c r="K21">
-        <v>1.035429412469197</v>
+        <v>1.040393590444406</v>
       </c>
       <c r="L21">
-        <v>1.008425439184453</v>
+        <v>1.04768659803644</v>
       </c>
       <c r="M21">
-        <v>1.007813517374176</v>
+        <v>1.055262711393397</v>
       </c>
       <c r="N21">
-        <v>1.005907518676847</v>
+        <v>1.018177891888958</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9730916125848866</v>
+        <v>1.035733624724877</v>
       </c>
       <c r="D22">
-        <v>1.018523115125952</v>
+        <v>1.036400841551134</v>
       </c>
       <c r="E22">
-        <v>0.9892577140240351</v>
+        <v>1.04337023221851</v>
       </c>
       <c r="F22">
-        <v>0.9880564753559281</v>
+        <v>1.050853534445661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038527939160792</v>
+        <v>1.037305650930912</v>
       </c>
       <c r="J22">
-        <v>1.005060019667339</v>
+        <v>1.042565252720941</v>
       </c>
       <c r="K22">
-        <v>1.03373634481124</v>
+        <v>1.040108411908454</v>
       </c>
       <c r="L22">
-        <v>1.005045024245707</v>
+        <v>1.047051089898612</v>
       </c>
       <c r="M22">
-        <v>1.00386830780955</v>
+        <v>1.054506146652585</v>
       </c>
       <c r="N22">
-        <v>1.004799958436128</v>
+        <v>1.017978175564896</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.975599408881255</v>
+        <v>1.036175928067674</v>
       </c>
       <c r="D23">
-        <v>1.01975260811501</v>
+        <v>1.036621189311366</v>
       </c>
       <c r="E23">
-        <v>0.9914200640496187</v>
+        <v>1.043776415387335</v>
       </c>
       <c r="F23">
-        <v>0.9905263928896572</v>
+        <v>1.051323515908884</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039190870907258</v>
+        <v>1.037397558873025</v>
       </c>
       <c r="J23">
-        <v>1.006761960735368</v>
+        <v>1.042875119317025</v>
       </c>
       <c r="K23">
-        <v>1.034638668064854</v>
+        <v>1.040259668124242</v>
       </c>
       <c r="L23">
-        <v>1.006846626578464</v>
+        <v>1.047388025223544</v>
       </c>
       <c r="M23">
-        <v>1.005970665216209</v>
+        <v>1.054907223529232</v>
       </c>
       <c r="N23">
-        <v>1.005390371466166</v>
+        <v>1.018084089412463</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9851803104557464</v>
+        <v>1.037916744536877</v>
       </c>
       <c r="D24">
-        <v>1.024476845672415</v>
+        <v>1.037488549592338</v>
       </c>
       <c r="E24">
-        <v>0.9997011859016769</v>
+        <v>1.045375952870015</v>
       </c>
       <c r="F24">
-        <v>0.9999855146131881</v>
+        <v>1.053174864728299</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041708038708308</v>
+        <v>1.037756536534698</v>
       </c>
       <c r="J24">
-        <v>1.013261013385017</v>
+        <v>1.044093433501447</v>
       </c>
       <c r="K24">
-        <v>1.038087335706439</v>
+        <v>1.040853424692327</v>
       </c>
       <c r="L24">
-        <v>1.013733551083274</v>
+        <v>1.048713618209181</v>
       </c>
       <c r="M24">
-        <v>1.014012884635918</v>
+        <v>1.056486065930823</v>
       </c>
       <c r="N24">
-        <v>1.007644299642298</v>
+        <v>1.018500166942133</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9957521167899308</v>
+        <v>1.039935921607596</v>
       </c>
       <c r="D25">
-        <v>1.029736637703097</v>
+        <v>1.038494772055206</v>
       </c>
       <c r="E25">
-        <v>1.008876066706568</v>
+        <v>1.047233065743814</v>
       </c>
       <c r="F25">
-        <v>1.010467157732059</v>
+        <v>1.055325540611598</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044450814897394</v>
+        <v>1.038167196900261</v>
       </c>
       <c r="J25">
-        <v>1.020423289733041</v>
+        <v>1.045503940464386</v>
       </c>
       <c r="K25">
-        <v>1.041890225088076</v>
+        <v>1.041538856449429</v>
       </c>
       <c r="L25">
-        <v>1.021338138249222</v>
+        <v>1.050250092389391</v>
       </c>
       <c r="M25">
-        <v>1.02290512888392</v>
+        <v>1.058317945047652</v>
       </c>
       <c r="N25">
-        <v>1.010126456831581</v>
+        <v>1.018981155911421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041545723200529</v>
+        <v>1.003795000388289</v>
       </c>
       <c r="D2">
-        <v>1.039297054728629</v>
+        <v>1.033768589091452</v>
       </c>
       <c r="E2">
-        <v>1.048715094248676</v>
+        <v>1.015883069506332</v>
       </c>
       <c r="F2">
-        <v>1.057042820102352</v>
+        <v>1.018474694081464</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038489970946423</v>
+        <v>1.046506860138264</v>
       </c>
       <c r="J2">
-        <v>1.046626351535078</v>
+        <v>1.025862793112614</v>
       </c>
       <c r="K2">
-        <v>1.042082643582883</v>
+        <v>1.044776696408899</v>
       </c>
       <c r="L2">
-        <v>1.051474166906976</v>
+        <v>1.027125475349028</v>
       </c>
       <c r="M2">
-        <v>1.059778872817172</v>
+        <v>1.029682510010484</v>
       </c>
       <c r="N2">
-        <v>1.019363311645429</v>
+        <v>1.012009683199651</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042714220149611</v>
+        <v>1.009431528507857</v>
       </c>
       <c r="D3">
-        <v>1.039879405151342</v>
+        <v>1.036608578656101</v>
       </c>
       <c r="E3">
-        <v>1.049791665577416</v>
+        <v>1.020807914528964</v>
       </c>
       <c r="F3">
-        <v>1.058290854848098</v>
+        <v>1.02410478230216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038721569036194</v>
+        <v>1.047928736005159</v>
       </c>
       <c r="J3">
-        <v>1.04743983060988</v>
+        <v>1.029668341469358</v>
       </c>
       <c r="K3">
-        <v>1.042475784736046</v>
+        <v>1.046793530502226</v>
       </c>
       <c r="L3">
-        <v>1.0523621553137</v>
+        <v>1.031181300660561</v>
       </c>
       <c r="M3">
-        <v>1.060839562023407</v>
+        <v>1.034438255067099</v>
       </c>
       <c r="N3">
-        <v>1.019639937002866</v>
+        <v>1.013325906430872</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043470160793303</v>
+        <v>1.01299128876094</v>
       </c>
       <c r="D4">
-        <v>1.040256136789622</v>
+        <v>1.038407851061932</v>
       </c>
       <c r="E4">
-        <v>1.050488512241968</v>
+        <v>1.023924437317815</v>
       </c>
       <c r="F4">
-        <v>1.059098953709223</v>
+        <v>1.027668698814953</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038870149398911</v>
+        <v>1.048817513594142</v>
       </c>
       <c r="J4">
-        <v>1.047965522699627</v>
+        <v>1.032068414547824</v>
       </c>
       <c r="K4">
-        <v>1.042729385589925</v>
+        <v>1.048063814424855</v>
       </c>
       <c r="L4">
-        <v>1.052936380819574</v>
+        <v>1.033742441934158</v>
       </c>
       <c r="M4">
-        <v>1.061525873563215</v>
+        <v>1.037444273109127</v>
       </c>
       <c r="N4">
-        <v>1.019818538618149</v>
+        <v>1.014155345636173</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043787922607966</v>
+        <v>1.014467789033452</v>
       </c>
       <c r="D5">
-        <v>1.040414492663921</v>
+        <v>1.039155368678561</v>
       </c>
       <c r="E5">
-        <v>1.050781523167494</v>
+        <v>1.025218536188092</v>
       </c>
       <c r="F5">
-        <v>1.059438808208897</v>
+        <v>1.02914886137132</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038932306287537</v>
+        <v>1.04918388695136</v>
       </c>
       <c r="J5">
-        <v>1.048186360797449</v>
+        <v>1.033063061483738</v>
       </c>
       <c r="K5">
-        <v>1.042835810251191</v>
+        <v>1.048589774492785</v>
       </c>
       <c r="L5">
-        <v>1.053177699229835</v>
+        <v>1.03480461656177</v>
       </c>
       <c r="M5">
-        <v>1.061814393873732</v>
+        <v>1.038691657283769</v>
       </c>
       <c r="N5">
-        <v>1.019893528663475</v>
+        <v>1.014498913378303</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043841274168446</v>
+        <v>1.014714551248854</v>
       </c>
       <c r="D6">
-        <v>1.040441079985529</v>
+        <v>1.039280366724872</v>
       </c>
       <c r="E6">
-        <v>1.050830724332821</v>
+        <v>1.025434897672698</v>
       </c>
       <c r="F6">
-        <v>1.05949587891759</v>
+        <v>1.029396348652352</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038942724738982</v>
+        <v>1.049244982485894</v>
       </c>
       <c r="J6">
-        <v>1.048223430956712</v>
+        <v>1.033229242374684</v>
       </c>
       <c r="K6">
-        <v>1.042853668313035</v>
+        <v>1.048677619428401</v>
       </c>
       <c r="L6">
-        <v>1.053218212632235</v>
+        <v>1.034982125474159</v>
       </c>
       <c r="M6">
-        <v>1.061862837435651</v>
+        <v>1.038900160040569</v>
       </c>
       <c r="N6">
-        <v>1.019906114309239</v>
+        <v>1.01455630467855</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043474406880377</v>
+        <v>1.013011095340541</v>
       </c>
       <c r="D7">
-        <v>1.04025825283674</v>
+        <v>1.038417874008158</v>
       </c>
       <c r="E7">
-        <v>1.050492427244944</v>
+        <v>1.023941791429074</v>
       </c>
       <c r="F7">
-        <v>1.059103494350397</v>
+        <v>1.027688546903675</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038870981145933</v>
+        <v>1.048822437375435</v>
       </c>
       <c r="J7">
-        <v>1.04796847418812</v>
+        <v>1.032081760678507</v>
       </c>
       <c r="K7">
-        <v>1.042730808385334</v>
+        <v>1.048070873707258</v>
       </c>
       <c r="L7">
-        <v>1.052939605664927</v>
+        <v>1.033756691069811</v>
       </c>
       <c r="M7">
-        <v>1.061529728804364</v>
+        <v>1.037461004030504</v>
       </c>
       <c r="N7">
-        <v>1.019819541008292</v>
+        <v>1.014159956304707</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041940655203081</v>
+        <v>1.00571856688227</v>
       </c>
       <c r="D8">
-        <v>1.03949388038797</v>
+        <v>1.034736508606818</v>
       </c>
       <c r="E8">
-        <v>1.049078878802345</v>
+        <v>1.017562419622405</v>
       </c>
       <c r="F8">
-        <v>1.057464488834086</v>
+        <v>1.020394312072515</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038568505401312</v>
+        <v>1.046994000057802</v>
       </c>
       <c r="J8">
-        <v>1.046901412505239</v>
+        <v>1.027162176225854</v>
       </c>
       <c r="K8">
-        <v>1.042215670260238</v>
+        <v>1.045465644090447</v>
       </c>
       <c r="L8">
-        <v>1.051774342235743</v>
+        <v>1.028509637798821</v>
       </c>
       <c r="M8">
-        <v>1.060137343539694</v>
+        <v>1.031304937817139</v>
       </c>
       <c r="N8">
-        <v>1.019456880032092</v>
+        <v>1.012459235648451</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039236735051743</v>
+        <v>0.9921542131061492</v>
       </c>
       <c r="D9">
-        <v>1.038146329494466</v>
+        <v>1.027941292075797</v>
       </c>
       <c r="E9">
-        <v>1.04658977426787</v>
+        <v>1.005749129627876</v>
       </c>
       <c r="F9">
-        <v>1.054580410009486</v>
+        <v>1.006894534792741</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038025711455913</v>
+        <v>1.043522033355834</v>
       </c>
       <c r="J9">
-        <v>1.045015847904776</v>
+        <v>1.017987101247574</v>
       </c>
       <c r="K9">
-        <v>1.041301921529563</v>
+        <v>1.040596742542738</v>
       </c>
       <c r="L9">
-        <v>1.049718189457522</v>
+        <v>1.018749614813351</v>
       </c>
       <c r="M9">
-        <v>1.057683544045121</v>
+        <v>1.019876734662992</v>
       </c>
       <c r="N9">
-        <v>1.018814805442793</v>
+        <v>1.009282440653716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0374331833529</v>
+        <v>0.9825639443476722</v>
       </c>
       <c r="D10">
-        <v>1.03724759907259</v>
+        <v>1.023182588011164</v>
       </c>
       <c r="E10">
-        <v>1.044931493394102</v>
+        <v>0.9974366065466794</v>
       </c>
       <c r="F10">
-        <v>1.052660341371929</v>
+        <v>0.9973987301700769</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037657267663314</v>
+        <v>1.041023297584608</v>
       </c>
       <c r="J10">
-        <v>1.043755216737393</v>
+        <v>1.011486842609098</v>
       </c>
       <c r="K10">
-        <v>1.040688746036693</v>
+        <v>1.037145519876839</v>
       </c>
       <c r="L10">
-        <v>1.048345481394898</v>
+        <v>1.011852298611846</v>
       </c>
       <c r="M10">
-        <v>1.056047451840392</v>
+        <v>1.011815110719941</v>
       </c>
       <c r="N10">
-        <v>1.018384716141186</v>
+        <v>1.007029121843726</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036651981049461</v>
+        <v>0.9782645858243918</v>
       </c>
       <c r="D11">
-        <v>1.036858364958461</v>
+        <v>1.021062529163564</v>
       </c>
       <c r="E11">
-        <v>1.044213692908706</v>
+        <v>0.9937204858953809</v>
       </c>
       <c r="F11">
-        <v>1.051829540958568</v>
+        <v>0.9931540084951374</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037496166704893</v>
+        <v>1.039893670279299</v>
       </c>
       <c r="J11">
-        <v>1.043208487107807</v>
+        <v>1.00857039708408</v>
       </c>
       <c r="K11">
-        <v>1.040422289326136</v>
+        <v>1.035597875769056</v>
       </c>
       <c r="L11">
-        <v>1.047750611652729</v>
+        <v>1.008761804288901</v>
       </c>
       <c r="M11">
-        <v>1.055338936956213</v>
+        <v>1.008206195408976</v>
       </c>
       <c r="N11">
-        <v>1.018197996559542</v>
+        <v>1.006017664639046</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036361767802503</v>
+        <v>0.9766439770846325</v>
       </c>
       <c r="D12">
-        <v>1.036713775316047</v>
+        <v>1.020265609938292</v>
       </c>
       <c r="E12">
-        <v>1.043947105624576</v>
+        <v>0.9923213815815612</v>
       </c>
       <c r="F12">
-        <v>1.051521033470534</v>
+        <v>0.9915559066416247</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037436091863632</v>
+        <v>1.039466540459523</v>
       </c>
       <c r="J12">
-        <v>1.043005275896995</v>
+        <v>1.007470786856767</v>
       </c>
       <c r="K12">
-        <v>1.040323173498792</v>
+        <v>1.035014586272339</v>
       </c>
       <c r="L12">
-        <v>1.047529577592216</v>
+        <v>1.007597185346743</v>
       </c>
       <c r="M12">
-        <v>1.055075750122164</v>
+        <v>1.006846690146671</v>
       </c>
       <c r="N12">
-        <v>1.018128567017202</v>
+        <v>1.005636250826544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036424021367965</v>
+        <v>0.9769926999837344</v>
       </c>
       <c r="D13">
-        <v>1.036744790757094</v>
+        <v>1.020436987176687</v>
       </c>
       <c r="E13">
-        <v>1.044004287902231</v>
+        <v>0.9926223647010411</v>
       </c>
       <c r="F13">
-        <v>1.051587205383369</v>
+        <v>0.9918996990444235</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03744898874568</v>
+        <v>1.03955850868506</v>
       </c>
       <c r="J13">
-        <v>1.043048871358694</v>
+        <v>1.007707412575087</v>
       </c>
       <c r="K13">
-        <v>1.040344440596385</v>
+        <v>1.035140092389872</v>
       </c>
       <c r="L13">
-        <v>1.047576993467803</v>
+        <v>1.007847772602511</v>
       </c>
       <c r="M13">
-        <v>1.05513220519617</v>
+        <v>1.007139189283433</v>
       </c>
       <c r="N13">
-        <v>1.018143463223191</v>
+        <v>1.005718329771856</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036627992757985</v>
+        <v>0.9781311177161197</v>
       </c>
       <c r="D14">
-        <v>1.036846413347625</v>
+        <v>1.020996851052336</v>
       </c>
       <c r="E14">
-        <v>1.04419165599773</v>
+        <v>0.99360522596245</v>
       </c>
       <c r="F14">
-        <v>1.051804037831975</v>
+        <v>0.9930223547596463</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037491205689319</v>
+        <v>1.039858519621206</v>
       </c>
       <c r="J14">
-        <v>1.043191692294167</v>
+        <v>1.008479841963497</v>
       </c>
       <c r="K14">
-        <v>1.040414099273975</v>
+        <v>1.035549835357335</v>
       </c>
       <c r="L14">
-        <v>1.047732342403035</v>
+        <v>1.008665883103524</v>
       </c>
       <c r="M14">
-        <v>1.055317182120939</v>
+        <v>1.008094213310229</v>
       </c>
       <c r="N14">
-        <v>1.018192258994282</v>
+        <v>1.005986255498488</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036753660912795</v>
+        <v>0.9788293522607661</v>
       </c>
       <c r="D15">
-        <v>1.036909024981663</v>
+        <v>1.021340535929874</v>
       </c>
       <c r="E15">
-        <v>1.044307104370227</v>
+        <v>0.9942082730124432</v>
       </c>
       <c r="F15">
-        <v>1.051937647173939</v>
+        <v>0.9937111757076065</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037517185830673</v>
+        <v>1.040042355852738</v>
       </c>
       <c r="J15">
-        <v>1.043279671531231</v>
+        <v>1.008953567530836</v>
       </c>
       <c r="K15">
-        <v>1.040456999488677</v>
+        <v>1.035801161653675</v>
       </c>
       <c r="L15">
-        <v>1.047828048308733</v>
+        <v>1.009167705433992</v>
       </c>
       <c r="M15">
-        <v>1.055431150762881</v>
+        <v>1.008680079328242</v>
       </c>
       <c r="N15">
-        <v>1.018222313922328</v>
+        <v>1.006150565517739</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037485023686854</v>
+        <v>0.9828460549448749</v>
       </c>
       <c r="D16">
-        <v>1.037273429698052</v>
+        <v>1.023321994301303</v>
       </c>
       <c r="E16">
-        <v>1.044979136530998</v>
+        <v>0.9976806709550611</v>
       </c>
       <c r="F16">
-        <v>1.052715491400231</v>
+        <v>0.9976775163863315</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037667926482333</v>
+        <v>1.041097231813594</v>
       </c>
       <c r="J16">
-        <v>1.043791483002619</v>
+        <v>1.011678167979915</v>
       </c>
       <c r="K16">
-        <v>1.040706409961941</v>
+        <v>1.037247074611123</v>
       </c>
       <c r="L16">
-        <v>1.048384950771811</v>
+        <v>1.012055126959436</v>
       </c>
       <c r="M16">
-        <v>1.05609447191427</v>
+        <v>1.012052029524086</v>
       </c>
       <c r="N16">
-        <v>1.018397097800533</v>
+        <v>1.00709546714604</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037943719222868</v>
+        <v>0.9853252690853479</v>
       </c>
       <c r="D17">
-        <v>1.037501990958848</v>
+        <v>1.024548642537631</v>
       </c>
       <c r="E17">
-        <v>1.045400749590692</v>
+        <v>0.9998267237511629</v>
       </c>
       <c r="F17">
-        <v>1.053203572526448</v>
+        <v>1.000128916608912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0377620637901</v>
+        <v>1.041745913330604</v>
       </c>
       <c r="J17">
-        <v>1.04411229566759</v>
+        <v>1.013359294812567</v>
       </c>
       <c r="K17">
-        <v>1.040862605152428</v>
+        <v>1.038139513660095</v>
       </c>
       <c r="L17">
-        <v>1.048734152182712</v>
+        <v>1.013837791809989</v>
       </c>
       <c r="M17">
-        <v>1.056510534357859</v>
+        <v>1.01413468582761</v>
       </c>
       <c r="N17">
-        <v>1.018506604263307</v>
+        <v>1.007678374707381</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038211244338029</v>
+        <v>0.9867573128144634</v>
       </c>
       <c r="D18">
-        <v>1.037635299295232</v>
+        <v>1.02525841953622</v>
       </c>
       <c r="E18">
-        <v>1.045646693178317</v>
+        <v>1.001067304995654</v>
       </c>
       <c r="F18">
-        <v>1.053488320183494</v>
+        <v>1.00154605108304</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037816821746543</v>
+        <v>1.04211970708268</v>
       </c>
       <c r="J18">
-        <v>1.044299336588635</v>
+        <v>1.014330120009577</v>
       </c>
       <c r="K18">
-        <v>1.040953619698429</v>
+        <v>1.038654951917891</v>
       </c>
       <c r="L18">
-        <v>1.04893778940419</v>
+        <v>1.014867640762063</v>
       </c>
       <c r="M18">
-        <v>1.056753209288537</v>
+        <v>1.015338150929112</v>
       </c>
       <c r="N18">
-        <v>1.018570430454839</v>
+        <v>1.008014949650558</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038302459439437</v>
+        <v>0.987243267295703</v>
       </c>
       <c r="D19">
-        <v>1.037680752678407</v>
+        <v>1.025499481622532</v>
       </c>
       <c r="E19">
-        <v>1.04573055766301</v>
+        <v>1.0014884512628</v>
       </c>
       <c r="F19">
-        <v>1.053585421697241</v>
+        <v>1.002027140537127</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037835467227415</v>
+        <v>1.042246396601709</v>
       </c>
       <c r="J19">
-        <v>1.044363098548403</v>
+        <v>1.01465952238977</v>
       </c>
       <c r="K19">
-        <v>1.040984637779021</v>
+        <v>1.038829849267826</v>
       </c>
       <c r="L19">
-        <v>1.049007216656929</v>
+        <v>1.015217135695005</v>
       </c>
       <c r="M19">
-        <v>1.056835953981364</v>
+        <v>1.015746618301201</v>
       </c>
       <c r="N19">
-        <v>1.018592185559433</v>
+        <v>1.008129141909589</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037894508053287</v>
+        <v>0.9850607361301467</v>
       </c>
       <c r="D20">
-        <v>1.037477469275817</v>
+        <v>1.024417628446092</v>
       </c>
       <c r="E20">
-        <v>1.045355512043778</v>
+        <v>0.9995976370296995</v>
       </c>
       <c r="F20">
-        <v>1.053151200033265</v>
+        <v>0.9998672308734159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037751979340152</v>
+        <v>1.041676791371771</v>
       </c>
       <c r="J20">
-        <v>1.04407788416763</v>
+        <v>1.01317994112663</v>
       </c>
       <c r="K20">
-        <v>1.04084585634425</v>
+        <v>1.038044294532443</v>
       </c>
       <c r="L20">
-        <v>1.048696690947583</v>
+        <v>1.013647565196923</v>
       </c>
       <c r="M20">
-        <v>1.056465895555505</v>
+        <v>1.013912415268075</v>
       </c>
       <c r="N20">
-        <v>1.01849486012718</v>
+        <v>1.00761619089414</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036567929385696</v>
+        <v>0.9777965480913008</v>
       </c>
       <c r="D21">
-        <v>1.03681648831713</v>
+        <v>1.020832249731493</v>
       </c>
       <c r="E21">
-        <v>1.044136479785637</v>
+        <v>0.9933163264768224</v>
       </c>
       <c r="F21">
-        <v>1.051740183642961</v>
+        <v>0.9926923643021934</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037478780332874</v>
+        <v>1.03977038509797</v>
       </c>
       <c r="J21">
-        <v>1.043149638726605</v>
+        <v>1.008252839732681</v>
       </c>
       <c r="K21">
-        <v>1.040393590444406</v>
+        <v>1.035429412469197</v>
       </c>
       <c r="L21">
-        <v>1.04768659803644</v>
+        <v>1.008425439184453</v>
       </c>
       <c r="M21">
-        <v>1.055262711393397</v>
+        <v>1.007813517374176</v>
       </c>
       <c r="N21">
-        <v>1.018177891888958</v>
+        <v>1.005907518676847</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035733624724877</v>
+        <v>0.9730916125848872</v>
       </c>
       <c r="D22">
-        <v>1.036400841551134</v>
+        <v>1.018523115125952</v>
       </c>
       <c r="E22">
-        <v>1.04337023221851</v>
+        <v>0.9892577140240352</v>
       </c>
       <c r="F22">
-        <v>1.050853534445661</v>
+        <v>0.9880564753559284</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037305650930912</v>
+        <v>1.038527939160792</v>
       </c>
       <c r="J22">
-        <v>1.042565252720941</v>
+        <v>1.005060019667339</v>
       </c>
       <c r="K22">
-        <v>1.040108411908454</v>
+        <v>1.033736344811241</v>
       </c>
       <c r="L22">
-        <v>1.047051089898612</v>
+        <v>1.005045024245708</v>
       </c>
       <c r="M22">
-        <v>1.054506146652585</v>
+        <v>1.003868307809551</v>
       </c>
       <c r="N22">
-        <v>1.017978175564896</v>
+        <v>1.004799958436128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036175928067674</v>
+        <v>0.9755994088812548</v>
       </c>
       <c r="D23">
-        <v>1.036621189311366</v>
+        <v>1.019752608115009</v>
       </c>
       <c r="E23">
-        <v>1.043776415387335</v>
+        <v>0.9914200640496189</v>
       </c>
       <c r="F23">
-        <v>1.051323515908884</v>
+        <v>0.9905263928896576</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037397558873025</v>
+        <v>1.039190870907258</v>
       </c>
       <c r="J23">
-        <v>1.042875119317025</v>
+        <v>1.006761960735368</v>
       </c>
       <c r="K23">
-        <v>1.040259668124242</v>
+        <v>1.034638668064854</v>
       </c>
       <c r="L23">
-        <v>1.047388025223544</v>
+        <v>1.006846626578464</v>
       </c>
       <c r="M23">
-        <v>1.054907223529232</v>
+        <v>1.00597066521621</v>
       </c>
       <c r="N23">
-        <v>1.018084089412463</v>
+        <v>1.005390371466166</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037916744536877</v>
+        <v>0.9851803104557465</v>
       </c>
       <c r="D24">
-        <v>1.037488549592338</v>
+        <v>1.024476845672415</v>
       </c>
       <c r="E24">
-        <v>1.045375952870015</v>
+        <v>0.9997011859016769</v>
       </c>
       <c r="F24">
-        <v>1.053174864728299</v>
+        <v>0.9999855146131881</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037756536534698</v>
+        <v>1.041708038708308</v>
       </c>
       <c r="J24">
-        <v>1.044093433501447</v>
+        <v>1.013261013385017</v>
       </c>
       <c r="K24">
-        <v>1.040853424692327</v>
+        <v>1.03808733570644</v>
       </c>
       <c r="L24">
-        <v>1.048713618209181</v>
+        <v>1.013733551083274</v>
       </c>
       <c r="M24">
-        <v>1.056486065930823</v>
+        <v>1.014012884635918</v>
       </c>
       <c r="N24">
-        <v>1.018500166942133</v>
+        <v>1.007644299642298</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039935921607596</v>
+        <v>0.9957521167899304</v>
       </c>
       <c r="D25">
-        <v>1.038494772055206</v>
+        <v>1.029736637703097</v>
       </c>
       <c r="E25">
-        <v>1.047233065743814</v>
+        <v>1.008876066706568</v>
       </c>
       <c r="F25">
-        <v>1.055325540611598</v>
+        <v>1.010467157732059</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038167196900261</v>
+        <v>1.044450814897393</v>
       </c>
       <c r="J25">
-        <v>1.045503940464386</v>
+        <v>1.020423289733041</v>
       </c>
       <c r="K25">
-        <v>1.041538856449429</v>
+        <v>1.041890225088076</v>
       </c>
       <c r="L25">
-        <v>1.050250092389391</v>
+        <v>1.021338138249222</v>
       </c>
       <c r="M25">
-        <v>1.058317945047652</v>
+        <v>1.02290512888392</v>
       </c>
       <c r="N25">
-        <v>1.018981155911421</v>
+        <v>1.010126456831581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003795000388289</v>
+        <v>0.9915988087813564</v>
       </c>
       <c r="D2">
-        <v>1.033768589091452</v>
+        <v>1.041545281764782</v>
       </c>
       <c r="E2">
-        <v>1.015883069506332</v>
+        <v>1.012891605955712</v>
       </c>
       <c r="F2">
-        <v>1.018474694081464</v>
+        <v>1.032814761318634</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046506860138264</v>
+        <v>1.057607245522286</v>
       </c>
       <c r="J2">
-        <v>1.025862793112614</v>
+        <v>1.014033734865511</v>
       </c>
       <c r="K2">
-        <v>1.044776696408899</v>
+        <v>1.052454647196512</v>
       </c>
       <c r="L2">
-        <v>1.027125475349028</v>
+        <v>1.024174214963915</v>
       </c>
       <c r="M2">
-        <v>1.029682510010484</v>
+        <v>1.043835107524516</v>
       </c>
       <c r="N2">
-        <v>1.012009683199651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008630797628021</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043264932583809</v>
+      </c>
+      <c r="Q2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R2">
+        <v>1.048160195019125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009431528507857</v>
+        <v>0.9954853396331238</v>
       </c>
       <c r="D3">
-        <v>1.036608578656101</v>
+        <v>1.043764307907855</v>
       </c>
       <c r="E3">
-        <v>1.020807914528964</v>
+        <v>1.015854844457603</v>
       </c>
       <c r="F3">
-        <v>1.02410478230216</v>
+        <v>1.03556479843259</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047928736005159</v>
+        <v>1.058248826421376</v>
       </c>
       <c r="J3">
-        <v>1.029668341469358</v>
+        <v>1.016099840077996</v>
       </c>
       <c r="K3">
-        <v>1.046793530502226</v>
+        <v>1.053866241063545</v>
       </c>
       <c r="L3">
-        <v>1.031181300660561</v>
+        <v>1.026288800486786</v>
       </c>
       <c r="M3">
-        <v>1.034438255067099</v>
+        <v>1.045761978555342</v>
       </c>
       <c r="N3">
-        <v>1.013325906430872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009329670332331</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044789914397276</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049155657292861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01299128876094</v>
+        <v>0.9979558953447148</v>
       </c>
       <c r="D4">
-        <v>1.038407851061932</v>
+        <v>1.045170091327119</v>
       </c>
       <c r="E4">
-        <v>1.023924437317815</v>
+        <v>1.017743052338039</v>
       </c>
       <c r="F4">
-        <v>1.027668698814953</v>
+        <v>1.037313672025264</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048817513594142</v>
+        <v>1.058639551326293</v>
       </c>
       <c r="J4">
-        <v>1.032068414547824</v>
+        <v>1.01741203445632</v>
       </c>
       <c r="K4">
-        <v>1.048063814424855</v>
+        <v>1.05475228521967</v>
       </c>
       <c r="L4">
-        <v>1.033742441934158</v>
+        <v>1.027631948774209</v>
       </c>
       <c r="M4">
-        <v>1.037444273109127</v>
+        <v>1.046981682904521</v>
       </c>
       <c r="N4">
-        <v>1.014155345636173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009773372920103</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045755222274671</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049783033874868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014467789033452</v>
+        <v>0.9989844511911966</v>
       </c>
       <c r="D5">
-        <v>1.039155368678561</v>
+        <v>1.045755907790766</v>
       </c>
       <c r="E5">
-        <v>1.025218536188092</v>
+        <v>1.018529955555037</v>
       </c>
       <c r="F5">
-        <v>1.02914886137132</v>
+        <v>1.038041291326061</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04918388695136</v>
+        <v>1.058798985639486</v>
       </c>
       <c r="J5">
-        <v>1.033063061483738</v>
+        <v>1.017958118273519</v>
       </c>
       <c r="K5">
-        <v>1.048589774492785</v>
+        <v>1.055120205670311</v>
       </c>
       <c r="L5">
-        <v>1.03480461656177</v>
+        <v>1.028190642538929</v>
       </c>
       <c r="M5">
-        <v>1.038691657283769</v>
+        <v>1.047487638103406</v>
       </c>
       <c r="N5">
-        <v>1.014498913378303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.00995822951577</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046155648890484</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050050252315444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014714551248854</v>
+        <v>0.9991567957983115</v>
       </c>
       <c r="D6">
-        <v>1.039280366724872</v>
+        <v>1.045856150668615</v>
       </c>
       <c r="E6">
-        <v>1.025434897672698</v>
+        <v>1.018661552991493</v>
       </c>
       <c r="F6">
-        <v>1.029396348652352</v>
+        <v>1.038162473546264</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049244982485894</v>
+        <v>1.058826584269416</v>
       </c>
       <c r="J6">
-        <v>1.033229242374684</v>
+        <v>1.018049707136122</v>
       </c>
       <c r="K6">
-        <v>1.048677619428401</v>
+        <v>1.05518387454858</v>
       </c>
       <c r="L6">
-        <v>1.034982125474159</v>
+        <v>1.028283977546327</v>
       </c>
       <c r="M6">
-        <v>1.038900160040569</v>
+        <v>1.047571653513502</v>
       </c>
       <c r="N6">
-        <v>1.01455630467855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009989530259389</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046222140935108</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050103898086797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013011095340541</v>
+        <v>0.9979702440890933</v>
       </c>
       <c r="D7">
-        <v>1.038417874008158</v>
+        <v>1.045183841547009</v>
       </c>
       <c r="E7">
-        <v>1.023941791429074</v>
+        <v>1.017753110247811</v>
       </c>
       <c r="F7">
-        <v>1.027688546903675</v>
+        <v>1.037321646097487</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048822437375435</v>
+        <v>1.058644703754507</v>
       </c>
       <c r="J7">
-        <v>1.032081760678507</v>
+        <v>1.01741990436795</v>
       </c>
       <c r="K7">
-        <v>1.048070873707258</v>
+        <v>1.054763057714168</v>
       </c>
       <c r="L7">
-        <v>1.033756691069811</v>
+        <v>1.02763895931204</v>
       </c>
       <c r="M7">
-        <v>1.037461004030504</v>
+        <v>1.046986711598942</v>
       </c>
       <c r="N7">
-        <v>1.014159956304707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009776851687511</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04575920212039</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049810494604313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00571856688227</v>
+        <v>0.9929220090706025</v>
       </c>
       <c r="D8">
-        <v>1.034736508606818</v>
+        <v>1.042307663558797</v>
       </c>
       <c r="E8">
-        <v>1.017562419622405</v>
+        <v>1.013898038342505</v>
       </c>
       <c r="F8">
-        <v>1.020394312072515</v>
+        <v>1.033747305403845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046994000057802</v>
+        <v>1.057832283813443</v>
       </c>
       <c r="J8">
-        <v>1.027162176225854</v>
+        <v>1.014737540211674</v>
       </c>
       <c r="K8">
-        <v>1.045465644090447</v>
+        <v>1.052943496388804</v>
       </c>
       <c r="L8">
-        <v>1.028509637798821</v>
+        <v>1.02489298606673</v>
       </c>
       <c r="M8">
-        <v>1.031304937817139</v>
+        <v>1.044488757042586</v>
       </c>
       <c r="N8">
-        <v>1.012459235648451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008869958672464</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043782250193327</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048528452403993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9921542131061492</v>
+        <v>0.983671085248624</v>
       </c>
       <c r="D9">
-        <v>1.027941292075797</v>
+        <v>1.036995840726267</v>
       </c>
       <c r="E9">
-        <v>1.005749129627876</v>
+        <v>1.006873953299389</v>
       </c>
       <c r="F9">
-        <v>1.006894534792741</v>
+        <v>1.027211341815979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043522033355834</v>
+        <v>1.05620737256716</v>
       </c>
       <c r="J9">
-        <v>1.017987101247574</v>
+        <v>1.00981393579782</v>
       </c>
       <c r="K9">
-        <v>1.040596742542738</v>
+        <v>1.04951590575209</v>
       </c>
       <c r="L9">
-        <v>1.018749614813351</v>
+        <v>1.019856481263482</v>
       </c>
       <c r="M9">
-        <v>1.019876734662992</v>
+        <v>1.039877839098118</v>
       </c>
       <c r="N9">
-        <v>1.009282440653716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007202807790506</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040133025143295</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046101846069618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9825639443476722</v>
+        <v>0.9772738517221796</v>
       </c>
       <c r="D10">
-        <v>1.023182588011164</v>
+        <v>1.033318670062093</v>
       </c>
       <c r="E10">
-        <v>0.9974366065466794</v>
+        <v>1.00205761728214</v>
       </c>
       <c r="F10">
-        <v>0.9973987301700769</v>
+        <v>1.022743923415869</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041023297584608</v>
+        <v>1.055008822899726</v>
       </c>
       <c r="J10">
-        <v>1.011486842609098</v>
+        <v>1.00641908574954</v>
       </c>
       <c r="K10">
-        <v>1.037145519876839</v>
+        <v>1.047111321990988</v>
       </c>
       <c r="L10">
-        <v>1.011852298611846</v>
+        <v>1.016389819929362</v>
       </c>
       <c r="M10">
-        <v>1.011815110719941</v>
+        <v>1.036714322973801</v>
       </c>
       <c r="N10">
-        <v>1.007029121843726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006057240516842</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037680796804189</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044418302607606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9782645858243918</v>
+        <v>0.9746748269590381</v>
       </c>
       <c r="D11">
-        <v>1.021062529163564</v>
+        <v>1.031917237043371</v>
       </c>
       <c r="E11">
-        <v>0.9937204858953809</v>
+        <v>1.00019286628862</v>
       </c>
       <c r="F11">
-        <v>0.9931540084951374</v>
+        <v>1.02125622895027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039893670279299</v>
+        <v>1.054575469185062</v>
       </c>
       <c r="J11">
-        <v>1.00857039708408</v>
+        <v>1.005140478981418</v>
       </c>
       <c r="K11">
-        <v>1.035597875769056</v>
+        <v>1.046261338433146</v>
       </c>
       <c r="L11">
-        <v>1.008761804288901</v>
+        <v>1.015111146350252</v>
       </c>
       <c r="M11">
-        <v>1.008206195408976</v>
+        <v>1.035788116572091</v>
       </c>
       <c r="N11">
-        <v>1.006017664639046</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005663124671679</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037384568208366</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04384979415631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9766439770846325</v>
+        <v>0.9737665090009053</v>
       </c>
       <c r="D12">
-        <v>1.020265609938292</v>
+        <v>1.031455546632633</v>
       </c>
       <c r="E12">
-        <v>0.9923213815815612</v>
+        <v>0.9995612343753845</v>
       </c>
       <c r="F12">
-        <v>0.9915559066416247</v>
+        <v>1.020851497027092</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039466540459523</v>
+        <v>1.054442612619536</v>
       </c>
       <c r="J12">
-        <v>1.007470786856767</v>
+        <v>1.004724162358972</v>
       </c>
       <c r="K12">
-        <v>1.035014586272339</v>
+        <v>1.046003941032517</v>
       </c>
       <c r="L12">
-        <v>1.007597185346743</v>
+        <v>1.014696845272471</v>
       </c>
       <c r="M12">
-        <v>1.006846690146671</v>
+        <v>1.035589829298312</v>
       </c>
       <c r="N12">
-        <v>1.005636250826544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005552845299344</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037554529673752</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043667809842512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9769926999837344</v>
+        <v>0.9741043745695682</v>
       </c>
       <c r="D13">
-        <v>1.020436987176687</v>
+        <v>1.031697592141104</v>
       </c>
       <c r="E13">
-        <v>0.9926223647010411</v>
+        <v>0.9998410212327241</v>
       </c>
       <c r="F13">
-        <v>0.9918996990444235</v>
+        <v>1.021262974144008</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03955850868506</v>
+        <v>1.054543534982462</v>
       </c>
       <c r="J13">
-        <v>1.007707412575087</v>
+        <v>1.004949808757155</v>
       </c>
       <c r="K13">
-        <v>1.035140092389872</v>
+        <v>1.046199627104785</v>
       </c>
       <c r="L13">
-        <v>1.007847772602511</v>
+        <v>1.014927223507088</v>
       </c>
       <c r="M13">
-        <v>1.007139189283433</v>
+        <v>1.035951134529929</v>
       </c>
       <c r="N13">
-        <v>1.005718329771856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005656692765725</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038117183677972</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.0438036995971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9781311177161197</v>
+        <v>0.9749039838712368</v>
       </c>
       <c r="D14">
-        <v>1.020996851052336</v>
+        <v>1.032185367237484</v>
       </c>
       <c r="E14">
-        <v>0.99360522596245</v>
+        <v>1.000447262922253</v>
       </c>
       <c r="F14">
-        <v>0.9930223547596463</v>
+        <v>1.021918083374192</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039858519621206</v>
+        <v>1.054719496265182</v>
       </c>
       <c r="J14">
-        <v>1.008479841963497</v>
+        <v>1.005396588650902</v>
       </c>
       <c r="K14">
-        <v>1.035549835357335</v>
+        <v>1.046541018188444</v>
       </c>
       <c r="L14">
-        <v>1.008665883103524</v>
+        <v>1.015377707240987</v>
       </c>
       <c r="M14">
-        <v>1.008094213310229</v>
+        <v>1.036454607836012</v>
       </c>
       <c r="N14">
-        <v>1.005986255498488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005825798565514</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038688642424401</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044046477037786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9788293522607661</v>
+        <v>0.9753719704715248</v>
       </c>
       <c r="D15">
-        <v>1.021340535929874</v>
+        <v>1.032461834352437</v>
       </c>
       <c r="E15">
-        <v>0.9942082730124432</v>
+        <v>1.000798207462273</v>
       </c>
       <c r="F15">
-        <v>0.9937111757076065</v>
+        <v>1.022263874896866</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040042355852738</v>
+        <v>1.054815522270972</v>
       </c>
       <c r="J15">
-        <v>1.008953567530836</v>
+        <v>1.005648911703165</v>
       </c>
       <c r="K15">
-        <v>1.035801161653675</v>
+        <v>1.046727800892322</v>
       </c>
       <c r="L15">
-        <v>1.009167705433992</v>
+        <v>1.015633242455822</v>
       </c>
       <c r="M15">
-        <v>1.008680079328242</v>
+        <v>1.03670813002353</v>
       </c>
       <c r="N15">
-        <v>1.006150565517739</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005915129802066</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038926589837922</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044184338125489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9828460549448749</v>
+        <v>0.9780214066938425</v>
       </c>
       <c r="D16">
-        <v>1.023321994301303</v>
+        <v>1.033991953428359</v>
       </c>
       <c r="E16">
-        <v>0.9976806709550611</v>
+        <v>1.00279403858407</v>
       </c>
       <c r="F16">
-        <v>0.9976775163863315</v>
+        <v>1.024110840725404</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041097231813594</v>
+        <v>1.055331144484789</v>
       </c>
       <c r="J16">
-        <v>1.011678167979915</v>
+        <v>1.007055338109479</v>
       </c>
       <c r="K16">
-        <v>1.037247074611123</v>
+        <v>1.047738488892551</v>
       </c>
       <c r="L16">
-        <v>1.012055126959436</v>
+        <v>1.017076498381336</v>
       </c>
       <c r="M16">
-        <v>1.012052029524086</v>
+        <v>1.038022556590269</v>
       </c>
       <c r="N16">
-        <v>1.00709546714604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006384414523707</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039926768151081</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044902044573438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9853252690853479</v>
+        <v>0.9796357958110326</v>
       </c>
       <c r="D17">
-        <v>1.024548642537631</v>
+        <v>1.034908444005331</v>
       </c>
       <c r="E17">
-        <v>0.9998267237511629</v>
+        <v>1.004008257698802</v>
       </c>
       <c r="F17">
-        <v>1.000128916608912</v>
+        <v>1.025179831953865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041745913330604</v>
+        <v>1.055629735204442</v>
       </c>
       <c r="J17">
-        <v>1.013359294812567</v>
+        <v>1.007899676885791</v>
       </c>
       <c r="K17">
-        <v>1.038139513660095</v>
+        <v>1.048330887159736</v>
       </c>
       <c r="L17">
-        <v>1.013837791809989</v>
+        <v>1.017946370750451</v>
       </c>
       <c r="M17">
-        <v>1.01413468582761</v>
+        <v>1.038760316055227</v>
       </c>
       <c r="N17">
-        <v>1.007678374707381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.0066555698917</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040380813378974</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045323439703794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9867573128144634</v>
+        <v>0.9805092758828622</v>
       </c>
       <c r="D18">
-        <v>1.02525841953622</v>
+        <v>1.035372465798478</v>
       </c>
       <c r="E18">
-        <v>1.001067304995654</v>
+        <v>1.004649774262639</v>
       </c>
       <c r="F18">
-        <v>1.00154605108304</v>
+        <v>1.025653913490375</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04211970708268</v>
+        <v>1.055767100586409</v>
       </c>
       <c r="J18">
-        <v>1.014330120009577</v>
+        <v>1.008329394069607</v>
       </c>
       <c r="K18">
-        <v>1.038654951917891</v>
+        <v>1.048607334337808</v>
       </c>
       <c r="L18">
-        <v>1.014867640762063</v>
+        <v>1.018388726344028</v>
       </c>
       <c r="M18">
-        <v>1.015338150929112</v>
+        <v>1.039044047368274</v>
       </c>
       <c r="N18">
-        <v>1.008014949650558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006777175215694</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040367326720253</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045507395925991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.987243267295703</v>
+        <v>0.9806863114135947</v>
       </c>
       <c r="D19">
-        <v>1.025499481622532</v>
+        <v>1.035412274226133</v>
       </c>
       <c r="E19">
-        <v>1.0014884512628</v>
+        <v>1.004735271397815</v>
       </c>
       <c r="F19">
-        <v>1.002027140537127</v>
+        <v>1.025548943726835</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042246396601709</v>
+        <v>1.055753765083429</v>
       </c>
       <c r="J19">
-        <v>1.01465952238977</v>
+        <v>1.00836033499621</v>
       </c>
       <c r="K19">
-        <v>1.038829849267826</v>
+        <v>1.048585093473282</v>
       </c>
       <c r="L19">
-        <v>1.015217135695005</v>
+        <v>1.018408657911842</v>
       </c>
       <c r="M19">
-        <v>1.015746618301201</v>
+        <v>1.038878515549403</v>
       </c>
       <c r="N19">
-        <v>1.008129141909589</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006759104463823</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039910835903417</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045497988130616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9850607361301467</v>
+        <v>0.9789305082619194</v>
       </c>
       <c r="D20">
-        <v>1.024417628446092</v>
+        <v>1.034279539384699</v>
       </c>
       <c r="E20">
-        <v>0.9995976370296995</v>
+        <v>1.003298633039111</v>
       </c>
       <c r="F20">
-        <v>0.9998672308734159</v>
+        <v>1.023890488571165</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041676791371771</v>
+        <v>1.055329090356623</v>
       </c>
       <c r="J20">
-        <v>1.01317994112663</v>
+        <v>1.007298499962016</v>
       </c>
       <c r="K20">
-        <v>1.038044294532443</v>
+        <v>1.047745265354899</v>
       </c>
       <c r="L20">
-        <v>1.013647565196923</v>
+        <v>1.017283726893811</v>
       </c>
       <c r="M20">
-        <v>1.013912415268075</v>
+        <v>1.037525869587659</v>
       </c>
       <c r="N20">
-        <v>1.00761619089414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006356620215471</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03831249184359</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044908081202501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9777965480913008</v>
+        <v>0.9740791863989258</v>
       </c>
       <c r="D21">
-        <v>1.020832249731493</v>
+        <v>1.031464131249616</v>
       </c>
       <c r="E21">
-        <v>0.9933163264768224</v>
+        <v>0.9996384663262836</v>
       </c>
       <c r="F21">
-        <v>0.9926923643021934</v>
+        <v>1.020442038615721</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03977038509797</v>
+        <v>1.05437549362944</v>
       </c>
       <c r="J21">
-        <v>1.008252839732681</v>
+        <v>1.004702095100037</v>
       </c>
       <c r="K21">
-        <v>1.035429412469197</v>
+        <v>1.045872957238631</v>
       </c>
       <c r="L21">
-        <v>1.008425439184453</v>
+        <v>1.014626691312732</v>
       </c>
       <c r="M21">
-        <v>1.007813517374176</v>
+        <v>1.035046210700227</v>
       </c>
       <c r="N21">
-        <v>1.005907518676847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005473359927187</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036309103065369</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043587506484889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9730916125848872</v>
+        <v>0.9709837590315114</v>
       </c>
       <c r="D22">
-        <v>1.018523115125952</v>
+        <v>1.029670661933004</v>
       </c>
       <c r="E22">
-        <v>0.9892577140240352</v>
+        <v>0.9973188044700403</v>
       </c>
       <c r="F22">
-        <v>0.9880564753559284</v>
+        <v>1.018272983944019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038527939160792</v>
+        <v>1.053754730491776</v>
       </c>
       <c r="J22">
-        <v>1.005060019667339</v>
+        <v>1.003052527825272</v>
       </c>
       <c r="K22">
-        <v>1.033736344811241</v>
+        <v>1.04467639478698</v>
       </c>
       <c r="L22">
-        <v>1.005045024245708</v>
+        <v>1.012943564147181</v>
       </c>
       <c r="M22">
-        <v>1.003868307809551</v>
+        <v>1.033490937596273</v>
       </c>
       <c r="N22">
-        <v>1.004799958436128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004913185945902</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035078200401045</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.04272815373528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9755994088812548</v>
+        <v>0.9726314925222859</v>
       </c>
       <c r="D23">
-        <v>1.019752608115009</v>
+        <v>1.030623650192146</v>
       </c>
       <c r="E23">
-        <v>0.9914200640496189</v>
+        <v>0.9985547725082822</v>
       </c>
       <c r="F23">
-        <v>0.9905263928896576</v>
+        <v>1.019431988725742</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039190870907258</v>
+        <v>1.054085829337336</v>
       </c>
       <c r="J23">
-        <v>1.006761960735368</v>
+        <v>1.0039309259134</v>
       </c>
       <c r="K23">
-        <v>1.034638668064854</v>
+        <v>1.045312566498828</v>
       </c>
       <c r="L23">
-        <v>1.006846626578464</v>
+        <v>1.013841437379557</v>
       </c>
       <c r="M23">
-        <v>1.00597066521621</v>
+        <v>1.034323946196726</v>
       </c>
       <c r="N23">
-        <v>1.005390371466166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005210573963062</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035737475557837</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.043168420642961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9851803104557465</v>
+        <v>0.9789859483730385</v>
       </c>
       <c r="D24">
-        <v>1.024476845672415</v>
+        <v>1.034297823730284</v>
       </c>
       <c r="E24">
-        <v>0.9997011859016769</v>
+        <v>1.003333123181581</v>
       </c>
       <c r="F24">
-        <v>0.9999855146131881</v>
+        <v>1.023901877914051</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041708038708308</v>
+        <v>1.055330272494718</v>
       </c>
       <c r="J24">
-        <v>1.013261013385017</v>
+        <v>1.007317622568799</v>
       </c>
       <c r="K24">
-        <v>1.03808733570644</v>
+        <v>1.047748262085321</v>
       </c>
       <c r="L24">
-        <v>1.013733551083274</v>
+        <v>1.017301957190978</v>
       </c>
       <c r="M24">
-        <v>1.014012884635918</v>
+        <v>1.037521860579058</v>
       </c>
       <c r="N24">
-        <v>1.007644299642298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006358448407993</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03826842273886</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044883123086866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9957521167899304</v>
+        <v>0.9861068304155609</v>
       </c>
       <c r="D25">
-        <v>1.029736637703097</v>
+        <v>1.038403612674702</v>
       </c>
       <c r="E25">
-        <v>1.008876066706568</v>
+        <v>1.008716182794736</v>
       </c>
       <c r="F25">
-        <v>1.010467157732059</v>
+        <v>1.028924767781485</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044450814897393</v>
+        <v>1.056653171578629</v>
       </c>
       <c r="J25">
-        <v>1.020423289733041</v>
+        <v>1.011110975069955</v>
       </c>
       <c r="K25">
-        <v>1.041890225088076</v>
+        <v>1.050433640699185</v>
       </c>
       <c r="L25">
-        <v>1.021338138249222</v>
+        <v>1.021180681470135</v>
       </c>
       <c r="M25">
-        <v>1.02290512888392</v>
+        <v>1.041090064559008</v>
       </c>
       <c r="N25">
-        <v>1.010126456831581</v>
+        <v>1.007643538235502</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041092420168411</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046778952550677</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9915988087813564</v>
+        <v>0.9918825059317971</v>
       </c>
       <c r="D2">
-        <v>1.041545281764782</v>
+        <v>1.038850647280443</v>
       </c>
       <c r="E2">
-        <v>1.012891605955712</v>
+        <v>1.012799549292421</v>
       </c>
       <c r="F2">
-        <v>1.032814761318634</v>
+        <v>1.03188715704437</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057607245522286</v>
+        <v>1.056238506790312</v>
       </c>
       <c r="J2">
-        <v>1.014033734865511</v>
+        <v>1.014308750626528</v>
       </c>
       <c r="K2">
-        <v>1.052454647196512</v>
+        <v>1.049794017975765</v>
       </c>
       <c r="L2">
-        <v>1.024174214963915</v>
+        <v>1.024083400213191</v>
       </c>
       <c r="M2">
-        <v>1.043835107524516</v>
+        <v>1.042919432796021</v>
       </c>
       <c r="N2">
-        <v>1.008630797628021</v>
+        <v>1.010997405707207</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043264932583809</v>
+        <v>1.042540239835366</v>
       </c>
       <c r="Q2">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048160195019125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046287612335929</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025243472331458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9954853396331238</v>
+        <v>0.9956818440891292</v>
       </c>
       <c r="D3">
-        <v>1.043764307907855</v>
+        <v>1.040874082585616</v>
       </c>
       <c r="E3">
-        <v>1.015854844457603</v>
+        <v>1.015671998740131</v>
       </c>
       <c r="F3">
-        <v>1.03556479843259</v>
+        <v>1.034511363032654</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058248826421376</v>
+        <v>1.056779278743419</v>
       </c>
       <c r="J3">
-        <v>1.016099840077996</v>
+        <v>1.016290922615321</v>
       </c>
       <c r="K3">
-        <v>1.053866241063545</v>
+        <v>1.051009377484235</v>
       </c>
       <c r="L3">
-        <v>1.026288800486786</v>
+        <v>1.02610820481288</v>
       </c>
       <c r="M3">
-        <v>1.045761978555342</v>
+        <v>1.044720915515055</v>
       </c>
       <c r="N3">
-        <v>1.009329670332331</v>
+        <v>1.011533487190496</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044789914397276</v>
+        <v>1.043965987203685</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049155657292861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047144049577025</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025475529152314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9979558953447148</v>
+        <v>0.9980979366077305</v>
       </c>
       <c r="D4">
-        <v>1.045170091327119</v>
+        <v>1.042157192475364</v>
       </c>
       <c r="E4">
-        <v>1.017743052338039</v>
+        <v>1.017503404108932</v>
       </c>
       <c r="F4">
-        <v>1.037313672025264</v>
+        <v>1.036181502276388</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058639551326293</v>
+        <v>1.057106626841307</v>
       </c>
       <c r="J4">
-        <v>1.01741203445632</v>
+        <v>1.017550422823652</v>
       </c>
       <c r="K4">
-        <v>1.05475228521967</v>
+        <v>1.0517721090321</v>
       </c>
       <c r="L4">
-        <v>1.027631948774209</v>
+        <v>1.027395070401039</v>
       </c>
       <c r="M4">
-        <v>1.046981682904521</v>
+        <v>1.045862011894961</v>
       </c>
       <c r="N4">
-        <v>1.009773372920103</v>
+        <v>1.011873988488455</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045755222274671</v>
+        <v>1.044869083606737</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049783033874868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047684321247408</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02561762463979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9989844511911966</v>
+        <v>0.999104272975523</v>
       </c>
       <c r="D5">
-        <v>1.045755907790766</v>
+        <v>1.04269282812767</v>
       </c>
       <c r="E5">
-        <v>1.018529955555037</v>
+        <v>1.018267233449561</v>
       </c>
       <c r="F5">
-        <v>1.038041291326061</v>
+        <v>1.036877220403745</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058798985639486</v>
+        <v>1.057240096316881</v>
       </c>
       <c r="J5">
-        <v>1.017958118273519</v>
+        <v>1.01807495101796</v>
       </c>
       <c r="K5">
-        <v>1.055120205670311</v>
+        <v>1.05208952557379</v>
       </c>
       <c r="L5">
-        <v>1.028190642538929</v>
+        <v>1.027930875560192</v>
       </c>
       <c r="M5">
-        <v>1.047487638103406</v>
+        <v>1.046336077584509</v>
       </c>
       <c r="N5">
-        <v>1.00995822951577</v>
+        <v>1.012015934915496</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046155648890484</v>
+        <v>1.045244272462558</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050050252315444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.0479165470398</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025675789856701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991567957983115</v>
+        <v>0.9992731948594314</v>
       </c>
       <c r="D6">
-        <v>1.045856150668615</v>
+        <v>1.042785292822642</v>
       </c>
       <c r="E6">
-        <v>1.018661552991493</v>
+        <v>1.018395421564965</v>
       </c>
       <c r="F6">
-        <v>1.038162473546264</v>
+        <v>1.036993788893347</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058826584269416</v>
+        <v>1.057263663052188</v>
       </c>
       <c r="J6">
-        <v>1.018049707136122</v>
+        <v>1.018163217507319</v>
       </c>
       <c r="K6">
-        <v>1.05518387454858</v>
+        <v>1.05214535282265</v>
       </c>
       <c r="L6">
-        <v>1.028283977546327</v>
+        <v>1.028020825814687</v>
       </c>
       <c r="M6">
-        <v>1.047571653513502</v>
+        <v>1.04641547171887</v>
       </c>
       <c r="N6">
-        <v>1.009989530259389</v>
+        <v>1.01204003426497</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046222140935108</v>
+        <v>1.045307107183962</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050103898086797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047965523173985</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025685845921903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9979702440890933</v>
+        <v>0.9981226874104996</v>
       </c>
       <c r="D7">
-        <v>1.045183841547009</v>
+        <v>1.042174110547397</v>
       </c>
       <c r="E7">
-        <v>1.017753110247811</v>
+        <v>1.017522192215218</v>
       </c>
       <c r="F7">
-        <v>1.037321646097487</v>
+        <v>1.036196134895614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058644703754507</v>
+        <v>1.057113385044352</v>
       </c>
       <c r="J7">
-        <v>1.01741990436795</v>
+        <v>1.017568428926542</v>
       </c>
       <c r="K7">
-        <v>1.054763057714168</v>
+        <v>1.051786002934938</v>
       </c>
       <c r="L7">
-        <v>1.02763895931204</v>
+        <v>1.027410709245372</v>
       </c>
       <c r="M7">
-        <v>1.046986711598942</v>
+        <v>1.045873621159969</v>
       </c>
       <c r="N7">
-        <v>1.009776851687511</v>
+        <v>1.011905481648063</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04575920212039</v>
+        <v>1.044878271506302</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049810494604313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047716001236187</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02561983892972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9929220090706025</v>
+        <v>0.9932074760125809</v>
       </c>
       <c r="D8">
-        <v>1.042307663558797</v>
+        <v>1.039555230536199</v>
       </c>
       <c r="E8">
-        <v>1.013898038342505</v>
+        <v>1.013800749690303</v>
       </c>
       <c r="F8">
-        <v>1.033747305403845</v>
+        <v>1.032795255181134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057832283813443</v>
+        <v>1.05643371996729</v>
       </c>
       <c r="J8">
-        <v>1.014737540211674</v>
+        <v>1.015014566671066</v>
       </c>
       <c r="K8">
-        <v>1.052943496388804</v>
+        <v>1.050224787191019</v>
       </c>
       <c r="L8">
-        <v>1.02489298606673</v>
+        <v>1.024796970516431</v>
       </c>
       <c r="M8">
-        <v>1.044488757042586</v>
+        <v>1.043548588167269</v>
       </c>
       <c r="N8">
-        <v>1.008869958672464</v>
+        <v>1.011268289142376</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043782250193327</v>
+        <v>1.043038172553264</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048528452403993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046617085712727</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025325716380327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.983671085248624</v>
+        <v>0.984173854330737</v>
       </c>
       <c r="D9">
-        <v>1.036995840726267</v>
+        <v>1.034717862797133</v>
       </c>
       <c r="E9">
-        <v>1.006873953299389</v>
+        <v>1.007000707536501</v>
       </c>
       <c r="F9">
-        <v>1.027211341815979</v>
+        <v>1.026566746490853</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05620737256716</v>
+        <v>1.055052472591326</v>
       </c>
       <c r="J9">
-        <v>1.00981393579782</v>
+        <v>1.010298124875318</v>
       </c>
       <c r="K9">
-        <v>1.04951590575209</v>
+        <v>1.047271704987973</v>
       </c>
       <c r="L9">
-        <v>1.019856481263482</v>
+        <v>1.019981215158729</v>
       </c>
       <c r="M9">
-        <v>1.039877839098118</v>
+        <v>1.039243015501124</v>
       </c>
       <c r="N9">
-        <v>1.007202807790506</v>
+        <v>1.010001076135272</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040133025143295</v>
+        <v>1.039630604398555</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046101846069618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044525690501706</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024742410455873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9772738517221796</v>
+        <v>0.9779809783457146</v>
       </c>
       <c r="D10">
-        <v>1.033318670062093</v>
+        <v>1.03139142170221</v>
       </c>
       <c r="E10">
-        <v>1.00205761728214</v>
+        <v>1.002385361075885</v>
       </c>
       <c r="F10">
-        <v>1.022743923415869</v>
+        <v>1.022350086781464</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055008822899726</v>
+        <v>1.054033137846831</v>
       </c>
       <c r="J10">
-        <v>1.00641908574954</v>
+        <v>1.007096294315478</v>
       </c>
       <c r="K10">
-        <v>1.047111321990988</v>
+        <v>1.045216118265216</v>
       </c>
       <c r="L10">
-        <v>1.016389819929362</v>
+        <v>1.016711680240781</v>
       </c>
       <c r="M10">
-        <v>1.036714322973801</v>
+        <v>1.036327197945385</v>
       </c>
       <c r="N10">
-        <v>1.006057240516842</v>
+        <v>1.00925529642985</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037680796804189</v>
+        <v>1.037374431173998</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044418302607606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04309058614772</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024316214996032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9746748269590381</v>
+        <v>0.9755670526381646</v>
       </c>
       <c r="D11">
-        <v>1.031917237043371</v>
+        <v>1.030176689771943</v>
       </c>
       <c r="E11">
-        <v>1.00019286628862</v>
+        <v>1.000704335273486</v>
       </c>
       <c r="F11">
-        <v>1.02125622895027</v>
+        <v>1.02106283025413</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.054575469185062</v>
+        <v>1.053694830613226</v>
       </c>
       <c r="J11">
-        <v>1.005140478981418</v>
+        <v>1.005992819318507</v>
       </c>
       <c r="K11">
-        <v>1.046261338433146</v>
+        <v>1.044551105885054</v>
       </c>
       <c r="L11">
-        <v>1.015111146350252</v>
+        <v>1.015612981075441</v>
       </c>
       <c r="M11">
-        <v>1.035788116572091</v>
+        <v>1.035598171481591</v>
       </c>
       <c r="N11">
-        <v>1.005663124671679</v>
+        <v>1.009215466140202</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037384568208366</v>
+        <v>1.03723432390796</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04384979415631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042656086284755</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024150662970432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9737665090009053</v>
+        <v>0.974750524871182</v>
       </c>
       <c r="D12">
-        <v>1.031455546632633</v>
+        <v>1.029796303327596</v>
       </c>
       <c r="E12">
-        <v>0.9995612343753845</v>
+        <v>1.000169964592305</v>
       </c>
       <c r="F12">
-        <v>1.020851497027092</v>
+        <v>1.020764667821472</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.054442612619536</v>
+        <v>1.053603292800222</v>
       </c>
       <c r="J12">
-        <v>1.004724162358972</v>
+        <v>1.005663308585743</v>
       </c>
       <c r="K12">
-        <v>1.046003941032517</v>
+        <v>1.044374082852141</v>
       </c>
       <c r="L12">
-        <v>1.014696845272471</v>
+        <v>1.015293909073098</v>
       </c>
       <c r="M12">
-        <v>1.035589829298312</v>
+        <v>1.03550457655292</v>
       </c>
       <c r="N12">
-        <v>1.005552845299344</v>
+        <v>1.009251195789802</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037554529673752</v>
+        <v>1.037487118655492</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043667809842512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042530930215845</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024087006281358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9741043745695682</v>
+        <v>0.9750996464985641</v>
       </c>
       <c r="D13">
-        <v>1.031697592141104</v>
+        <v>1.030041168936457</v>
       </c>
       <c r="E13">
-        <v>0.9998410212327241</v>
+        <v>1.000475345712052</v>
       </c>
       <c r="F13">
-        <v>1.021262974144008</v>
+        <v>1.021210085604894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.054543534982462</v>
+        <v>1.053705597307452</v>
       </c>
       <c r="J13">
-        <v>1.004949808757155</v>
+        <v>1.005899910658611</v>
       </c>
       <c r="K13">
-        <v>1.046199627104785</v>
+        <v>1.044572423458358</v>
       </c>
       <c r="L13">
-        <v>1.014927223507088</v>
+        <v>1.015549441188333</v>
       </c>
       <c r="M13">
-        <v>1.035951134529929</v>
+        <v>1.035899201976899</v>
       </c>
       <c r="N13">
-        <v>1.005656692765725</v>
+        <v>1.009312144560949</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038117183677972</v>
+        <v>1.038076129938654</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.0438036995971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042668451055601</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024101843694948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9749039838712368</v>
+        <v>0.9758719056494085</v>
       </c>
       <c r="D14">
-        <v>1.032185367237484</v>
+        <v>1.030496397782883</v>
       </c>
       <c r="E14">
-        <v>1.000447262922253</v>
+        <v>1.001068493490536</v>
       </c>
       <c r="F14">
-        <v>1.021918083374192</v>
+        <v>1.021857441911714</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.054719496265182</v>
+        <v>1.053864957511278</v>
       </c>
       <c r="J14">
-        <v>1.005396588650902</v>
+        <v>1.006321212929918</v>
       </c>
       <c r="K14">
-        <v>1.046541018188444</v>
+        <v>1.044881481669452</v>
       </c>
       <c r="L14">
-        <v>1.015377707240987</v>
+        <v>1.015987230130181</v>
       </c>
       <c r="M14">
-        <v>1.036454607836012</v>
+        <v>1.036395048681986</v>
       </c>
       <c r="N14">
-        <v>1.005825798565514</v>
+        <v>1.009367223453641</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038688642424401</v>
+        <v>1.03864156607343</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044046477037786</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042888503773673</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024147238169363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9753719704715248</v>
+        <v>0.976316449563045</v>
       </c>
       <c r="D15">
-        <v>1.032461834352437</v>
+        <v>1.030748250333677</v>
       </c>
       <c r="E15">
-        <v>1.000798207462273</v>
+        <v>1.001401260306278</v>
       </c>
       <c r="F15">
-        <v>1.022263874896866</v>
+        <v>1.022186213072769</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.054815522270972</v>
+        <v>1.053948444894287</v>
       </c>
       <c r="J15">
-        <v>1.005648911703165</v>
+        <v>1.006551515828758</v>
       </c>
       <c r="K15">
-        <v>1.046727800892322</v>
+        <v>1.045043855974198</v>
       </c>
       <c r="L15">
-        <v>1.015633242455822</v>
+        <v>1.016225018263276</v>
       </c>
       <c r="M15">
-        <v>1.03670813002353</v>
+        <v>1.036631843648784</v>
       </c>
       <c r="N15">
-        <v>1.005915129802066</v>
+        <v>1.009390276294354</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038926589837922</v>
+        <v>1.038866293657916</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044184338125489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04300967851798</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024176788028802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9780214066938425</v>
+        <v>0.9788072963335783</v>
       </c>
       <c r="D16">
-        <v>1.033991953428359</v>
+        <v>1.032109968306615</v>
       </c>
       <c r="E16">
-        <v>1.00279403858407</v>
+        <v>1.003250666593265</v>
       </c>
       <c r="F16">
-        <v>1.024110840725404</v>
+        <v>1.023880258250317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.055331144484789</v>
+        <v>1.05437831321478</v>
       </c>
       <c r="J16">
-        <v>1.007055338109479</v>
+        <v>1.007808160277442</v>
       </c>
       <c r="K16">
-        <v>1.047738488892551</v>
+        <v>1.045887650572026</v>
       </c>
       <c r="L16">
-        <v>1.017076498381336</v>
+        <v>1.017524970272706</v>
       </c>
       <c r="M16">
-        <v>1.038022556590269</v>
+        <v>1.037795877838756</v>
       </c>
       <c r="N16">
-        <v>1.006384414523707</v>
+        <v>1.009516738622126</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039926768151081</v>
+        <v>1.039747597814983</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044902044573438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043609688790087</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02436502525148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9796357958110326</v>
+        <v>0.9803259200706673</v>
       </c>
       <c r="D17">
-        <v>1.034908444005331</v>
+        <v>1.032917381615223</v>
       </c>
       <c r="E17">
-        <v>1.004008257698802</v>
+        <v>1.004368522908512</v>
       </c>
       <c r="F17">
-        <v>1.025179831953865</v>
+        <v>1.02484252037075</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.055629735204442</v>
+        <v>1.054621317082451</v>
       </c>
       <c r="J17">
-        <v>1.007899676885791</v>
+        <v>1.008561718214419</v>
       </c>
       <c r="K17">
-        <v>1.048330887159736</v>
+        <v>1.046371858555576</v>
       </c>
       <c r="L17">
-        <v>1.017946370750451</v>
+        <v>1.018300387212598</v>
       </c>
       <c r="M17">
-        <v>1.038760316055227</v>
+        <v>1.038428553313866</v>
       </c>
       <c r="N17">
-        <v>1.0066555698917</v>
+        <v>1.009614856478424</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040380813378974</v>
+        <v>1.040118556858969</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045323439703794</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043954839927815</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024484030039944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9805092758828622</v>
+        <v>0.9811347047961759</v>
       </c>
       <c r="D18">
-        <v>1.035372465798478</v>
+        <v>1.033309187747924</v>
       </c>
       <c r="E18">
-        <v>1.004649774262639</v>
+        <v>1.004936489998869</v>
       </c>
       <c r="F18">
-        <v>1.025653913490375</v>
+        <v>1.025230902105736</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055767100586409</v>
+        <v>1.054721889882496</v>
       </c>
       <c r="J18">
-        <v>1.008329394069607</v>
+        <v>1.008929866125972</v>
       </c>
       <c r="K18">
-        <v>1.048607334337808</v>
+        <v>1.046576706772392</v>
       </c>
       <c r="L18">
-        <v>1.018388726344028</v>
+        <v>1.018670553788808</v>
       </c>
       <c r="M18">
-        <v>1.039044047368274</v>
+        <v>1.038627879914321</v>
       </c>
       <c r="N18">
-        <v>1.006777175215694</v>
+        <v>1.009655540703631</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040367326720253</v>
+        <v>1.040038280042988</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045507395925991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044087034722541</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024551577844312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9806863114135947</v>
+        <v>0.981276559335732</v>
       </c>
       <c r="D19">
-        <v>1.035412274226133</v>
+        <v>1.033317998793561</v>
       </c>
       <c r="E19">
-        <v>1.004735271397815</v>
+        <v>1.004974923778818</v>
       </c>
       <c r="F19">
-        <v>1.025548943726835</v>
+        <v>1.025068974690427</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.055753765083429</v>
+        <v>1.054692781159384</v>
       </c>
       <c r="J19">
-        <v>1.00836033499621</v>
+        <v>1.008927179171813</v>
       </c>
       <c r="K19">
-        <v>1.048585093473282</v>
+        <v>1.046523780880518</v>
       </c>
       <c r="L19">
-        <v>1.018408657911842</v>
+        <v>1.018644246951545</v>
       </c>
       <c r="M19">
-        <v>1.038878515549403</v>
+        <v>1.038406273157999</v>
       </c>
       <c r="N19">
-        <v>1.006759104463823</v>
+        <v>1.00962218064682</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039910835903417</v>
+        <v>1.039537330844407</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045497988130616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044056558804416</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024562914368106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9789305082619194</v>
+        <v>0.9795589771136719</v>
       </c>
       <c r="D20">
-        <v>1.034279539384699</v>
+        <v>1.032259667897899</v>
       </c>
       <c r="E20">
-        <v>1.003298633039111</v>
+        <v>1.003555567845542</v>
       </c>
       <c r="F20">
-        <v>1.023890488571165</v>
+        <v>1.023422417613342</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055329090356623</v>
+        <v>1.054306142525428</v>
       </c>
       <c r="J20">
-        <v>1.007298499962016</v>
+        <v>1.007901259823063</v>
       </c>
       <c r="K20">
-        <v>1.047745265354899</v>
+        <v>1.045758035343989</v>
       </c>
       <c r="L20">
-        <v>1.017283726893811</v>
+        <v>1.017536183682116</v>
       </c>
       <c r="M20">
-        <v>1.037525869587659</v>
+        <v>1.037065546690872</v>
       </c>
       <c r="N20">
-        <v>1.006356620215471</v>
+        <v>1.009375044612742</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03831249184359</v>
+        <v>1.037948194017297</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044908081202501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043519420301453</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024426868781917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9740791863989258</v>
+        <v>0.9749966085414892</v>
       </c>
       <c r="D21">
-        <v>1.031464131249616</v>
+        <v>1.029741950690811</v>
       </c>
       <c r="E21">
-        <v>0.9996384663262836</v>
+        <v>1.000152333117547</v>
       </c>
       <c r="F21">
-        <v>1.020442038615721</v>
+        <v>1.02023189568896</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.05437549362944</v>
+        <v>1.053504214475138</v>
       </c>
       <c r="J21">
-        <v>1.004702095100037</v>
+        <v>1.00557822795543</v>
       </c>
       <c r="K21">
-        <v>1.045872957238631</v>
+        <v>1.044180941908131</v>
       </c>
       <c r="L21">
-        <v>1.014626691312732</v>
+        <v>1.015130820076174</v>
       </c>
       <c r="M21">
-        <v>1.035046210700227</v>
+        <v>1.034839845448992</v>
       </c>
       <c r="N21">
-        <v>1.005473359927187</v>
+        <v>1.009164963685376</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036309103065369</v>
+        <v>1.036145777829702</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043587506484889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042407896724486</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024095580029611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9709837590315114</v>
+        <v>0.9720857810632698</v>
       </c>
       <c r="D22">
-        <v>1.029670661933004</v>
+        <v>1.02813982320922</v>
       </c>
       <c r="E22">
-        <v>0.9973188044700403</v>
+        <v>0.997997998812391</v>
       </c>
       <c r="F22">
-        <v>1.018272983944019</v>
+        <v>1.018230181200334</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053754730491776</v>
+        <v>1.052980751939228</v>
       </c>
       <c r="J22">
-        <v>1.003052527825272</v>
+        <v>1.004102000828231</v>
       </c>
       <c r="K22">
-        <v>1.04467639478698</v>
+        <v>1.043173703303589</v>
       </c>
       <c r="L22">
-        <v>1.012943564147181</v>
+        <v>1.013609220337531</v>
       </c>
       <c r="M22">
-        <v>1.033490937596273</v>
+        <v>1.033448943527325</v>
       </c>
       <c r="N22">
-        <v>1.004913185945902</v>
+        <v>1.009025136225286</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035078200401045</v>
+        <v>1.035044964657823</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.04272815373528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041681094155165</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023880630414703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9726314925222859</v>
+        <v>0.9736179460040026</v>
       </c>
       <c r="D23">
-        <v>1.030623650192146</v>
+        <v>1.028984630888941</v>
       </c>
       <c r="E23">
-        <v>0.9985547725082822</v>
+        <v>0.9991311834438917</v>
       </c>
       <c r="F23">
-        <v>1.019431988725742</v>
+        <v>1.019288352889175</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054085829337336</v>
+        <v>1.053256874122923</v>
       </c>
       <c r="J23">
-        <v>1.0039309259134</v>
+        <v>1.00487175074116</v>
       </c>
       <c r="K23">
-        <v>1.045312566498828</v>
+        <v>1.043702923915324</v>
       </c>
       <c r="L23">
-        <v>1.013841437379557</v>
+        <v>1.014406660359302</v>
       </c>
       <c r="M23">
-        <v>1.034323946196726</v>
+        <v>1.034182953987244</v>
       </c>
       <c r="N23">
-        <v>1.005210573963062</v>
+        <v>1.009055126967334</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035737475557837</v>
+        <v>1.035625888924765</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043168420642961</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042044797376642</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023995487978489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9789859483730385</v>
+        <v>0.9796082737831341</v>
       </c>
       <c r="D24">
-        <v>1.034297823730284</v>
+        <v>1.032269953318586</v>
       </c>
       <c r="E24">
-        <v>1.003333123181581</v>
+        <v>1.003582241484235</v>
       </c>
       <c r="F24">
-        <v>1.023901877914051</v>
+        <v>1.023423259312165</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055330272494718</v>
+        <v>1.054303256794013</v>
       </c>
       <c r="J24">
-        <v>1.007317622568799</v>
+        <v>1.007914530124766</v>
       </c>
       <c r="K24">
-        <v>1.047748262085321</v>
+        <v>1.045753119403261</v>
       </c>
       <c r="L24">
-        <v>1.017301957190978</v>
+        <v>1.017546739641436</v>
       </c>
       <c r="M24">
-        <v>1.037521860579058</v>
+        <v>1.037051154368136</v>
       </c>
       <c r="N24">
-        <v>1.006358448407993</v>
+        <v>1.00937128055546</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03826842273886</v>
+        <v>1.037895889077692</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044883123086866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043486182493462</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024429015440588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9861068304155609</v>
+        <v>0.9865406546411152</v>
       </c>
       <c r="D25">
-        <v>1.038403612674702</v>
+        <v>1.035999442477705</v>
       </c>
       <c r="E25">
-        <v>1.008716182794736</v>
+        <v>1.008775547819207</v>
       </c>
       <c r="F25">
-        <v>1.028924767781485</v>
+        <v>1.028195064192952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056653171578629</v>
+        <v>1.055433601405614</v>
       </c>
       <c r="J25">
-        <v>1.011110975069955</v>
+        <v>1.011529627387032</v>
       </c>
       <c r="K25">
-        <v>1.050433640699185</v>
+        <v>1.048063483147389</v>
       </c>
       <c r="L25">
-        <v>1.021180681470135</v>
+        <v>1.021239145183835</v>
       </c>
       <c r="M25">
-        <v>1.041090064559008</v>
+        <v>1.040370905296665</v>
       </c>
       <c r="N25">
-        <v>1.007643538235502</v>
+        <v>1.010302383860656</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041092420168411</v>
+        <v>1.040523254073399</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046778952550677</v>
+        <v>1.04511656062203</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024900486437517</v>
       </c>
     </row>
   </sheetData>
